--- a/news_data/2017_03.xlsx
+++ b/news_data/2017_03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,156 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주환경연합 "제주도의회가 오라관광단지 직접 조사하라"</t>
+  </si>
+  <si>
+    <t>5월 황금연휴 최고 인기 관광지는 '제주도'…일본·대만 등 근거리 인기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, "봄향기 4월, 제주로 옵서예"</t>
+  </si>
+  <si>
+    <t>제주도 중국관광객 86% 감소...크루즈 '0', 항공노선 뚝↓</t>
+  </si>
+  <si>
+    <t>제주도-관광협회, 4월 팜팜버스 프로그램 운영</t>
+  </si>
+  <si>
+    <t>"제주도의회 오라관광단지 부결시켜라"</t>
+  </si>
+  <si>
+    <t>제주도, 사드 직격탄 맞은 관광업계 살리기 '특별융자'</t>
+  </si>
+  <si>
+    <t>해외여행에 밀리고 제주도에 치이고…강원관광 '침체 중'</t>
+  </si>
+  <si>
+    <t>"제주도의회, 오라관광단지 개발 환경영향평가 동의안 부결하라"</t>
+  </si>
+  <si>
+    <t>시장다변화 나선 제주도·관광협회, 동남아 공략 본격화</t>
+  </si>
+  <si>
+    <t>제주도내 관광업계, 항공요금 인상 철회 촉구</t>
+  </si>
+  <si>
+    <t>기자회견을 하고 있는 이승찬 제주도 관광국장</t>
+  </si>
+  <si>
+    <t>유커 사라진 제주도, 관광시장 다변화 ‘기지개’</t>
+  </si>
+  <si>
+    <t>제주도·정부 중국 관광객 감소 대책 마련</t>
+  </si>
+  <si>
+    <t>제주도 “中 사드 몽니, 관광시장 다변화로 극복”</t>
+  </si>
+  <si>
+    <t>관광객을 사로잡은 이색 제주 전복 흑돼지 꼬치, 제주도 맛집 '이도 광평도새...</t>
+  </si>
+  <si>
+    <t>"동남아 단체 무사증 도입...관광개발기금 제주도 포함"</t>
+  </si>
+  <si>
+    <t>제주도 관광메카 중문, 흑돼지 특미 즐기는 맛집도 많아</t>
+  </si>
+  <si>
+    <t>"제주도의회, 오라관광단지 개발 막아달라"</t>
+  </si>
+  <si>
+    <t>유일호 "동남아 단체관광객, 제주도 72시간 무비자 입국 상반기중 허용"</t>
+  </si>
+  <si>
+    <t>한산한 공항·문 닫은 호텔…中 관광금지에 제주도 '휘청'</t>
+  </si>
+  <si>
+    <t>중국인 관광객 발길 ‘뚝’…사드 직격탄 맞은 제주도</t>
+  </si>
+  <si>
+    <t>중국 크루즈 관광객 3천여명 전원 제주도 하선 거부</t>
+  </si>
+  <si>
+    <t>"중국인 없다"…해외서 인기관광지로 급부상한 제주도·서울</t>
+  </si>
+  <si>
+    <t>떠오르는 여수, 제주도와 비슷한 관광객! 여수 엑스포 유탑 마리나 호텔&amp;리조...</t>
+  </si>
+  <si>
+    <t>中 언론 "제주도 관광객 하선 거부 애국적···과열된 사드 반대 경계"</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 기념품 홍보전</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 관광상품개발 촉진 현장체험 진행</t>
+  </si>
+  <si>
+    <t>사드 보복 관광업계 직격탄 정부·제주도 협력 '총력대응'</t>
+  </si>
+  <si>
+    <t>브리핑하고 있는 이승찬 제주도 관광국장</t>
+  </si>
+  <si>
+    <t>머리 맞대는 원희룡-제주도관광협회</t>
+  </si>
+  <si>
+    <t>관광객 늘었던 '제주도'...최근 5년동안 약국도 21% 증가</t>
+  </si>
+  <si>
+    <t>제주도, '싼커' 적극 유치하기... 중국인 관광객 중 34.4% 차지</t>
+  </si>
+  <si>
+    <t>사드 조치로 중국관광객 싹 빠져나간 제주도 현재 상황 (사진)</t>
+  </si>
+  <si>
+    <t>제주도, 곶자왈 생태관광 특화사업 발굴</t>
+  </si>
+  <si>
+    <t>제주도 대만 관광설명회 개최...시장 다변화 마케팅 시동</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 성심요양원서 사랑나눔 봉사활동</t>
+  </si>
+  <si>
+    <t>제주도· 관광공사 일본 관광시장 회복 나선다</t>
+  </si>
+  <si>
+    <t>관광명소 많은 제주도, 성산일출봉 절경에 맛집 별미 즐기는 여행코스 ‘굿’</t>
+  </si>
+  <si>
+    <t>제주도 하선 거부한 채 '쓰레기만 2톤' 버리고간 중국인 관광객들</t>
+  </si>
+  <si>
+    <t>'사드 배치'에 국내 유커 급감, 제주도 관광 '초비상'</t>
+  </si>
+  <si>
+    <t>[전국맛탐방] 제주도 여행 2일차, 중문관광단지와 분위기 좋은 맛집 통해 추억...</t>
+  </si>
+  <si>
+    <t>"일본·동남아 관광객 모셔라"…제주도 '中 사드 보복' 대책회의</t>
+  </si>
+  <si>
+    <t>중국 관광 전면 금지에 제주도 전전긍긍</t>
+  </si>
+  <si>
+    <t>제주도, 중국의 한국 관광중단에 따른 유관기관 대책 회의</t>
+  </si>
+  <si>
+    <t>제주도, 크루즈관광 중단 직격탄 맞아</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 이달 Best 관광인에 전종민 씨 선정</t>
+  </si>
+  <si>
+    <t>사드 '中, 한국관광 전면중단'…제주도 긴급 대책회의 개최</t>
+  </si>
+  <si>
+    <t>제주도, 중국 관광객 급감 속 오피스텔 '활기'</t>
+  </si>
+  <si>
+    <t>관광·귀농·귀촌…제주도‘세컨하우스’ 선호도 증가세</t>
+  </si>
+  <si>
     <t>중국 사천성에서 '제주도 관광배 낚시대전' 개최</t>
   </si>
   <si>
@@ -52,34 +202,172 @@
     <t>[SN여행] 노란물결이 가득한 제주도의 대표 관광지 '산방산'</t>
   </si>
   <si>
-    <t>중국 사천성에서 '제주도 관광배 낚시대전' 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 중국 사천성에서 '제주도 관광배 낚시대전' 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 중국 사천성에서 '제주도 관광배 낚시대전' 개최 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.03.07 12:25 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주관광공사(사장 최갑열)는5일 중국 사천성 신진현에서 중국 내륙지역 낚시 동호인 및 사천성낚시협회 회원 등 내륙지역 낚시 애호가 400여명이 참가한 가운데 ‘제주특별자치도 관광배 낚시대전’ 행사를 개최했다.한국관광공사 청뚜지사와 공동으로 마련한 이번 행사는 바다가 없는 내륙지역인 중국 사천지역 낚시 애호가들을 타깃으로 제주관광과 제주낚시상품 홍보를 위해 기획됐다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회 골프동호회 3월 친선골프대회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 골프동호회 3월 친선골프대회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 골프동호회 3월 친선골프대회 개최 편집팀 iheadline@hanmail.net 승인 2017.03.15 17:38 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 골프동호회(회장 고규완 제주씨월드 대표)는 14일 오라컨트리클럽에서 회원사 임직원 및 가족 등 동호회 회원 70여명이 참가한 가운데 3월 친선 골프대회를 개최했다.대회 결과 이강은 다이아나호텔 대표가 우승을 차지했다. 제주조랑말타운 송문혁 대표는 메달리스트에 선정됐다.제주도 관광협회는 앞으로도 지속적인 친선골프대회 개최를 통해 도내 골프장업계가 활성화될 수 있도록 적극적인 활동을 펼쳐나갈 계획이다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도정의 관광 경쟁력 강화, 이번엔 믿어도 되나 &lt; 사내 칼럼 &lt; 오피니언 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 오피니언 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 본문영역 이전 기사보기 다음 기사보기 제주도정의 관광 경쟁력 강화, 이번엔 믿어도 되나 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 오피니언 사내 칼럼 제주도정의 관광 경쟁력 강화, 이번엔 믿어도 되나 기자명 박훈석 기자 입력 2017.03.07 20:30 수정 2017.03.08 09:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 박훈석 논설위원 우리 정부의 한반도 '사드'(THAAD:고고도 미사일방어체계) 배치 결정에 따른 중국 정부의 경제 보복이 유감스럽다. 중국정부는 지난 3일 자국 여행업계에 대해 오는 15일 이후 한국관광 금지령을 내리는 한편 위반 업체에 엄벌을 경고하는 등 양국간 정치·군사적 갈등을 순수 민간 교류 분야인 관광산업 영역까지 확대, 지자체마다 대응책 마련에 골머리를 앓고 있다.중국 정부의 경제보복으로 제주도 역시 대응책 마련에 부심하고 있다. 제주는 전체 외국인관광객의 85%를 중국인 단체·개별 관광객이 차지하는 관광산업 특성상 다른 지자체보다 경제 보복 충격파가 크기 때문이다. 특히 한국관광 금지령이 내려지마자 뉴화청·금우극제 등 5개 여행사와 계약을 맺은 중국인 420명을 포함해 6일 현재 11만1000여명이 예약을 취소한 가운데 중국에 97%를 의존하는 제주크루즈 상품 역시지난 4일부터 중국 최대 온라인여행사 인터넷에서 삭제, 충격파가 현실화되고 있다. 중국 정부의 치졸한 경제보복으로 제주를 찾는 중국관광객이 감소, 여행·숙박·음식·교통 등 관광 관련 서비스업종의 피해가 우려되자 제주도정도 대응책을 발표했다. 도는 6일 긴급 회의를 열고 원희룡 지사를 본부장으로 하는 대책본부를 가동하면서 단기 및 중장기 대책을 시행하겠다고 발표했다. 단기대책으로는 △육지부·해외 수학여행 확대 유치 △피해 업체 관광진흥기금 지원 검토 △중국 개별관광객 직접 모객 마케팅 △신규 취항 노선 개설 추진 △관광객 확대 대형 이벤트 개최 등을, 중·장기로는 △내수 관광 활성화 상품 개발 △일본 등 아시아시장 항공 노선 확대 △일본 관광시장 회복 추진 등을 각각 추진키로 했다.도가 발표한 단기 및 중장기 대책이 중국 의존도를 낮추는 제주관광 체질 개선 및 경쟁력 강화에 초점을 맞췄지만 미덥지 않다. 중국 관광객 감소의 외부 충격 요인이 발생할때마다 내놓은 체질개선·경쟁력 강화의 대책을 이번에도 제시, 재탕·삼탕이라는 비판을 면키 어렵다. 마치 컴퓨터에 저장했다가 문제가 터지면 발표하는 도의 우려먹기식 대책은 2년전 경험한 '메르스'(MERS·중동호흡기증후군) 사태에서도 확인할 수 있다. 2015년 5~12월 메르스 사태로 중국 관광객이 감소할때도 제주도는 이번의 사드와 대동소이한 양적 성장 탈피의 '전화위복' 대책을 발표했지만 '인해전술'식으로 밀려드는 중국 관광객 양적 증가에 취해 실천이 더디었음을 부인할 수 없다. 중국 관광객 감소의 관광시장 공백을 채우겠다는 내국인 유치 마케팅도 우리 정부의 홀대로 걱정이 앞선다. 가계부채 증가에 따른 소비심리 위축으로 내국인 관광객 감소가 우려되는 가운데 정부 마저 제주와 서울에 집중된 내·외국인 관광객을 전국으로 분산하는 지방관광 활성화 정책으로 제주관광시장에 빨간불이 켜진지 오래다. 실례로 문화체육관광부는 지난해 국내 대표 테마 관광지를 10개 권역으로 묶어 5년간 집중 육성할 '대한민국 테마관광 10선'에 39개 지자체를 선정하면서도 제주를 제외했다. '유커'로 불리는 중국 저가 단체관광객보다 더 많은 여행비용을 부담해 제주를 찾을 개별관광객 '싼커' 유인책도 수용태세 미흡으로 실현 가능성에 의문이 제기된다. 싼커를 포함해 내·외국인 개별관광객의 만족도를 높이면서 소비 증대와 숙박 등 지역상권 활성화와 연계시킬 야간 관광프로그램이 무엇보다 부족한 탓이다. 오죽했으면 지난해 한국 방문 중국인 가운데 개별관광객이 56.7%로 절반을 넘지만 제주는 38.3%에 그칠 만큼 성적표가 초라하다.제주관광이 메르스나 사드처럼 문제가 터진후 대책을 마련하면 체질개선·경쟁력 강화가 요원할 뿐만 아니라 경쟁 도시들에게 밀릴수밖에 없다. 이순신 장군이 무패의 신화를 거둘수 있었던 비결도 전쟁이 없을때 위기상황을 미리 감지, 대비책을 찾아 실천했다는 교훈을 제주공직사회가 새겨 들어야 한다. 박훈석 기자 hss9718@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>中 '한국 관광 금지령' 이후 유커 11만 명, 제주도 여행 취소 &lt; 사회 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-04 09:48 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 中 '한국 관광 금지령' 이후 유커 11만 명, 제주도 여행 취소 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 中 '한국 관광 금지령' 이후 유커 11만 명, 제주도 여행 취소 기자명 박준상 기자 입력 2017.03.07 15:19 수정 2017.03.07 15:33 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 텅 빈 제주도 바오첸 거리중국 정부가 우리나라 관광 금지 조치를 내린 이후 10만 명이 넘는 중국인 관광객이 제주도 여행을 취소한 것으로 나타났습니다.제주도는 중국 여행사와 계약해 중국인 관광객을 받는 도내 여행사를 조사한 결과 21개 여행사에 예약됐던 중국인 관광객 11만 천여 명이 예약을 취소했다고 밝혔습니다.지난해 제주를 찾은 중국인 관광객은 모두 300만 명에 달하지만, 올해는 이 가운데 약 70%인 200만 명이 줄어들 것으로 제주도는 예측했습니다.제주도는 앞으로 예약 취소 사례가 늘어날 것으로 예상하고 중국 현지와 도내 여행업계 실태 파악을 계속하면서, 대책본부를 통해 관광업계에 대한 지원 대책을 마련할 방침입니다.원희룡 제주도지사는 “중국이 정치적 목적과 반한다는 이유로 경제제재를 시행했던 것이 어제오늘의 일이 아니었다”면서 “메르스 사태처럼 우리의 지혜와 힘을 모아서 극복해낸다는 의지로 임해야 한다”고 강조했습니다. 박준상 기자 tree@bbsi.co.kr 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 구절초 향기 가득한 영평사로 오세요~ 정토사회문화회관 개관, '사회공헌·포교'의 전당 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 소백산 예천 용문사, 다음달(10월) 2일 “대장전.윤장대 국보승격 축하음악회” 개최 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 제주 곽지해수욕장서 스노쿨링 중 실종된 40대 변사체로 발견 미륵도량 봉덕사 "희망의 노래 전통차 축전" 구절초 향기 가득한 영평사로 오세요~ 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 1 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. 마리온 2017-03-09 17:21:17 더보기 삭제하기 미국의 이익이 우선인가? 한국의 경제가 우선인가? 박그네의 모든 정책은 최순실로 부터 만들어진것이니 국회에서는 사드배치, 한미일군사정보 협정, 국정교과서, 노동악법(성과연봉제) 재논의 하길 바랍니다. 박그네가 꼬아버린 중국과의 관계만 풀어져도 경제 풀립니다. 미국과 중국 양손잡고 같이 가야지 왜 한손을 잘라라고 하는가? 중국,러시아 감시사찰용 레이더가 사드다. 사드배치. 실제 북핵하고 아무런 관련이 없다 답글쓰기 0 0 주요기사 "美, 중간선거 뒤 'IRA' 규정 유연 적용 가능성" 국회, 오늘 국감돌입…법사위·외통위서 난타전 예고 尹 "북한 무모한 핵 도발, 국제사회 결연 대응 직면할 것" [박주정 교육칼럼] "마을과 함께하는 교육공동체 활동에 감동" 소아 한약, 언제 먹을까요? 5·18조사위, 옛 광주교도소서 출토된 유골은 5·18 행불자 최신뉴스 국제 "美, 중간선거 뒤 'IRA' 규정 유연 적용 가능성" 정치 국회, 오늘 국감돌입…법사위·외통위서 난타전 예고 정치 尹 "북한 무모한 핵 도발, 국제사회 결연 대응 직면할 것" 전국 [박주정 교육칼럼] "마을과 함께하는 교육공동체 활동에 감동" 지방사 인터뷰 소아 한약, 언제 먹을까요? 포토뉴스 "美, 중간선거 뒤 'IRA' 규정 유연 적용 가능성" 국회, 오늘 국감돌입…법사위·외통위서 난타전 예고 尹 "북한 무모한 핵 도발, 국제사회 결연 대응 직면할 것" [박주정 교육칼럼] "마을과 함께하는 교육공동체 활동에 감동" 인기뉴스 1 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 2 [뉴스파노라마 개천절 휴일 특집] 정찬주 작가 “간화선, 현대인에 최적화된 수행법…글쓰기, 무문관(無門關) 수행” 3 감사원, 문 전 대통령 서면조사 통보...내일 국감 ‘강대강 충돌’ 4 나토 사무총장, 러시아 핵무기 사용 위협에 강력 경고 5 ‘사라져가는 전통 잇는다’ 부여 대조사 미륵대재 봉행 6 서울 도심서 보수단체 3만여 명 대규모 집회...교통 혼잡 7 제1회 봉선사 교리경시대회 회향...창건 1053주년 개산대재 봉행 8 불국사, 불기2566년 제50회 신라문화 영산대재 봉행 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 관광객 평균 체류일수 '4.1일'...내.외국인 만족도는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광객 평균 체류일수 '4.1일'...내.외국인 만족도는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 관광객 평균 체류일수 '4.1일'...내.외국인 만족도는? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.03.07 12:19 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사, 방문관광객 실태조사 결과 제주를 방문하는 내.외국인관광객들의 평균 체류일수는 4.1일 정도이고, 내국인의 70%는 렌터카를 이용했던 것으로 나타났다.제주관광공사(사장 최갑열)는 지난해 제주를 방문한 내.외국인 및 크루즈 관광객 1만2000여명을 대상으로 실시한 국가승인통계 '2016 제주특별자치도 방문관광객 실태조사' 결과를 7일 발표했다.이번 조사는 제주국제공항, 제주여객터미널, 제주외항 크루즈 전용부두 등 주요 관문지역에서 개별면접조사 및 자기기입 방식으로 관광객 성향, 제주관광실태, 제주여행평가 및 만족도 등을 관광객 유형별로 진행됐다. 조사 결과 내국인 방문관광객의 평균 체류일수는 4.12일이며 1인 지출 경비는 59만2461원으로 나타났다.제주 여행에 대한 전반적 만족도는 보통수준을 약간 웃도는 3.94점(5점 만점 기준)으로 조사됐다. 제주여행 중 호텔(35.8%)에서 주로 숙박했고, 69.4%는 렌트카(69.4%)로 이동한 것으로 나타났다.외국인 방문관광객의 경우 평균 체류일수는 4.13일이며 1인 지출 경비는 미화 1466.5달러로 나타났다.제주 여행에 대한 전반적 만족도는 내국인보다는 약간 높은 4.06점(5점 만점 기준)으로 조사됐다. 제주여행 중 호텔(70.9%)에서 주로 잠을 자며, 전세버스(30.8%)로 이동하는 것으로 나타났다.제주특별자치도 방문관광객 실태조사는 2014년에 국가승인통계로 지정되어 제주관광에 대한 기초현황 자료로서 관광정책 및 제주관광 발전의 기초자료로 활용되고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 중국 한국관광 금지조치 긴급 대책회의 소집 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 중국 한국관광 금지조치 긴급 대책회의 소집 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 중국 한국관광 금지조치 긴급 대책회의 소집 윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2017.03.03 11:26 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 중국 정부가 고고도 미사일 방어체계(THAAD, 사드) 배치에 대한 보복으로 한국관광 금지조치를 내리면서 제주관광이 직격탄을 맞을 것으로 우려되는 가운데, 제주특별자치도 3일 이의 대책마련에 들어갔다.제주자치도는 이날 오후 1시30분 제주도청 회의실에서 이승찬 관광국장 주재로 제주관광공사, 제주도관광협회 등 유관기관장들이 참여하는 긴급 대책회의를 개최하고 대응책을 논의한다.앞으로 사드 대응 및 시장다변화 상황실을 가동하는 한편, 현 상황에서 가능한 모든 방안을 강구해 업계 피해 최소화 방안 등을 논의할 계획이다.앞서 중국 국가여유국은 2일 베이징 일대 여행사를 소집해 한국행 여행상품에 대해 온.오프라인을 망라한 전면적인 판매중단을 구두로 지시한 것으로 전해졌다. 한국관광상품 판매금지 조치는 베이징을 시작으로, 앞으로 지역별 회의를 통해 전국으로 확대 시달될 것으로 알려졌다.이같은 조치로 인해 단체 패키지관광은 물론 여행사를 통한 자유여행도 불가능하게 됐다.이 조치가 바로 실행될 경우 외래관광시장에서 중국인관광객 의존도가 85%에 달하는 제주도는 직접적 타격이 우려되고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 중국 한국관광 전면금지 조치...직격탄 맞는 제주도 '초비상' 중국, 개별여행객도 차단..."한국관광 신중히 결정하라" 경고 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>사드타격 제주도 관광업, 요우커 의존 탈피한다 - 화이트페이퍼 × 전체기사 종합 전체 국제 정치 교육 빅데이터 WP포토 경제 전체 경제일반 IT 생활경제 산업 부동산 아이엠리치 Money 전체 금융 증권 보험 부동산 소비•재테크 정책 이슈 사회/문화 전체 문화∙일반 라이프 책도시락 전체 책속의 지식·명문장 성공·아이디어 책속에 이런일이? 책속의 포스트잇 책속의 퀴즈 출판계 소식 삶의 향기 북데일리 전체 문학 인문·과학 경제경영 청소년 육아 여행 취미 레저 에세이 자기계발 추천! 이 책 북밴 글쓰기훈련소 출판계 소식 인터뷰 명사추천 이달의 책 올해의 책 베스트셀러랭킹 여론광장 전체 논쟁 더 칼럼 블로그 스토리 북콘서트 글쓰기훈련소 전체 글쓰기정보 연예 기타 전체 북토마토 CEO 직장인 여성/학부모 대학생 기업PR 라이프 전체 방송/연예 사회/일반 정치/경제 스포츠 UPDATED. 2022-10-04 10:21 (화) 로그인 회원가입 모바일웹 전체 종합 국제 정치 교육 빅데이터 WP포토 경제 경제일반 IT 생활경제 산업 부동산 아이엠리치 Money 금융 증권 보험 부동산 소비•재테크 정책 이슈 사회/문화 문화∙일반 책도시락 책속의 지식·명문장 성공·아이디어 책속에 이런일이? 책속의 포스트잇 책속의 퀴즈 출판계 소식 삶의 향기 북데일리 문학 인문·과학 경제경영 청소년 육아 여행 취미 레저 에세이 자기계발 추천! 이 책 북밴 글쓰기훈련소 출판계 소식 인터뷰 명사추천 이달의 책 여론광장 논쟁 더 칼럼 블로그 스토리 자유게시판 공지사항 기업PR 라이프 방송/연예 사회/일반 정치/경제 스포츠 검색버튼 기사검색 검색 이전 다음 사드타격 제주도 관광업, 요우커 의존 탈피한다 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 산업 사드타격 제주도 관광업, 요우커 의존 탈피한다 오예인 인턴기자 승인 2017.03.09 17:36 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 러시아, 중앙아시아, 국내 관광객 유치 노력 ▲ 3일 제주도청에서 중국의 사드 보복에 따른 대응책 마련을 위해 긴급대책회의가 열렸다.(사진=제주도청 제공) [화이트페이퍼=오예인 인턴기자] 사드보복 유탄을 맞은 제주도가 관광업 체질개선에 돌입한다. 10일 제주특별자치도에 따르면 지난 7일까지 24개 여행사에 예약했던 중국인 관광객 11만3130명이 제주 관광 일정을 전면 취소했다. 단체 한국여행 금지령 때문이다. 지난해 3월부터 12월까지 10개월간 제주를 찾은 중국인 관광객은 전체 외국인 관광객의 약 85%를 차지했다. 중국인 관광객은 전년도 대비 70%정도 줄어들 전망이다. ■ 관광체질 개선... 중국 의존도 줄이고 루트 다변화 제주도는 사드사태 이전부터 신흥시장 개척 노력을 이어왔다. 지난해 10월 제주도관광협회는 러시아에서 시베리아 바이칼 관광협회와 ‘협력 비즈니스 파트너십 구축과 공동 마케팅 추진을 위한 우호교류협약’을 체결한 바 있다. 이를 통해 극동 및 중앙아시아 시장을 겨냥한다는 계획이다. 지난해 말 러시아-제주도 전세기를 취항했다. 아울러 제주관광공사 관계자는 "접근성 개선을 위해 동남아시아, 몽골, 러시아 등 인접 국가에서 직항전세기 유치를 확대하고, 제주관광 신 시장으로 주목받는 말레이시아, 인도네시아 등의 수도권 외 도시 마케팅을 강화할 계획"이라고 밝혔다. 실제로 지난해 중국, 일본, 대만, 홍콩을 제외한 국가에서 41만 699명을 유치해 역대 최고치를 기록했다. 아시아 외에도 인도, 호주, 캐나다, 독일, 영국 등 한해 방한 관광객 규모가 10만 명이 넘는 주요 국가 관광객 유치를 위해 지난달 주요 여행사를 대상으로 설명회를 개최했다. 이어 오는 4월에는 이들 여행사 상품개발자를 제주로 초청해 제주관광 신규 상품 개발에 도움을 주기로 했다. ■ VIP는 역시 '국내관광객'과 '싼커' 한 관광업계 관계자는 "2011년 중국과 일본이 영토 분쟁 때에도 일본을 방문한 개별 중국인 관광객 감소 비율이 50%를 넘지는 않았다"며 "개별 여행객은 영향을 받지 않을 것으로 보고 있다"고 전망했다. 도 관광공사 역시 "구체적 피해상황을 계속 주시하겠지만 다양한 방법을 강구하고 있다"고 밝혔다. 3일 제주도에서 열린 중국의 한국관광 전면중단에 따른 긴급 대책회의에서 참석자들은 기존의 요우커가 아닌 개별 관광객 '싼커' 유치방안을 제시했다. 각종 미디어 활용, 시티투어 버스 등 대중교통 개선 등을 내놨다. 저가 단체 관광을 이 기회에 뿌리 뽑자는 얘기도 나왔다. 이에 제주도는 비짓제주(Visit Jeju)와 탐나오, SNS 등 온라인 마케팅을 확대해 개별 수요를 노릴 계획이다. 내국인 관광객 유치의 중요성도 대두됐다. 2016년 제주방문 내국인 관광객은 1,224만 명으로 전체 관광시장에서 77.3%를 점유하고 있다. 2004년 전년대비 -1.9% 감소한 것을 제외하고는 2000년대 이후 매년 전년 대비 지속적인 성장세를 기록하고 있다. 이에 업계 전문가는 “내국인 관광시장의 중요성을 인식하고 관련 마케팅에 집중해야 한다”고 강조했다. 저작권자 © 화이트페이퍼 무단전재 및 재배포 금지 화이트페이퍼, WHITEPAPER 오예인 인턴기자 y3in5@whitepaper.co.kr 다른기사 보기 관련기사 사이버전으로 번진 중국의 '사드보복'...취약점 점검해 대비 '사드 보복' 몸살 앓는 롯데 리스크, 금융권 번질라…금감원 실태 파악 무역협회, 특별상황반 운영... '중국 무역애로 신고센터' 설치 중국 디도스 공격까지 '막무가내'... 기업 보안 점검 필요 "中 사드보복, 韓 GDP성장률 0.5%p 떨어진다" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1온라인에서 오프라인으로…영토 넓히는 게임사들 2같은 음식 주문해도 배달비 달라... '최고 배달비' 많은 앱은 배민1 3SPC그룹, 무연고 아동 돕기 ‘SPC해피쉐어 캠페인’ 진행 4라인게임즈, 내달 '언디셈버' 글로벌 서비스 돌입…"운영 방식 차별 없어" 5농심켈로그 ‘켈로그 오트로드 by 연희’ 개최 6자영업자·취약계층 지원에 진심인 KB국민은행 7금감원장도 칭찬한 국민은행 'KB소호 멘토링스쿨'…비결은? 8오피스 투자지수, KB부동산에서 한눈에 파악 가능 9KB국민은행, 문송한 취준생 청년들에도 '굿잡' 선물 10국민연금·한국은행, 100억달러 외환 스왑 합의 최신기사 SPC그룹, 프랑스에 파리바게뜨 3개점 잇따라 오픈 SPC그룹, 프랑스에 파리바게뜨 3개점 잇따라 오픈 신한투자증권, 신입사원 채용설명회 개최 신한투자증권, 신입사원 채용설명회 개최 신한카드, GS리테일과 'GS Prime 신한카드 체크' 출시 신한카드, GS리테일과 'GS Prime 신한카드 체크' 출시 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울시 영등포구 국제금융로 6길 33, 1212호 (여의도동, 맨하탄빌딩) 대표전화 : 02-323-1905 팩스 : 02-6007-1812 청소년보호책임자 : 박경화 법인명 : 주식회사 화이트페이퍼 제호 : 화이트페이퍼 등록번호 : 서울 아 03165 등록일 : 2014-05-22 발행일 : 2014-05-22 발행인 : 임정섭 편집인 : 임정섭 화이트페이퍼 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 화이트페이퍼. All rights reserved. mail to white@whitepaper.co.kr 위로</t>
-  </si>
-  <si>
-    <t>중국 사드보복 한국관광 금지조치, 제주도 예상 피해정도는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 중국 사드보복 한국관광 금지조치, 제주도 예상 피해정도는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 중국 사드보복 한국관광 금지조치, 제주도 예상 피해정도는? 윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2017.03.06 14:52 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도 연간 300만 중국인시장 '붕괴' 우려 현실화 숙박.여행사.음식점 '직격탄'...제주도 경제전반 '타격' 중국 정부가 우리나라의 고고도 미사일 방어체계(THAAD, 사드) 배치에 대한 보복으로 강력한 한국관광 금지조치를 내리면서, 제주도는 관광산업은 물론 연계산업까지 직.간접적인 피해가 예상되면서 경제적 피해정도는 매우 클 것으로 분석되고 있다.중국 정부는 이달 2일부터 아웃바운드 여행사의 한국 단체관광업무를 중지토록 하는 한편, 모든 온.오프 여행사는 한국행 여행상품 판매를 전면 중단하도록 조치했다.이 지침 시달은 베이징 소재 여행사를 시작으로, 강소, 절강, 상해, 사천으로 이어지고 있고, 조만간 중국 전역에서 적용될 전망이다.사실상 여행사를 통한 한국행 패키지 단체관광이나 에어텔, 개별관광은 전면 금지되는 것이다. 여행사를 통한 한국행 항공권 구매나 비자발급도 전면 금지됐다.여행사를 통한 관광은 이달 15일 이전 여행일정에 비자 및 여행비용 지불이 완료된 경우에 한해 가능하도록 하고, 15일 이후 일정에 대해서는 취소하도록 했다.또 크루즈의 경우 한국에서 기항하는 것을 금지했다.그나마 개인이 직접 비자 및 항공권을 처리하는 완전 자유여행은 가능한 상황인데, 중국 정부는 이에 대해서도 '경고' 발령을 통해 통제에 들어갔다.중국 국가여유국이 지난 3일 공식사이트에 게재한 성명을 통해 여행사를 통하지 않고 개별적으로 한국을 자유여행하는 자국민들을 겨냥해, "한국관광을 신중히 결정하라"는 강력 권고를 하고 나선 것이다.이에따라 외래관광시장에서 중국인의 점유율이 85%에 달하는 제주도의 경우 직접적 타격을 입게 됐다.제주도 관광에서는 4일 기준으로 뉴화청, 금우국제, 킹스라인 등 5개 여행사에서 420여명 모객 관광계획을 전면 취소한 것으로 확인됐다.상해를 출발해 제주외항에 기항할 예정이던 국제크루즈 운항계획도 취소됐다. 취소된 크루즈선사는 코스타, 로얄, 천해크루즈 등인 것으로 알려졌다.중국의 이러한 조치로 제주와 중국을 잇는 항공노선의 잇따른 운항중단도 이어질 전망이다.제주특별자치도는 이의 대응책으로 단체관광객 대신 개별여행객, 즉 '싼커' 유치에 나선다고 했지만, 중국 정부의 강력 경고발령으로 이마저도 확신할 수 없는 상황이다.문제는 중국당국이 한국관광 전면 통제에 들어가는 이달 15일 이후.연간 300만명에 이르던 중국인관광객들의 발길이 끊길 경우 제주도 관광산업은 물론, 1차산업 및 유통.판매업 등 연계산업으로까지 연쇄적으로 영향을 미쳐 경제적 피해규모는 매우 클 것으로 전망되고 있다.단기간 내 영향을 미쳤던 2015년 중동호흡기증후군 메르스 사태 때보다도 몇배 더 심각한 피해가 우려되고 있다.우선 그동안 외래관광시장에서 중국에 크게 쏠렸던 일반여행업이 직격탄을 맞게 됐다.국내.국외 여행업을 제외한 일반여행업의 경우 제주도에 326곳이 있는데, 이중 23.9%인 78곳이 중국계이다. 이들 중국계 여행사를 비롯해 중국인 전담 지정여행사인 5곳은 타격이 매우 클 전망이다.우후죽순 들어서며 과포화 논란을 빚었던 호텔.콘도.펜션 등 관광숙박시설의 경우 최대 위기에 몰릴 것으로 예상된다.제주도내 관광숙박시설은 관광호텔 118곳, 전통호텔 1곳, 가족호텔 58곳, 호스텔 149곳, 소형호텔 3곳, 휴양콘도 57곳 등 총 386개소에 2만7836개 객실을 보유하고 있는데, 이중 20곳(5.2%)인 중국계 직영 숙박업이다.제주특별자치도는 단체.개별 관광객이 감소할 경우 특급호텔을 비롯해 전반적 침체가 예상되고, 특히 공항 인근에 위치한 제주시 연동.노형동 소재 숙박시설의 타격이 가장 클 것으로 보인다고 밝혔다.크루즈 제주기항이 중단될 경우 전세버스 업계도 큰 타격을 받게 됐다. 현재 제주도내에는 59개 업체에서 대형 1520대, 중형 749대 등 총 2269대의 관광버스를 운행하고 있다.중국인관광객들을 대상으로 해 운영해 온 외식업체 105곳도 피해정도가 클 것으로 분석됐다.제주기점 중국 노선을 운항해온 국적 항공사(대한항공, 진에어, 이스타항공)를 비롯해 제주도내 8개 카지노업체, 사설관광지, 유람선업, 유원시설업 등에서도 피해가 예상된다.관광업계 뿐만 아니라, 감귤을 비롯한 농.축.수산품 등을 생산하는 1차산업이나 2차 가공산업, 유통.판매업 등에서도 연쇄적인 피해가 우려된다. 특히 원도심 등 지역상권의 피해도 적지 않을 전망이다.제주도 경제가 그동안 관광산업을 중심으로 성장해 온 점을 감안할 때, 이번 중국의 한국관광금지 조치는 제주경제 전반에 심각한 영향을 미칠 것으로 분석이 지배적이다.지난해 제주를 찾은 외국인관광객은 총 360만3021명으로, 이중 중국인은 85%인 306만1522명에 달한다. 2015년과 비교해 36.8% 증가율을 보이는 등 매해 꾸준한 성장을 보여왔다.교통수단 유형별로는 직항 항공편이 38.8%, 국내경유 항공편 22.9%, 크루즈 38.1% 등으로 나타났다. 그러나 이달부터는 최소 '반토막' 이상의 급감 현상이 빚어질 것으로 전망되고 있다. 최악의 경우 6년전인 2010년 수준(40만명) 이하로 떨어질 가능성도 배제할 수 없다. 크루즈 기항만 못하게 된다 하더라도 40%에 가까운 관광객이 줄어들게 되기 때문이다.그동안 중국인관광객들이 너무 많이 오는데서 비롯된 수용환경 문제에 집중하던 제주도 관광당국이 이제는 '너무 안 오는' 상황에 대한 대책 마련에 부심하고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 중국 한국관광 전면금지 조치...직격탄 맞는 제주도 '초비상' 中사드보복, 제주경제 '전방위 압박'...도지사 대책본부 가동 중국 사드보복 예고 9개월, 관광당국 그동안 뭘 했나 中사드보복 '직격탄'...유커 11만명 제주관광 취소 中사드보복 크루즈 피해, 국제 네트워크 공동협력 모색 사드사태에 중소기업 피해 우려...'중국 수출피해 신고센터' 운영 사드보복 '직격탄' 제주도 피해 속출...유커 11만명 예약취소 사드보복 여파 中여행사, 한국 대신 북한 관광상품 판매 中사드보복에 '발 묶인 하늘길'...제주직항 노선 대거 취소 중국관광객 예약취소 속출...항공기.크루즈 줄줄이 '중단' 제주 기항 中크루즈 관광객 3400명 단체 '하선 거부' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 곶자왈 생태관광 특화사업 공모 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 곶자왈 생태관광 특화사업 공모 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 곶자왈 생태관광 특화사업 공모 김동일 기자 승인 2017.03.08 15:25 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 오는 20일까지 1차 신청 접수 진행 [제주일보=김동일 기자] 제주특별자치도는 오는 20일까지 곶자왈 생태관광 특화사업 공모를 실시한다고 8일 밝혔다.이번 사업은 생태문화 프로그램 개발을 통해 곶자왈 보전가치를 알리는 것은 물론 지역경제 활성화, 생태관광 토대를 마련하기 위해 추진되는 것으로, 제주도는 오는 5월부터 12월까지 사업을 중점 시행할 계획이다.사업신청은 도내에 등록되거나 도내에 지부를 둔 환경 및 문화예술 관련 비영리 법인 또는 단체 등으로, 최근 3년 이내 도내에서 활동 경험이 있어야 한다.공모 대상 사업은 ▲청정 곶자왈 특색을 활용한 생태프로그램 ▲곶자왈 마을의 역사문화를 소재로 한 문화프로그램 ▲곶자왈 보전을 위한 홍보활동 프로그램 등으로, 단체 홍보성 사업 또는 기념행사, 사업비가 과다 책정된 사업 등은 제외된다.제주도는 1차 신청기간인 오는 20일까지 접수를 진행해 신청자가 없을 경우 21일부터 31일까지 2차 신청을 접수할 계획이다.신청은 공모신청서와 사업계획서 등을 작성한 후 증빙서류와 함께 방문 또는 우편 등을 통해 제출하면 된다.제주도는 1차 내부 심의와 2차 환경보전기금운용위원회 심의 등을 거쳐 사업자를 선정할 예정이다. 김동일 기자  flash@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김동일 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>[SN여행] 노란물결이 가득한 제주도의 대표 관광지 '산방산' - 시선뉴스 × 전체기사 시사 전체 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 타임즈(개편중) 지식‧교양 전체 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 TV스캔들(개편중) 지식·정보 전체 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 전체 사회·문화 엔터테인먼트 날씨 다큐멘터리 전체 시선 인터뷰 역사 기억 [memory, 記憶] 스토리오브코리아 뉴스 전체 이슈돋보기 대중문화 HOT키워드 상상마당 라이프 전체 건강·음식 인테리어 패션·뷰티 육아 자동차 여행·관광 360VR e-biz 애니멀 전체 신비한 동물사전 반려동물농장 애니멀TV 산업 전체 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 2022년 10월 첫째 주 육아 관련 정책 [육아 정책브리핑] 당치땡, 신메뉴 ‘텍사스 치베큐’ 출시’ 중소기업유통센터, 소상공인 지원하는 ‘벤자민권 시즌2’ 마무리 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 셀코스메트 셀맨, ‘울트라 바이탈 크림’ 등 신제품 10종 출시 가해자와 함께 있어 경찰에 도움 요청하기 어려울 때 ‘똑똑’ 보이는 112 [지식용어] [정책브리핑] 2022년 10월 04일 화요일 주요 정책 10월 04일 화요일, 오늘의 날씨와 미세먼지 농도 [인포그래픽] [오늘의 사자성어] 동행서주[東行西走] 한국열린사이버대학교 평생교육원 ‘10월 20일 개강’ 사회복지사 2급 교육 수강생 모집 [10년 전 오늘] 17회 부산국제영화제(BIFF) 개막...안성기-탕웨이 사회로 개막식 진행 2022년 10월 04일, 오늘의 띠별 운세 [인포그래픽] [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 車 주요뉴스, 기아·포드 등 10만대 리콜 – 휘발유·경유 기름값 내림세 [모터그램] 네이버TV 카카오TV 유튜브 네이버 포스트 facebook twitter kakao story 로그인 회원가입 모바일웹 시사 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 지식‧교양 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 지식·정보 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 사회·문화 엔터테인먼트 날씨 애니멀 신비한 동물사전 반려동물농장 애니멀TV 다큐멘터리 시선 인터뷰 키워드 한국사 기억 [memory, 記憶] 스토리오브코리아 뉴스 이슈돋보기 대중문화 산업 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 기사검색 검색 이전 다음 [SN여행] 노란물결이 가득한 제주도의 대표 관광지 '산방산' 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 다큐멘터리 스토리오브코리아 [SN여행] 노란물결이 가득한 제주도의 대표 관광지 '산방산' 보도본부 | 이연선 pro 승인 2017.03.22 14:59 댓글 0 글씨키우기 글씨줄이기 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 블로그 기사공유하기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [시선뉴스(제주 서귀포)] 제주도는 사계절 내내 꽃이 지지 않기로 유명한 곳이면서 우리나라 남쪽에 위치하고 있어 봄이 가장 먼저 찾아오는 곳이다. 특히 제주도 어디서든 볼 수 있는 유채꽃은 노란 물결을 뽐내며 제주도를 노랗게 물들이고 있다.최근 중국인들의 발길이 끊어지며 제주도를 찾는 국내 관광객들도 많아지고 있다. 특히 날씨가 따뜻해지며 조금이라도 더 빨리 봄을 만나기 위해 제주도를 방문하는 사람도 많다. ⓒ지식교양 전문채널-시선뉴스 (사진제공-김수진) 제주도는 오름이나 박물관, 역사를 볼 수 있는 다양한 관광지 등 다양한 여행지가 있는데 제주도의 대표적인 봄꽃 유채꽃과 탄산 온천 등을 즐길 수 있는 곳, 바로 산방산이 있다.산방산은 천연기념물 제376호로 지정되어 있는 곳으로 불상이 안치되어 있는 자연 석굴 '산방굴'과 다양한 해안 식물, 해안절경까지 감상할 수 있는 제주도의 대표관광지이다.최근 중국 관광객들이 발길을 끊으며 우리나라 사람들이 방문하기 더없이 좋다는 제주도. 유채꽃은 5월까지 여유롭게 즐길 수 있다고 하니 봄을 하루빨리 만끽하고 싶다면 제주도를 방문해 보는 것은 어떨까?아름다운 사진 '김수진'님께서 제공해주셨습니다.*시선뉴스에서는 여러분의 아름다운 사진을 제공받고 있습니다.* 저작권자 © 시선뉴스 무단전재 및 재배포 금지 보도자료 발송 및 기사제휴 ▶ sisunnews@sisunnews.co.kr 문의 ▶ 02-838-5150 연예·스포츠 인기뉴스 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 이틀 만에 입장 발표한 박민영 측, 열애설 관련 “현재는 이별한 상태” 이틀 만에 입장 발표한 박민영 측, 열애설 관련 “현재는 이별한 상태” 제이플랜, 10월 5일 디지털 싱글 (Nostalgia) 발매 확정 제이플랜, 10월 5일 디지털 싱글 (Nostalgia) 발매 확정 엑소(EXO) 찬열, 군 복무 마치고 팬들 곁으로... 그룹 내 다섯 번째 군필 멤버 엑소(EXO) 찬열, 군 복무 마치고 팬들 곁으로... 그룹 내 다섯 번째 군필 멤버 [카드뉴스] 헷갈리는 재활용...알고 보니 재활용되지 않는 품목들 [카드뉴스] 헷갈리는 재활용...알고 보니 재활용되지 않는 품목들 시사상식 노트7 [2022년 10월 첫째 주_시선뉴스] [카드뉴스] 반려조류는 어떻게 키워야 할까 #십자매 #카나리아 #문조 北 위협에도 DMZ 찾은 해리스 미 부통령, 굳건한 안보 확인 "평화로운 한반도 추구" [글로벌이야기] 여성 신도 성폭행-추행 혐의 정명석 총재 구속영장 신청 外 [오늘의 주요뉴스] 오늘의 주요뉴스 기사더보기 &gt; 이연선 pro 0850031@sisunnews.co.kr 2020년 1월 21일, 오늘의 띠별 운세 [인포그래픽] 2020년 1월 5일, KBL 프로농구 경기일정 [인포그래픽] 2020년 1월 5일, 오늘의 띠별 운세 [인포그래픽] 오늘 이 영화 어때요? 1 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 2 [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ 1 [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ 2 [무비레시피] 칸에서 기립박수 받은 ‘감독’ 이정재의 첫 데뷔작, 영화 ’헌트’ [무비레시피] 칸에서 기립박수 받은 ‘감독’ 이정재의 첫 데뷔작, 영화 ’헌트’ 많이 본 뉴스 종합 다큐멘터리 1[오늘의 사자성어] 성의정심[誠意正心] 2[10년 전 오늘] 우리나라가 세워진 단기 4345년 개천절, 전국 곳곳서 경축행사 거행 3[정책브리핑] 2022년 10월 03일 월요일 주요 정책 4이번 주 별자리운세 '10월 03일~10월 09일' [인포그래픽] 5병역기피 논란 유승준, 명확한 ‘외국인과 재외국민’ 국적 요청 재판부 [지식용어] 62022년 10월 03일, 오늘의 띠별 운세 [인포그래픽] 7[무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 8車 주요뉴스, 기아·포드 등 10만대 리콜 – 휘발유·경유 기름값 내림세 [모터그램] 9[시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 10에듀윌, 경찰공무원 ‘김민현 경찰학 행정법 특강’ 무료 배포...“행정법 집중 학습” 1[10년 전 오늘] 17회 부산국제영화제(BIFF) 개막...안성기-탕웨이 사회로 개막식 진행 2[시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 3[10년 전 오늘] 우리나라가 세워진 단기 4345년 개천절, 전국 곳곳서 경축행사 거행 4[10년 전 오늘] 홍콩 인근 해상 선박 충돌 사고...최소 36명 사망 5[10년 전 오늘] 싸이 '강남스타일', 팝의 본고장 영국 음악차트 1위 접수 6[10년 전 오늘] 역사문화축제 백제문화제 개막 기념하는 불꽃쇼 펼쳐져 7[10년 전 오늘] 독도 갈등 속에서도 한일축제한마당 성황리에 개막 8[어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? 9[10년 전 오늘] 경찰, 고가 택배물품 몰래 빼돌린 배송기사 2명 구속영장 10[10년 전 오늘] 검찰, 통영 여자 초등생 살해범에 사형 구형 스타 인터뷰 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [시선★피플] 화제작 ‘수리남’ 극 흐름 이끄는 ‘하정우’, 2023년 에미상 기대해볼까 [시선★피플] 화제작 ‘수리남’ 극 흐름 이끄는 ‘하정우’, 2023년 에미상 기대해볼까 [인터뷰360] 워커홀릭이 체질? 몸이 10개라도 모자랄 만능엔터테이너 회사 대표 '유빈' [인터뷰360] 워커홀릭이 체질? 몸이 10개라도 모자랄 만능엔터테이너 회사 대표 '유빈' 신문방송사소개 인사말 연혁 등록인증 윤리강령 저작권규약 광고·제휴 제공제휴사 개인정보취급방침 이메일무단수집거부 찾아오시는길 청소년보호정책 서울특별시 구로구 디지털로31길 20 (구로동) 에이스테크노타워 5차 1008호 편집인 : 박진아 발행인 : 김정우 청소년보호책임자 : 박진아 등록일 : 2012.08.01 인터넷신문 등록번호 : 서울 아03964 이메일 : sisunnews@sisunnews.co.kr 사업자번호 : 130-86-88882 대표전화 : 02-838-5150 팩스 : 02-851-2908 Copyright © 2022 시선뉴스. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
+    <t>제주도관광협회, "봄향기 4월, 제주로 옵서예" &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, "봄향기 4월, 제주로 옵서예" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, "봄향기 4월, 제주로 옵서예" 기자명 고병수 기자 입력 2017.03.30 18:16 수정 2017.03.30 18:25 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주관광 그랜드세일 로드홍보 전개 (제주=국제뉴스) 고병수 기자 = 제주특별자치도와 제주특별자치도관광협회, 제주관광공사는 3월 30일부터 31일까지 2일간 내국인 관광객 유치 마케팅의 일환으로 국내 3개 권역(수도권, 영남권, 호남권) 잠재 수요층 대상 '봄향기 4월, 제주로 옵서예' 제주관광 그랜드세일 현장 로드홍보를 전개하고 있다.이번 로드홍보는 국내 주요 거점시장에서 제주관광 수요확충을 위해 민관합동으로 전개되고 있다.그랜드세일 홍보부스 운영 및 홍보 리플릿 배포, 제주관광 기념품 제공, 체험 이벤트 실시, 잠재고객층과의 1:1 면대면 홍보 등을 통해 "내나라 여행 먼저 만끽하기" 등 "제주관광 붐업 조성"을 도모하게 된다.특히 이번 현장 홍보에는 도내 862개 업체가 자발적으로 참여한 가운데 4월 한 달간 최대 65%까지 할인하는 그랜드 세일 행사를 집중 홍보하기 위해 관광협회가 운영하는 온라인 마켓 ‘탐나오’를 통한 구매자에게는 제주도 특산 바디용품 및 화장품 증정 등 푸짐한 현장 증정 이벤트도 실시한다. 또한 수도권 지역 버스랩핑 홍보, 도내·외 파워 블로거를 활용한 SNS 홍보마케팅을 전개하고  제주의 봄 축제인 제주왕벚꽃축제, 제35회 제주유채꽃축제, 제22회 제주국제관광마라톤축제 등 도내 주요 행사도 홍보할 예정이다.관광협회 관계자는 "제주관광 그랜드세일이 업계 자발적인 참여로 시작되는 만큼 만족스러운 결실을 이뤄지도록 다각적인 관광객 유치 마케팅에 최선의 노력을 다하겠다"며 "그랜드 세일 이후에는 교육여행 모객활동 강화, 융복합 관광상품 개발, 겨울 감귤따기 체험상품 등 제주관광의 계절에 맞는 특화상품 개발을 통하여 관광객의 만족도를 향상시켜 나가겠다"고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 중국관광객 86% 감소...크루즈 '0', 항공노선 뚝↓ - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 중국관광객 86% 감소...크루즈 '0', 항공노선 뚝↓ 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 중국관광객 86% 감소...크루즈 '0', 항공노선 뚝↓ 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2017.03.29 18:20 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 中 보복 직격탄 제주도, 관광업계 연쇄 불황 도미노 여행업, 음식점, 전세버스 타격...지역상권까지 피해 우려 중국정부가 우리나라의 고고도 미사일 방어체계(THAAD, 사드) 배치에 대한 보복으로 한국관광을 금지시키는 조치를 취한지 한달이 되어가는 가운데, 제주도를 찾는 중국인관광객은 80% 이상 급감한 것으로 나타났다.29일 제주특별자치도가 집계한 자료에 따르면 28일 제주를 방문한 중국인은 842명에 그쳤다. 이는 지난해 같은기간 6000명 선에 이르던 것과 비교하면 무려 85.7% 감소한 것이다. 제주를 찾은 경로에 있어서도, 그동안 주류를 이루던 직항편은 절반정도인 432명에 그쳤고 나머지 410명은 육지부에서 국내선으로 내려온 사례다. 즉, 중국에서 제주로 직접 방문하는 무비자 관광객이 예년 10% 수준만 유지되고 있다는 것이다.그동안 제주를 찾는 중국인의 40% 정도의 수송분담율을 보여온 크루즈를 통한 중국인관광객은 연일 '0'을 나타내고 있다. 중국정부가 크루즈의 한국기항을 금지시킨 지난 16일 이후 중국 크루즈가 단 1척도 들어오지 않았기 때문이다.크루즈는 현재까지 243회 기항취소가 이뤄졌다. 28일 하루에는 22회의 기항예약이 취소됐다.제주외항 뿐만 아니라, 올 하반기 개항할 예정인 강정 제주민군복합항 예약분도 잇따라 취소되는 것으로 나타났다.회당 3000명 내외의 관광객을 수송해온 점을 감안하면, 벌써 제주 장점 외국인 66만명 정도가 발길을 돌린 셈이다.제주를 기점으로 하는 중국 주요도시의 국제항공기 운항 중단도 속출하고 있다.총 23개 도시 162편 중 현재까지 65%에 이르는 18개 도시 105편의 항공기 운항이 중단된 것으로 파악됐다.중국인관광객들의 발길이 끊기면서 그동안 중국 단체관광객 위주로 운영해온 여행사를 비롯해 숙박시설, 관광음식점, 전세버스업계 등은 당장에 큰 피해가 나타나고 있다. 신제주 바오젠거리 등 일대 상권도 유동인구가 줄어들면서 급속히 침체되고 있다.이같은 추세가 앞으로 장기화될 경우 지역상권까지 연쇄적 불황으로 이어질 가능성을 배제할 수 없는 상황이다. 이에따라 제주특별자치도는 일본, 대만, 동남아 등을 타킷으로 해외시장 다변화를 위한 마케팅에 나서는 한편, 수학여학여행단 등 내국인 수요 유치에 집중하고 있다. 한편 한국은행 제주본부는 사드보복조치에 따른 관광시장 전망 보고서를 통해 외국인 관광객이 70%가량 감소하더라도 내국인 관광객이 20~25% 증가할 경우 외국인 관광객 감소분 대체가 가능하나, 최근 내국인 관광객 증가율은 10%를 밑돌고 있는 상황이어서 상쇄가 쉽지 않을 것으로 전망했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도-관광협회, 4월 팜팜버스 프로그램 운영 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도-관광협회, 4월 팜팜버스 프로그램 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도-관광협회, 4월 팜팜버스 프로그램 운영 기자명 고병수 기자 입력 2017.03.29 17:46 수정 2017.03.29 17:48 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주도와 제주도관광협회는 제주관광의 질적 성장을 견인코자 농산어촌 연계 반나절 관광프로그램인 '팜팜버스(Farm&amp;Family Bus) 프로그램'을 내달부터 운영을 시작한다고 29일 밝혔다.'팜팜버스(Farm&amp;Family Bus) 프로그램'은 제주의 농·산·어촌(Farm)에서 가족단위(Family) 관광객이 즐길 수 있는 관광콘텐츠를 엮은 반나절 프로그램이다.명도암 참살이마을, 낙천아홉굿마을, 예래생태마을, 신흥2리 동백마을 등을 대상으로 작년부터 지속 개발 운영 중에 있다.'팜팜버스 프로그램'은 시범운영 단계인 작년에는 4개마을을 대상으로 총 7회 운영됐고 어린이를 동반한 가족단위 관광객 및 도민 350여명이 참가해 조기 완판된 바 있다. 이에 오는 4월8일 1회차를 시작으로 기존 4개 마을(명도암 참살이마을, 낙천아홉굿마을, 예래생태마을, 신흥2리 동백마을)과 신규마을 1개소를 대상으로 '팜팜버스 프로그램' 시즌 2가 확대 시행 될 예정이다.관계자는 "1·2·3차 융복합 관광상품의 자립화를 위해 팜팜버스 프로그램과 제주도의 특성을 활용한 힐링, 치유 관련 웰니스 콘텐츠와의 융복합을 통한 지속적인 상품 업그레이드로 차별성을 확보해 나간다"며 "도내 여행업계와의 협업을 통한 농어촌 관광콘텐츠의 여행상품화를 적극 지원해 관광업계-농어촌 간 윈-윈할수 있는 구조를 구축하겠다"고 말했다.한편 팜팜버스 프로그램 4월부터 10월까지 3주 간격으로 진행되며 참가 신청 및 자세한 일정 안내는 제주여행 오픈마켓 탐나오에서 가능하다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>“제주도의회 오라관광단지 부결시켜라” &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 “제주도의회 오라관광단지 부결시켜라” 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 “제주도의회 오라관광단지 부결시켜라” 기자명 최병근 기자 입력 2017.03.28 15:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도내 시민단체, 난개발 신호탄 규정‧총력 저지 천명 다음달 5일 제주도의회 환경도시위원회에서 오라관광단지 개발사업 동의안이 논의될 예정인 가운데 시민단체가 이를 부결시키라고 촉구했다.제주참여환경연대는 28일 성명을 내고 “오라관광단지 개발사업자는 제주도정이 제기한 보완사항에 대해 숙박시설과 지하수 이용량을 일부 줄이고, 하수를 자체 처리한다는 미봉책을 내 놓았다”며 “그러나 제주도정은 이를 바로 제주도의회에 동의안으로 상정시키는 모습을 보였다. 오라관광단지 개발사업에 대한 제주도정 입장이 분명이 드러나는 대목이 아닐 수 없다”고 지적했다.제주참여환경연대는 이어 “오라관광단지 개발사업이 제주도의회를 통과하고, 제주도지사가 최종 승인한다면 걷잡을 수 없는 난개발의 신호탄이 될 것으로 예상하며, 모든 힘을 다해 이를 저지할 것”이라며 “제주도의회는 제주도민을 대표하는 기관이다. 단순히 환경적 영향을 떠나, 지역상권에 미칠 영향과 제주의 관광산업의 균형적이고 안정적인 발전을 염두에 두고 본 사안을 반드시 상임위에서 부결시켜야 한다”고 경고했다. 관련기사 “오라단지 반대 시민단체 억지부리는 꼴” [속보]오라단지 환경영향평가서 ‘상정보류’ 제주 노동당·녹색당·정의당도 반대 오라관광단지, 시작된 ‘건곤일척’? 오라단지 찬성측, “반대단체 몽니부리는 꼴” 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 사드 직격탄 맞은 관광업계 살리기 ‘특별융자’ - 아시아투데이 아시아투데이 서울 다른도시13.2℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 22℃ 도쿄 24.9℃ 베이징 10℃ 자카르타 27.2℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 제주도, 사드 직격탄 맞은 관광업계 살리기 ‘특별융자’ 성대 로스쿨 “일반 법조경력자 법관임용 전국 2위, 사립대 1위 수성”…‘명문 로스쿨 눈부신 성과’ 셀트리온그룹, 유럽장질환학회서 램시마SC·유플라이마 소개 2022년 10월 11일(화) 사통팔달 피플 아투시티초대석 볼거리 전체메뉴 종합 경기·인천 세종·충청 영남 호남 강원 제주 검색버튼 제주도, 사드 직격탄 맞은 관광업계 살리기 ‘특별융자’ 기사승인 2017. 03. 27. 12:05 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 관광시장 위축에 따른 경영안정자금 지원...300억원 규모 제주 나현범 기자 = 제주특별자치도가 중국의 ‘사드(THAAD·고고도미사일방어체계) 보복’으로 경영에 어려움을 겪고 있는 지역 관광업계 지원을 위해 관광진흥기금 300억원을 특별 융자키로 했다.27일 제주도에 따르면 융자 대상은 개인의 경우 주민등록상 제주도내 3개월 거주자, 법인의 경우 자본금 50억 미만으로 제주도 내에 본점이나 지점이 등록된 업체다.대상은 일반여행업 등 27개 업종이다. 특히 사드 보복 피해로 직격탄을 맞은 전세버스업과 사후면세점 등이 이번 특별융자대상에 신규로 포함됐다. 단 도내 투자진흥지구 지정 업체나 공고일 기준 휴·폐업 중이거나 최근 2년 이내 행정처분 받은 업체, 대기업과 4성급 이상의 특급호텔은 제외된다.지원한도는 매출액의 50% 이내로 최대 5억원까지다. 법인의 경우 자본금의 50% 또는 매출액의 50%까지 지원된다.소규모 신청금액이 3000만원 이하인 경우 매출액에 상관없이 신청액 그대로 반영이 된다. 또 기존 융자혜택에 따른 미상환액이 있더라도 추가로 지원이 가능하고 최대 5억원 한도내에서 융자금 미상환액을 제외하고 조정이 가능하다.융자금 지원신청은 다음 달 3일부터 14일까지이며 도 관광정책과나 각 시별 관광진흥과, 관광협회 등을 통해 접수받는다.특별융자금 산정범위는 관광사업체 운영에 소요되는 자금으로 손익계산서상 영업비용에 한정되고 자산취득비용이나 이자 등 금융비용은 책정하지 않는다.도 관계자는 “특별융자 및 원금상환 유예지원을 통해 지역 관광사업체가 한시름을 놓고 어려움을 극복할 수 있는 기회가 되기를 바란다”며 “지속적으로 제주관광산업 발전을 위한 기금 운용 정책을 추진할 계획이다”고 말했다. 전국부 나현범 기자 &gt; hnews@asiatoday.co.kr ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 전국 많이 본 뉴스 1 장성 황룡강 가을꽃축제, ‘사람반 꽃반’ 첫날 방문객 6.. 2 ‘주민등록법위반 혐의’ 김재한 창녕군의회 의장 피소 3 김동연 도지사 “전통시장은 지역경제의 근간, 지역화폐 활.. 4 고흥, 친환경 양식 클러스터 조성 1100억원 투자협약... 5 ‘주홍빛 물든 청도에서 즐겨보자’...청도반시축제·세계코.. 6 목포, 주암댐 ‘가뭄심각’ 장흥댐 용수 사용전환 위해 ‘.. 7 김영록 전남지사, 중앙지방협력회의서 중앙권한 과감한 이양.. 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>해외여행에 밀리고 제주도에 치이고…강원관광 '침체 중' | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 해외여행에 밀리고 제주도에 치이고…강원관광 '침체 중' 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 해외여행에 밀리고 제주도에 치이고…강원관광 '침체 중' 송고시간2017-03-23 06:30 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 배연호 기자 기자 페이지 (춘천=연합뉴스) 배연호 기자 = 과거 국내 대표 여행지였던 강원도와 제주도 관광산업 명암이 해외여행 자유화 이후 엇갈린 것으로 분석됐다. 강원연구원은 정책 메모 '골디락스 강원관광, 제주를 보다'에서 1970∼80년대 신혼여행 제주도, 수학여행 강원도 설악산이었다며 이같이 지적했다. 설악산 1989년 해외여행 자유화 이후 제주도와 강원도 관광산업은 모두 오랜 기간 침체했다. 광고 그러나 최근 상황은 사뭇 다르다. 제주도가 다양한 정책과 맞춤형 전략으로 호황이지만, 한때 '아시아 스위스'를 표방했던 강원도는 여전히 침체 중이라고 평가했다. 가장 큰 차이는 관광객 1인당 비용 지출 규모다. 2015년 기준 관광객 1인당 여행비용은 강원도 약 24만원, 제주도 약 50만원으로 나타났다. 강원도가 제주도의 절반도 안 됐다. 한라산 두 번째는 외국인 관광객 방문 비중 차이다. 강원연구원은 방한 외국인 관광객 중 강원도 방문 비중이 매년 감소한 데 비해 제주도 비중은 지속 증가 추세라고 분석했다. 최근 관광 트렌드 '걷는 길' 성패도 극명하게 갈렸다. 10년 전인 2007년 개장한 제주 올레길은 여전히 방문객 급증 추세다. 반면 산소길 등 강원도 걷는 길은 애초 계획대로 운영되는 코스가 전무한 상태다. 강원연구원 관계자는 23일 "강원도 관광산업이 현재처럼 해외여행에 밀리고 제주도에 치이는 패턴에서 탈피해야 한다"라며 강원도 관광 새 전략으로 고부가가치화, 외국 관광객 다변화, 2018 평창올림픽 연계 국제 관광 개발, 신규 관광지 조성 등을 제안했다. byh@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2017/03/23 06:30 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 선우은숙, 4살 연하 아나운서 유영재와 재혼 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 32 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 16 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>"제주도의회, 오라관광단지 개발 환경영향평가 동의안 부결하라" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 "제주도의회, 오라관광단지 개발 환경영향평가 동의안 부결하라" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 "제주도의회, 오라관광단지 개발 환경영향평가 동의안 부결하라" 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2017.03.27 15:50 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 시민사회, "사상 최대의 난개발 폭탄" 오라관광단지 '부결' 촉구 제주도 개발 사상 최대 규모의 난개발 및 환경훼손 논란에 휩싸인 제주오라관광단지 사업에 대한 환경영향평가 동의안이 제주도의회에 제출되자, 시민사회단체가 이의 부결처리를 촉구하고 나섰다.제주도내 시민사회단체로 구성된 제주시민사회단체연대회의는 27일 성명을 내고 "각종 환경파괴 논란과 환경영향평가·지하수허가 등의 특혜 논란의 중심에 선 오라관광단지 개발사업에 대한 환경영향평가 동의안이 지난 24일 도의회에 제출됐다"면서 "제주도는 그간 숱한 문제제기와 압도적인 개발반대 여론을 무시하고 결국 제주도 사상 최대의 난개발이라는 폭탄을 던지고 말았다"고 힐책했다.이들 단체는 "사업자의 보완내용을 담은 동의안은 그동안 문제가 되었던 지하수 취수량과 숙박시설 등의 소규모 축소만 담고 있지 특별한 사항은 없다"며 "이는 대규모 난개발로 인한 지하수 오남용과 교통체증과 오수처리 문제 등 한라산국립공원과 맞닿은 중산간지역의 환경훼손이라는 근본적인 문제는 전혀 해결하지 못하고 있다"고 지적했다.또 "이 사안은 여전히 제주도감사위원회의 조사를 받고 있는 상황이지만 이에 대한 고려 없이 무리하게 도의회 동의절차를 구하는 것은 앞뒤가 맞지 않는 행정행위"라고 비판했다.이들 단체는 이어 "감사위원회 역시 제주시민사회단체연대회의가 청구한 조사요청에 대한 답변으로 도의회에 동의안을 상정하기 전에 의무적으로 환경영향평가 심의를 해야 한다는 판단을 내리며 환경영향평가 심의결과를 ‘권고’사항으로 뒤집은 제주도의 특혜행정 행위에 면죄부를 준 바 있다"면서 "그렇다면 이번 동의안 상정 역시 감사위원회의 해석에 따라 사업자가 재협의를 통해 보완서를 제출했기 때문에 환경영향평가심의를 의무적으로 받아야 한다"고 주장했다.또 "제주도의 추가 보완사항 요구를 반영한 이번 동의안의 주요 내용은 지하수이용량과 숙박시설 규모를 소규모로 축소한 것과 오수를 전량 자체처리 하는 것"이라며 "하지만 사업자가 제주도의 보완요구를 반영한 보완서를 제주도에 제출하는 과정에서 환경영향평가 심의는 이뤄지지 않았다"고 강조했다.이들 단체는 "그런데도 제주도는 곧바로 동의안을 의회에 제출한 것"이라며 "이는 제주도감사위원회의 환경영향평가 조례 해석에 따르면 제주도가 조례 위반을 범한 것이며, 그 반대라면 애초 제주도감사위원회가 잘못된 해석과 조사결과를 내놓은 것"이라고 지적했다.이들 단체는 "따라서 제주도는 즉각 동의안을 자진 철회하고, 사업반려를 최종 고민해야 할 것"이라고 주장했다.또 "제주도의회 역시 하자가 분명한 동의안을 처리할 것이 아니라 즉각적인 부결로 잘못된 행정행위에 철퇴를 내려야 하고, 나아가 제주도 역사상 최대의 난개발을 막는데 힘을 보태야 할 것"이라며 "부디 제주도와 제주도의회가 도민의 민의를 거스르는 잘못된 선택을 하지 않길 바란다"고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 "오라관광단지는 난개발 신호탄...도의회, 동의안 부결하라" 오라관광단지 개발에는 왜 이토록?...'편애' 이유가 궁금하다 오라관광단지 논란 다시 격화.."도의회, 행정사무조사권 발동하라" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>시장다변화 나선 제주도·관광협회, 동남아 공략 본격화 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 시장다변화 나선 제주도·관광협회, 동남아 공략 본격화 등록 2017.03.20 10:58:03 작게 크게 【제주=뉴시스】장재혁 기자 = 제주도와 제주도관광협회(회장 김영진)는 지난 17일부터 19일까지 사흘간 말레이시아 쿠알라룸푸르에서 개최한 상반기 말레이시아 국제관광전(마타페어 MATTA FAIR)에 도내관광사업체(여행업, 숙박업, 관광지업 등)와 공동으로 참가해 동남아 핵심시장 중 하나인 말레이시아 시장 선점을 위한 마케팅 활동을 전개했다고 20일 밝혔다.2017.03.20.(사진=제주관광협회 제공) jjhyej@newsis.com 【제주=뉴시스】장재혁 기자 = 제주도와 제주도관광협회(회장 김영진)는 지난 17일부터 19일까지 사흘간 말레이시아 쿠알라룸푸르에서 개최한 상반기 말레이시아 국제관광전(마타페어 MATTA FAIR)에 도내관광사업체(여행업, 숙박업, 관광지업 등)와 공동으로 참가해 동남아 핵심시장 중 하나인 말레이시아 시장 선점을 위한 마케팅 활동을 전개했다고 20일 밝혔다. 이번 박람회에서는 말레이시아시장의 큰 비중을 차지하고 있는 개별관광객을 유치하기 위해 제주황금버스 시티투어 및 데일리투어상품, 셀프드라이빙, 관광지 등 제주관광 정보를 제공하고 방문객 대상으로 상담을 진행했다. 또 현지업계 대상 B2B세일즈를 통해 제주관광 상품의 다양화 유도 및 도내업계와 현지업계 간 직거래 시스템 구축을 위한 직접적인 비즈니스 마케팅 활동이 펼쳐졌다. 제주도와 도관광협회, 제주관광공사는 유관기관 협력 마케팅 체계 구축을 통해 도내업계 동남아 관광시장 개척 및 대체시장 발굴의 일환으로 오는 24일부터 26일까지 개최되는 인도네시아 ASTINDO박람회와 다음달 6일부터 9일까지 개최되는 베트남국제관광전(VITM)에도 참가할 예정이다. jjhyej@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 관련기사 제주, 월드노선 크루즈 유치 돌입…로얄캐리비언 "추가기항 적극 고려" 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감, 시작 9분 만에 '여야 충돌'로 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3코스피, 1.78% 하락한 2193.02 출발 4신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 러-일 외교관 추방 신경전 언제까지 계속 되나 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 노인 보행자 교통사고 다발지역 60곳 특별점검 국내 최대 안전산업박람회, 3년 만에 대면 개막 중앙부처 22곳 '생애주기별 안전교육 주관부처'로 지정 경찰, 이준석 2차 소환조사…성접대 여부 조만간 판단할 듯 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 법무부 '난민 이의신청 지침' 제정·공개…"공정성·전문성 제고" IMF·WP, 구제금융 확대…금리인상에 빈국 지원 대책 논의 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 플라즈맵, 공모가 7000원 확정…12~13일 청약 현대삼호중공업, 3468억 규모 LNGC 1척 수주 기은 지속가능경영보고서, LACP 비전 어워즈 '대상' "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "평생사원증이 뭐길래"…기아 노조 총파업 '초읽기' "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 복지부, 12개 시·도 장애인식개선교육기관 지정 공모 소방안전관리자 겸직 금지…12월부터 선임 제도 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" 2022 대한민국 안전산업박람회 12일 엑스코서 개막 광주 가뭄 물부족-지하시설물 중복관리 "대책마련 시급" 하윤수 교육감 "임기 중 부산 공교육 바로세우기 프로젝트 추진" 통영시, 민선8기 9대 분야 69개 공약 실천계획 확정 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7모텔서 홀로 숨진 생후 5개월 여아…부모 방치 정황 확인 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도내 관광업계, 항공요금 인상 철회 촉구 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도내 관광업계, 항공요금 인상 철회 촉구 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도내 관광업계, 항공요금 인상 철회 촉구 기자명 고병수 기자 입력 2017.03.25 12:03 수정 2017.03.25 12:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ‘위기극복을 위한 결의대회’ 개최숙박업, 관광지, 식당업 등 778개 업체 자발적 그랜드세일 전개 (제주=국제뉴스) 고병수 기자 = 제주도내 관광업계가 위기의 제주관광에 발목을 거는 항공요금인상 철회를 촉구했다.제주특별자치도관광협회(회장 김영진)는 지난 24일 제주웰컴센터 3층 대회의실에서 도내 관광업계와 함께 중국의 '한국여행 금지조치'에 따른 위기를 극복하기 위해 ‘위기극복을 위한 결의대회’를 개최했다.간담회에서 위기의 제주관광에 발목을 거는 항공요금인상 철회를 촉구했다.또한 제주관광의 위기극복 해결방안을 위한 업계 간 다양한 의견을 교환했으며 내국인 관광객 유치 활성화 방안으로 도내 관광사업체 778개 업체가 참여해 최소 5%~최대 65%까지 그랜드세일을 진행하기로 했다.그리고 국내 주요 이벤트 및 축제 활용 잠재수요 창출을 위한 마케팅을 전개하고 환대분위기 조성을 위한 현수막 게재 및 스티커 제작·부착 등을 진행할 예정이다. 외국인 관광객 유치 활성화 방안도 논의됐다.결의내용으로 품격 높은 관광상품 개발과 선진 수용태세 확립을 통한 제주관광 만족도 향상으로 다시 찾고 싶은 관광목적지로 조성하고 지역 업계 간 과열경쟁을 지양해 상생기반을 구축해 제주관광 활성화를 위한 내용이 포함됐다.특히 제주관광 위기 극복을 위한 요금할인 등 다양한 이벤트를 진행하고 있는 상황에서 이에 역행하는 항공사의 요금인상 계획철회를 촉구하는 내용도 포함됐다.관계자는 "앞으로도 도관광협회는 중국의 '한국여행 금지조치'에 따른 피해를 최소화하고 제주관광시장이 조기에 회복되도록 도내 관광업계와 함께 다양한 방안을 모색하고 최선의 노력을 다 할 예정"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>기자회견을 하고 있는 이승찬 제주도 관광국장 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 기자회견을 하고 있는 이승찬 제주도 관광국장 등록 2017.03.21 13:07:37 작게 크게 【제주=뉴시스】강정만 기자 = 이승찬(오른쪽 두번째) 제주특별자치도 관광국장을 비롯한 제주관광공사, 제주관광협회 관계자들이 21일 오전 제주도청 기자실에서 '중국인 관광객 감소 관련 긴급 대책'을 발표하고 있다. 2017.03.21 photo@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감, 시작 9분 만에 '여야 충돌'로 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3코스피, 1.78% 하락한 2193.02 출발 4신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 러-일 외교관 추방 신경전 언제까지 계속 되나 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 노인 보행자 교통사고 다발지역 60곳 특별점검 국내 최대 안전산업박람회, 3년 만에 대면 개막 중앙부처 22곳 '생애주기별 안전교육 주관부처'로 지정 경찰, 이준석 2차 소환조사…성접대 여부 조만간 판단할 듯 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 법무부 '난민 이의신청 지침' 제정·공개…"공정성·전문성 제고" IMF·WP, 구제금융 확대…금리인상에 빈국 지원 대책 논의 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 플라즈맵, 공모가 7000원 확정…12~13일 청약 현대삼호중공업, 3468억 규모 LNGC 1척 수주 기은 지속가능경영보고서, LACP 비전 어워즈 '대상' "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "평생사원증이 뭐길래"…기아 노조 총파업 '초읽기' "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 복지부, 12개 시·도 장애인식개선교육기관 지정 공모 소방안전관리자 겸직 금지…12월부터 선임 제도 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" 2022 대한민국 안전산업박람회 12일 엑스코서 개막 광주 가뭄 물부족-지하시설물 중복관리 "대책마련 시급" 하윤수 교육감 "임기 중 부산 공교육 바로세우기 프로젝트 추진" 통영시, 민선8기 9대 분야 69개 공약 실천계획 확정 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7모텔서 홀로 숨진 생후 5개월 여아…부모 방치 정황 확인 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>유커 사라진 제주도, 관광시장 다변화 ‘기지개’ 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 유커 사라진 제주도, 관광시장 다변화 ‘기지개’ 항공노선 추가 개설·월드와이드 크루즈 제주기항 검토 (제주=뉴스1) 안서연 기자					| 2017-03-21 13:50 송고 | 2017-03-21 16:13 최종수정 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 16일 중국발 마지막 크루즈인 코스타 아틀란티카호(8만5000t)가 제주국제크루즈터미널을 떠나고 있다. 중국 국가여유국은 지난 15일부터 한국행 여행상품에 대해 온·오프라인을 망라한 전면적인 판매 중단을 지시했다.2017.3.16/뉴스1 © News1 이석형 기자 중국의 사드 보복으로 ‘유커(중국인 단체관광객) 없는 섬’이 된 제주도가 관광 시장 다변화를 향한 기지개를 켜고 있다.제주도는 시장 다변화 기반을 마련하기 위해 대만 말레이시아 등과 제주 직항 정기 항공노선을 개설하고 직항 전세기를 확충하고 있다고 21일 밝혔다.개설을 추진 중인 제주 직항 정기 항공노선은 △대만 타이베이 1개 노선(3월) △일본 도쿄 1개 노선(6월)·오사카 2개 노선(6월) △태국 1개 노선(10월) △말레이시아 1개 노선(11월) 등 4개국 6개 노선이다.우선 대만 국적의 타이거항공은 오는 28일부터 제주~타이베이 간 운항을 시작한다.제주~대만 노선을 단독으로 취항했던 부흥항공이 재정난을 이유로 파산하면서 지난해 11월 22일 끊긴 이후 4개월 만에 재개되는 것이다.항공기는 3월 28일부터 6월 7일까지 주 2회(화·토) 운항되며, 6월 7일부터 10월 28일까지는 횟수를 늘려 주 4회(화·수·금·토) 운항된다.지난해 제주를 찾은 대만 관광객은 3만8046명으로, 전체 외국인 관광객 360만3021명 중 1% 수준이었다.제주~도쿄, 제주~오사카 노선의 경우에는 저비용항공사 2곳(제주항공·티웨이)이 취항을 준비하고 있지만 슬롯 시간대 배정을 놓고 아직 의견을 조율 중인 것으로 파악됐다. 기존에는 대한항공이 주 3~4회 운항하는 게 전부여서 지난해 제주를 찾은 일본인 관광객은 4만7997명으로 전체 외국인 관광객의 1.3% 수준이었다.제주~태국 노선은 국왕 서거에 따른 애도기간임에 따라 지난해 11월 말부터 저비용항공사(이스타)의 운항이 중단됐으나 오는 10월쯤 복항을 추진 중이다.제주~말레이시아 노선은 11월 취항을 목표로 저비용항공사들과 의견을 절충 중인 것으로 알려졌다.직항 전세기는 정기 노선이 없는 지역의 잠재관광객 유치를 목적으로 8개국 9개 노선 취항을 준비 중이다.제주~마카오 노선은 오는 4월부터 12월까지 총 60회, 제주~필리핀 4월부터 6월까지 총 20회 운항될 예정이다.도내 여행업계에서도 컨소시엄을 구성해 5월부터 8월 사이 단발성 전세기를 운항하면서 오는 △일본 히로시마·이바라키 △미얀마 △라오스 △베트남 하노이 △러시아 블라디보스토크 △몽골 등 관광객을 유치할 수 있을 것으로 보인다.지난 16일부터 관광객들의 발길이 뚝 끊긴 크루즈도 반가운 소식이 날아들었다. 세계 일주 크루즈(월드와이드) 선사들이 제주 기항을 적극 검토하고 있기 때문이다.도는 지난 8일부터 17일까지 열린 세계 최대 크루즈 전문 박람회 ‘씨트레이드 크루즈 글로벌’에서 세계적인 크루즈선사 로얄 캐리비언 인터내셔널로부터 제주 추가 기항을 적극 고려하겠다는 답변을 얻었다고 밝혔다.로얄캐리비언 인터내셔널은 로얄 캐리비언 크루즈 라인, 셀레브리티 크루즈 라인, 아즈마라 클럽 크루즈 라인 등 3개의 계열사를 운영하고 있다. 이 가운데 셀레브리티 밀리니엄호는 이미 제주를 기항지로 운항되고 있는 크루즈다. 지난 17일 처음으로 제주에 왔고 앞으로 4월과 10월 두 차례 더 제주를 찾을 예정이다.도는 로얄 캐리비언측 총괄사장 마이클 베일리를 비롯한 임원진들이 추가로 제주 기항을 검토하기로 한 만큼 구체적인 상품 구성에 대해 지속적인 협의를 해 나갈 계획이다.미국 카니발 코퍼레이션의 자회사인 홀랜드 아메리카 라인도 제주 기항을 확대하기 위한 업무협약(MOU)을 추진하기로 했다.이 회사의 크루즈 암스테르담호는 앞서 기상 악화로 한 차례 제주 기항 일정이 취소됐으나 4월 기항 일정을 앞두고 있으며, 볼렌담호은 4월과 10월 두 차례 제주 기항 예정이다.일본을 모항으로 부산과 동남아지역 크루즈 상품을 판매하고 있는 프린세스 크루즈에서도 향후 판매 예정인 크루즈 상품에 제주 기항 추가를 적극 검토하기로 했다.도는 오는 5월부터 12월까지 일본(도쿄·요코하마)을 모항으로 7개 항차를 유치하겠다는 계획이다.대만항만공사와는 대만에서 출발해 아시아지역을 기항하는 크루즈의 제주 기항 확대와 여행사 연계상품 개발 등에 협력하기로 했다. 이기우 도 해양산업과장은 “월드와이드는 사전에 일정을 다 짜기 때문에 올해 당장 추가 기항이 추진될 수는 없지만 하루빨리 앞당길 수 있도록 노력하겠다”면서 “올해 월드와이드 일정은 총 19회가 예정돼 있다”고 말했다. asy0104@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>'사드 직격탄' 제주관광 대책 모색 &lt; 청와대/국회 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 '사드 직격탄' 제주관광 대책 모색 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 청와대/국회 '사드 직격탄' 제주관광 대책 모색 기자명 윤주형 기자, 김하나 기자 입력 2017.03.21 18:46 수정 2017.03.21 19:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도 제주관광진흥기금 원금 상환 유예 정부 "제주도 건의 사항 검토해 추진" 제주도와 정부가 중국 정부의 사드 보복에 따른 중국인 관광객 감소 문제를 해결하기 위한 대책을 마련했다. 이에 따라 도는 현재 제주관광진흥기금 원금을 상환하고 있거나, 거치 기간이 1년 미만인 융자금 952건·3959억원을 대상으로 1년 동안 원금의 상환을 유예한다고 21일 밝혔다. 또한 관광사업체 운영난 최소화 등을 위해 경영안정자금 300억원을 특별융자 지원한다. 이번 특별융자는 업체당 최고 5억원까지 1년 거치 3년 상환 조건으로 시중금리보다 저렴하게 받을 수 있다. 도는 오는 27일 특별융자 지원 공고를 하고 다음달 3일부터 14일까지 신청서를 받아 대상자를 확정할 계획이다. 또 중국 관광객 감소에 따른 휴업 관광업체 및 실직 종사자를 위해 고용유지 지원금 등 지원대책도 추진한다. 이와 함께 도는 이날 국회 더불어민주당 원내대표실에서 정부부처 관계자 등이 참석한 가운데 제2차 관계부처 대책회의를 개최했다. 도는 관광진흥개발기금 지원, 제주 면세점에 대한 제주관광진흥기금 출연, 면세점 송객수수료 상한선 지정, 특수어권 통역사 자격 기준 완화, 관광진흥법 관광사업체에 렌트카업 포함, 크루즈 운항 취소에 대한 특별지원, 국제노선 슬롯 다변화 및 전환, 일본항공 노선 슬롯확보 및 허가, 동남아 단체관광객 환승 무사증 제도 도입, 크루즈터미널 출국보안검색 간소화 등을 건의했다. 이에 대해 정부부처 관계자들은 당장 추진할 수 있는 사항은 즉시 시행하는 등 사안별로 검토하겠다는 입장을 밝혔다. 윤주형 기자, 김하나 기자 21jemin@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 “中 사드 몽니, 관광시장 다변화로 극복” 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보|사회 제주도 “中 사드 몽니, 관광시장 다변화로 극복” 임재영기자 입력 2017-03-22 03:00업데이트 2017-03-22 03:00 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 왕벚꽃축제 등 연계 그랜드 세일… 관광지 무료개방 등 최대 65% 할인 동남아 8개국 연결 전세기 취항 등… 관광객 감소 특별대책 발표 중국인 관광객의 빈자리를 내국인 관광객이 채운다. 유채꽃 걷기 참가객들이 여유로운 시간을 보내고 있다. 임재영 기자 jy788@donga.com중국의 ‘사드(THAAD·고고도미사일방어체계) 보복’으로 중국인 관광객의 발길이 끊긴 제주에서는 관광시장 다변화로 위기를 극복하자는 움직임이 일고 있다. 대대적인 관광 세일즈 행사를 열면서 동남아를 비롯해 일본, 대만으로 관광마케팅 활동을 넓히고 있다. 제주도는 중국인 관광객 감소에 따른 위기를 기회로 활용하기 위한 핵심 추진과제를 비롯한 특별대책을 21일 발표했다. 4월 한 달 제주에서 열리는 왕벚꽃축제, 유채꽃축제, 우도소라축제, 한라산 청정고사리축제와 연계한 그랜드 세일을 실시한다. 28개 공영관광지를 무료로 개방하고 관광숙박업, 사설관광지, 골프장, 관광식당 등이 최대 65% 할인 행사를 한다. 올해 일본, 대만, 동남아 4개국을 잇는 직항노선 6개를 개설하고 마카오, 필리핀, 미얀마, 라오스 등 8개국 9개 도시를 연결하는 직항 전세기를 취항한다. 무슬림 관광객 유치를 위해 인프라 개선 사업을 펼치고 관광지 순환버스와 입장료를 하나로 결제하도록 하는 ‘원 패스 스마트 투어’ 시스템도 도입한다. 다음 달 6일부터 9일까지 열리는 베트남 국제관광전(VITM)을 비롯해 대만 타이베이 국제관광박람회, 일본 히로시마 플라워페스티벌, 홍콩 국제관광박람회, 말레이시아 국제관광전(MATTA FAIR)에 참가해 관광마케팅을 전방위로 펼친다. 중국발 크루즈선의 한국 기항 전면 취소로 위기를 맞은 크루즈 산업에도 변화의 조짐이 보인다. 제주도는 제주크루즈산업협회 관계자들로 대표단을 꾸려 크루즈 전문 박람회인 ‘시트레이드 크루즈 글로벌(Seatrade Cruise Global)’에 파견해 신규 크루즈 시장 개척을 위한 마케팅 활동을 했다. 8일부터 17일까지 미국 마이애미에서 열린 이번 박람회에서 글로벌 크루즈선사 관계자를 만나 크루즈 기항지에 제주를 추가해 달라고 요청해 긍정적인 답변을 얻었다. 그러나 ‘일회성 땜질 처방’이라는 우려도 나온다. 지난해 제주를 찾은 외국인 관광객 360만 명 가운데 중국인이 85%인 306만 명에 이르기까지 너무 높은 점유율에 대한 우려만 있었을 뿐 시장 다변화에 대한 실제적인 대안 추구 노력은 부족했다는 것이다. 김희현 제주도의회 의원은 “시장 다변화를 수도 없이 이야기했지만 귀담아듣지 않았다”며 “일본에서는 중국과의 센카쿠 열도 영유권 분쟁 이후 시장 다변화에 나서 성공했다. 제주도 시급히 대책을 마련하고 시행해야 한다”고 지적했다. 개별여행같이 다양한 계층을 끌어들이기 위해 관광객이 만족하는 쇼핑, 위락시설을 늘리고 관광콘텐츠를 개발하는 일도 절실하다. 이승찬 제주도 관광국장은 “고질적인 저가(低價)관광 등 관광시장 구조를 개선하는 계기로 삼겠다”며 “국내시장 극대화, 개별관광객 확대, 시장 다변화로 위기를 극복하겠다”고 말했다.　임재영 기자 jy788@donga.com 구독 임재영 기자 동아일보 광주호남취재본부 jy788@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 30층 아파트 외벽 청소하던 30대, 밧줄 끊어져 추락사 2 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 3 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 4 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 5 서초구 잠원동서 총기 사고 “극단적 선택 추측…현재 수술 중” 6 성일종 “인공기는 괜찮은가” vs 이재명 “해방 후 친일파 행태” 7 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 8 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 9 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” 10 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 최신기사 北 새 IRBM 만들었나… 기존 ‘화성-12형’과 비슷하면서도 달라 신혜성 측 “만취해 본인 차 아닌 줄 몰라…변명 여지 없다” 軍, 북한 ‘저수지 SLBM’ 발사에 “‘킬체인’ 의식한 궁여지책” “학교급식 종사자, 폐암 의심 유병률 일반인 35배” “2년 7개월만에 기다리던 일본으로 여행가요” 일본 무비자 여행 재개 첫날 공항마다 긴줄 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 4 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 5 “수도 키이우 등 우크라 곳곳서 폭발음…사상자 발생” 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>관광객을 사로잡은 이색 제주 전복 흑돼지 꼬치 제주도 맛집 이도 광평도새기촌 | 한국경제TV 닫기 와우넷 와우파 한경 KVINA 로그아웃 마이페이지 로그인 고객의견 고객센터 열기 뉴스 SITE MAP 검색하기 검색 최신뉴스 증권 경제 부동산 부동산 뉴스 부동산 컨설팅 산업·IT 가상화폐 국제 취업 취업일반 취·창업뉴스 직업의세계 스타트업CEO 많이 본 뉴스 한국경제TV 와우넷 와우파 회원가입 한경구독 지역별채널 편성표 온에어 HOT "우크라에 무더기 미사일 쏜 푸틴, 러 강경파 압력에 굴복" ‘솔로 데뷔 D-1’ 백호, 미니 1집 ‘Absolute Zero’ 기대 포인트는? 6년만에 자카르타 찾은 해군 순항훈련전단…인니서 위용과시 한미약품-한미정밀화학, 인적자원개발 우수기관 2년연속 인증 [포토] 유인나, '예쁘다~예뻐~' [포토] 김혜준-정해인, '다정한 손인사~' (27th BIFF) [온에어] 정오의 머니머니 [굿모닝 한경글로벌마켓] 간만의 연이틀 큰폭 상승... 배경은? - 당신이 잠든 사이 LIVE 코스피 2,183.52 (49.32 2.21%) 코스닥 670.46 (28.03 4.01%) 버튼 가상화폐 시세 관련기사 보기 정보제공 : 빗썸 닫기 TV 증권 주식상담 경제 기업·CEO 생활경제 특집 전체 프로그램 LIVE 한국경제TV 굿모닝 한경 글로벌마켓 1부 굿모닝 한경 글로벌마켓 2부 오늘장 뭐사지? 코리아마켓 [#내여주] 경주마 (경제주식마무리) 뉴스플러스 매수자들 프리뷰 뉴욕 경제전쟁 꾼 (금요일) 뉴스 최신뉴스 증권 경제 부동산 산업·IT 가상화폐 국제 취업 많이 본 뉴스 칼럼·연재 출근전 꼭 글로벌 브리핑 글로벌 시황&amp;이슈 GO WEST 증시프리즘 용와대에선 글로벌마켓 A/S 국제경제읽기 글로벌 구루에게 듣는다 슬기로운 금융생활 권영훈의 집중탐구 증권 국내증시 해외증시 특징주 매매신호 인기검색종목 연예·스포츠·여행 연예·스타 스포츠 국내여행 해외여행 HOME 뉴스 최신뉴스 ​ 관광객을 사로잡은 이색 제주 전복 흑돼지 꼬치, 제주도 맛집 `이도 광평도새기촌` 핀핀하기 페이스북 페이스북 트위터 트위터 카카오스토리 카카오스토리 블로그 블로그 링크 복사 링크 복사 페이스북 노출 0 입력 2017-03-24 13:53 목록으로 댓글달기 댓글 인쇄하기 인쇄 글자 크게 글자 작게 관광객을 사로잡은 이색 제주 전복 흑돼지 꼬치, 제주도 맛집 `이도 광평도새기촌` SITE MAP [와우넷 오늘장전략] 나스닥 27개월래 최저..일본 무비자 관광 허용-와우넷 오늘장전략 사계절 내내 수많은 관광객이 찾는 제주도지만 특히 제주 유채꽃 축제를 앞둔 4월이 찾아오며 제주도 여행을 계획하고 떠나는 사람들이 부쩍 많아지고 있다. 즐거운 여행을 위해 미리 준비하고 떠나야 할 항목으로 제주도 항공권은 물론 제주도 맛집 총정리, 제주도 맛집 베스트10 등의 신조어처럼 제주 먹거리 여행을 위한 제주 맛집 지도가 있다.바다, 한라산, 언어라고 불리는 제주도 3대 보배 즉 삼보라는 말처럼 제주도를 방문하면 꼭 먹어봐야 하는 제주 3대 먹거리가 있는데 그 중에서 청정 지역 제주도 흑돼지는 제주도 2박 3일 여행 코스로 외지 관광객들이 반드시 먹어봐야 하는 먹거리다. 그와 관련하여 며칠 전 채널A `김현욱의 굿모닝`에서 관광객 사이에서 인기를 얻고 있는 이색 제주도 흑돼지 맛집으로 소개된 `이도 광평도새기촌`이 화제다.재료부터 맛 평가까지 자세하게 방송에 소개되며 시청자들의 관심을 받았던 것은 물론 방송 출연 후 검증된 제주도 공항 근처 맛집이라는 사실 때문에 관광객 및 현지인까지 발길이 늘어나고 있다. 특히 길이가 30cm가 넘는 제주 이도 전복 흑돼지 꼬치는 두툼한 흑돼지와 함께 매일 수급하는 신선한 전복과 채소가 어우러진 이곳의 인기 메뉴이며 특별 양념을 수작업으로 버무린 후 24시간 저온 숙성과 4시간의 훈제 과정을 거쳐 손님상에 나간다.한편 평균 두께만 8cm 이상 되는 이곳의 흑돼지구이는 숯붗에 구워 겉은 바삭하고 육즙이 살아있는 제주흑돼지만의 독특한 맛을 즐기기에 충분하며 2대에 걸쳐 30년 넘게 운영하는 이곳은 수년 동안 올리지 않은 가격 정책으로 백반 수준의 낮은 가격에 고품질의 제주도 흑돼지를 즐길 수 있는 대표적인 제주도 가볼 만한 곳 중 하나이다.매장 관계자는 "동문 시장에서 유래한 전통 흑돼지는 전지와 항정살 부위의 암퇘지가 진짜 전통 흑돼지이며 매장을 방문하는 모든 분들이 가격 부담 없이 푸짐하게 전통 흑돼지를 드시고 가셨으면 좋겠다"고 밝혔다. 관광객을 사로잡은 제주도 흑돼지 맛집 와우넷 오늘장전략 핀핀하기 페이스북 페이스북 트위터 트위터 카카오스토리 카카오스토리 블로그 블로그 링크 복사 링크 복사 좋아요 00 싫어요 00 후속기사 원해요 00 목록으로 목록 인쇄하기 인쇄 관련뉴스 마이핀 코로나연준반도체러시아 tab area 뉴스 기자 방송 파트너 장동우대표 양태원대표 킹스맨 김준호대표 와우캐시 와우넷에서 실제 현금과동일하게 사용되는 사이버머니 캐시충전 서비스 상품 파트너방송 증권·부동산 교육 월정액 서비스 파트너 방송 GOLD 한국경제 TV 실시간 방송 구매하기 이용안내 GOLD PLUS 골드서비스 + VOD 주식강좌 구매하기 이용안내 파트너 방송 파트너방송 + 녹화방송 + 회원전용게시판+SMS증권정보 + 골드플러스 서비스 구매하기 이용안내 고객센터 강연회·행사 더보기 7일간 등록된 일정이 없습니다. 이벤트 7일간 등록된 일정이 없습니다. 공지사항 더보기 [한국경제TV] [고지] 한국경제TV 이용약관 개정 안내 1:1문의하기 시민제보하기 open ​​ 뉴스 목록 보기 arrow 뉴스 최신뉴스 증권 경제 부동산 산업·IT 가상화폐 국제 취업 칼럼·연재 출근전 꼭 글로벌 브리핑 글로벌 시황&amp;이슈 GO WEST 증시프리즘 용와대에선 글로벌마켓 A/S 국제경제읽기 글로벌 구루에게 듣는다 슬기로운 금융생활 권영훈의 집중탐구 증권 국내증시 해외증시 특징주 매매신호 인기검색종목 연예·스포츠·여행 연예·스타 스포츠 국내여행 해외여행 많이 본 뉴스 RSS | 구독 TV 목록 보기 증권 K-스탁 라이브 굿모닝 한경 글로벌마켓 1,2부 [홈] 마켓인사이트 성공투자 오후증시 1-2부 [홈] HOT 정오의 머니머니 증시투데이 출발증시 투데이 한경 코리아마켓 HOT 한경 글로벌마켓 HOT 대박천국 1-3부 [홈] HOT 대박천국 1부 대박천국 2부 대박천국 3부 대박천국 선데이 1-3부 [홈] 대박천국 프리미엄 주식상담 국고처 프라이데이 1-2부 [홈] 국고처 프라임 국민주식고충처리반 1~5부 [홈] 경제 경제전쟁 꾼 시즌2 경주마 HOT 뉴스플러스 HOT 미네르바 클래스 HOT 쓰리고 아이돌 경제학교 생활경제 건강매거진 1-3부 [홈] 버추얼토크 가상자산 치아건강 닥터스 기업·CEO 기업가정신 콘서트 기업가정신을 말하다 혁신성장코리아 특집방송 바이오 1번지 보스턴에 가다 1-2부 [홈] 와우넷 스페셜 [홈, 19人] HOT 추석 이후 투자전략 1-4부 [홈] 전체 프로그램 고객 참여 기사정정삭제 | 의견 이벤트 이용약관 개인정보처리방침 기사배열기본방침 YouTube 서비스 약관 Google 개인정보처리방침 패밀리사이트 패밀리사이트 한국경제TV 와우넷 와우파 한경 KVINA 한경미디어그룹 한국경제신문 한국경제매거진 BOOK 한경아카데미 텐아시아 모바일앱 한국경제TV앱 주식창앱 와우넷앱 와우밴드앱 한경 KVINA앱 회사소개 상시채용 고객센터 광고안내(인터넷·TV) 제휴문의 사이트맵 고객센터 안내 1599-0700 월 ~ 금 08:00 ~ 23:00 일요일 12:30 ~ 22:30 토·공휴일 10:00 ~ 15:00 (주)한국경제티브이 대표이사 조주현 서울특별시 중구 청파로 463(중림동, 한국경제신문사) (우:04505) 사업자등록번호 : 107-81-70183 통신판매업신고번호 : 서울중구 2022-0572호 호스팅제공자 : (주)한국경제티브이 기사배열 책임자 : 유은길 Copyright&amp;copy 한국경제TV. All Rights Reserved. 인쇄하기 닫기 인쇄하기 인쇄 2017-03-24 13:53 관광객을 사로잡은 이색 제주 전복 흑돼지 꼬치, 제주도 맛집 `이도 광평도새기촌` 사계절 내내 수많은 관광객이 찾는 제주도지만 특히 제주 유채꽃 축제를 앞둔 4월이 찾아오며 제주도 여행을 계획하고 떠나는 사람들이 부쩍 많아지고 있다. 즐거운 여행을 위해 미리 준비하고 떠나야 할 항목으로 제주도 항공권은 물론 제주도 맛집 총정리, 제주도 맛집 베스트10 등의 신조어처럼 제주 먹거리 여행을 위한 제주 맛집 지도가 있다.바다, 한라산, 언어라고 불리는 제주도 3대 보배 즉 삼보라는 말처럼 제주도를 방문하면 꼭 먹어봐야 하는 제주 3대 먹거리가 있는데 그 중에서 청정 지역 제주도 흑돼지는 제주도 2박 3일 여행 코스로 외지 관광객들이 반드시 먹어봐야 하는 먹거리다. 그와 관련하여 며칠 전 채널A `김현욱의 굿모닝`에서 관광객 사이에서 인기를 얻고 있는 이색 제주도 흑돼지 맛집으로 소개된 `이도 광평도새기촌`이 화제다.재료부터 맛 평가까지 자세하게 방송에 소개되며 시청자들의 관심을 받았던 것은 물론 방송 출연 후 검증된 제주도 공항 근처 맛집이라는 사실 때문에 관광객 및 현지인까지 발길이 늘어나고 있다. 특히 길이가 30cm가 넘는 제주 이도 전복 흑돼지 꼬치는 두툼한 흑돼지와 함께 매일 수급하는 신선한 전복과 채소가 어우러진 이곳의 인기 메뉴이며 특별 양념을 수작업으로 버무린 후 24시간 저온 숙성과 4시간의 훈제 과정을 거쳐 손님상에 나간다.한편 평균 두께만 8cm 이상 되는 이곳의 흑돼지구이는 숯붗에 구워 겉은 바삭하고 육즙이 살아있는 제주흑돼지만의 독특한 맛을 즐기기에 충분하며 2대에 걸쳐 30년 넘게 운영하는 이곳은 수년 동안 올리지 않은 가격 정책으로 백반 수준의 낮은 가격에 고품질의 제주도 흑돼지를 즐길 수 있는 대표적인 제주도 가볼 만한 곳 중 하나이다.매장 관계자는 "동문 시장에서 유래한 전통 흑돼지는 전지와 항정살 부위의 암퇘지가 진짜 전통 흑돼지이며 매장을 방문하는 모든 분들이 가격 부담 없이 푸짐하게 전통 흑돼지를 드시고 가셨으면 좋겠다"고 밝혔다. 한국경제TV</t>
+  </si>
+  <si>
+    <t>"동남아 단체 무사증 도입...관광개발기금 제주도 포함" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 "동남아 단체 무사증 도입...관광개발기금 제주도 포함" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 "동남아 단체 무사증 도입...관광개발기금 제주도 포함" 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.03.21 17:48 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 민주당 사드보복 제주관광현안해결 관계부처 대책회의 "자동차 대여업 관광업 포함, 특수어권 통역사 자격기준 완화" 중국의 사드보복 조치로 인해 제주관광에서 피해가 커지고 있는 가운데, 정부가 관광 관련 대책으로 관광진흥개발기금 지원에 제주지역을 포함하는 한편 제주도 면세점에 대한 관광진흥기금 출연 의무화 등을 적극 검토하겠다고 밝혔다.또 동남아지역 단체관광객들을 대상으로 한 무사증 도입을 매우 긍정적으로 검토하는 중이라고 밝혀, 곧 제도개선이 이뤄질 것으로 전망된다.제주출신 강창일.오영훈.위성곤 의원은 21일 국회 더불어민주당 원내대표 회의실에서 '중국 사드보복 관련 제주관광 현안해결을 위한 제2차 관계부처 대책회의'를 개최했다.이날 회의에서는 6개 관계부처 관계관들이 나와 정부의 대책을 보고했다.제주에서는 전성태 행정부지사와 이승찬 관광국장, 이재홍 제주관광공사 본부장, 김남진 제주도관광협회 부본부장 등이 참석했다.전성태 부지사는 회의에서 "중국이 단체뿐만 아니라 개별관광객에 대한 한국 방문 제한 조치는 이번이 처음이기 때문에 제주방문 중국 관광객 수가 급감하고 있어 대책마련이 시급하다"면서 정부 건의사항을 반영해줄 것을 요청했다.이날 제주자치도는 △관광진흥개발기금 지원 제주지역 포함 △제주지역 면세점에 대한 제주관광진흥기금 출연 △면세점 송객수수료 상한선 지정 △특수어권 통역사 자격기준 완화 △관광진흥법상 관광사업체의 종류에 자동차대여업 포함 △제주기점 국제노선 슬롯 다변화 및 전환 △제주기점 일본 항공노선 슬롯 확보 및 노선허가 △국제선박항만 보안법에 따른 출국 보안검색 간소화 △동남아국가 무사증 제도 완화 등을 건의했다이에대해 문화체육관광부 황명선 관광정책실장은 "특수어권 통역사 자격기준 완화는 이미 조치가 이뤄졌다"면서 "관광진흥개발기금 지원 제주지역 포함과 제주지역 면세점에 대한 제주관광진흥기금 출연은 긍정적으로 검토 중"이라고 밝혔다.또 관광진흥법상 관광사업체의 종류에 자동차 대여업 포함해 달라는 요청에 대해서는, "법을 개정하면서 협의할 사항으로 제약이 없다면 긍정적으로 검토할 것"이라고 밝혔다.국토교통부 서훈택 항공정책실장은 “제주기점 국제노선 슬롯 다변화 및 전환과 제주기점 일본 항공노선 확보 및 노선허가인 경우 슬롯 보다 동남아와 일본 노선에 대한 다변화가 중요하고, 항공사가 노선을 요구하면 적극 반영할 것"이라며 "해당 항공사와 협의를 하는 등 최대한 협조할 것"이라고 말했다. 법무부 김우현 출입국외국인정책본부장은 "동남아 단체관광객 환승 무사증 제도 도입에 대해 매우 긍정적으로 검토 중"이라며 "여러 가지 제도시행을 준비 중"이라고 피력했다.교육부 관계관은 제주로 수학여행단을 적극적으로 보내달라는 요청에 대해 "국외 수학여행 자제를 통한 국내 수학여행으로 전환을 추진 중"이라며 "23일부터 24일까지 열리는 시도교육청 수학여행 등 현장체험학습 담당자 워크숍 개최를 통해 적극 홍보할 것”이라고 말했다. 고용노동부 문기섭 고용정책실장은 "관광관련 업체들이 휴업.휴직 등으로 고용을 유지하고자 하는 경우 최대한 적극 인정해 지원을 추진할 것"이라며 "이달 22일까지 관광관련 사업장에 대해 모니터링을 추진하고 있고, 이미 고용유지 지원제도 홍보 강화를 지시했다"고 밝혔다.중소기업청 황영호 기업금융과장은 “긴급경영안정자금 규모를 확대하고, 제주지역 관광숙박업 등 서비스 업종에 대해 예외적으로 상시근로자 수에 관계없이 지원 대상에 포함할 것”이라고 대응방안을 밝혔다. 그는 또 "공공 및 민간유통채널을 통해 제주지역 우수상품을 판매하고, 동문·올레시장 등에 대해 고객맞이 이벤트를 추진하고, 대체국가(동남아, 대만 등)에 대해 홍보를 강화할 것”이라고 말했다. 한편 이날 대책회의를 주재한 제주지역 3명의 의원들은 "제주지역은 관광산업 의존율이 매우 높기 때문에 정부의 특별한 대책이 필요하다"며 "일시적으로 이번 사안을 대처할 것이 아니라 정부차원에서 논의대책기구를 만들어 지속적으로 대응해 나가야 할 것"이라고 말했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 中 사드보복 큰 피해 제주업계에 관광진흥기금 특별지원 中사드보복 대책...제주 환승 동남아관광객 '무비자' 허용 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광메카 중문, 흑돼지 특미 즐기는 맛집도 많아 &lt; 이슈 &lt; 기사본문 - 뉴스컬처 (NEWSCULTURE) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-11 11:04 (화) 제보 이슈모아보기 로그인 전체메뉴 버튼 연예 공연·전시 이슈 포토·영상 컬처Life 여행문화 패션뷰티 헬스푸드 미술문화 PEOPLE 경제 검색버튼 기사검색 검색 인기뉴스 '스트릿 맨 파이터' 심사 논란 보아, 끝없는 악플에 지친 심경 토로[뉴스컬처★] [인터뷰]'환승연애2' PD "욕먹는 출연자 이해될 날 있을 것" 제니 '열애설' 뷔, 데이트 때 이 정도는 입어야 못 알아봐[뉴스컬처★] '해피니스' 한효주X박형식, 샤넬 행사에서 재회한 선남선녀[뉴스컬처★] 제주도 떠난 '환승연애2'…뒤늦게 진심 깨닫고 혼란 박민영 열애설 입장 유보 "촬영으로 확인 늦어져" '아이유 콘서트'에서 포착된 방탄소년단 정국···찐팬심 드러나는 올콘 목격담[뉴스컬처★] '백패커' 안보현, 백종원 공항에서 우연히 마주치는 사이[뉴스컬처★] 이달소 츄, 개인 인스타그램 개설...납득 가는 이유[뉴스컬처★] '아이돌의 재발견' 드라마·영화에서 연기력 인정받으며 배우로 승승장구[뉴스컬처★] naver post kakao twitter youtube instagram 본문영역 이전 기사보기 다음 기사보기 제주도 관광메카 중문, 흑돼지 특미 즐기는 맛집도 많아 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 이슈 제주도 관광메카 중문, 흑돼지 특미 즐기는 맛집도 많아 기자명 이정형 기자 입력 2017.03.24 02:05 수정 2018.09.22 19:15 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 특별한 국내 여행을 떠나고 싶은 사람들이 많이 찾는 곳 중 하나가 바로 제주도다. 특히 제주도 중문에는 최고의 관광메카인 중문관광단지와 올레길을 빼놓을 수 없다. 천제연폭포•여미지식물원•테디베어박물관•박물관이 살아있다 등 다채로운 실내외 관광지를 한번에 즐길 수 있다. 올레8코스에서는 제주 숨은 비경인 존모살해변과 갯깍주상절리•중문올레길 코스와 배릿내오름을 볼 수 있어 제주도 여행 필수코스로 꼽힌다.   제주도는 이국적인 풍경으로 외국에 와있는 듯한 기분을 만끽할 수 있는데다, 입안에 감동을 주는 맛집들도 즐비하다.  ▲ 사진제공=제주도 서귀포시 하원동 1633-2번지 ‘꺼멍목장’    제주 중문에 가면 반드시 먹어야 한다는 제주흑돼지를 오감으로 즐길 수 있다고 알려진 제주흑돼지전문점 ‘꺼멍목장’.   환상적인 전망과 특별한 맛이 잘 어우러진 맛집이라고 소문나 찾아가봤다.    일단 인테리어가 눈길을 사로잡는다. 매장 전체를 통유리로 꾸며 어느 테이블에 앉아도 제주의 아름다운 풍경을 감상할 수 있다. 이른바 ‘로얄뷰’ 형태다.   넓은 규모에 테이블간 간격이 넓고 셀프바도 별도로 운영되고 있다. 제대로 즐길 수 있는 인테리어 설계라는 느낌이 든다. 아울러 40대 이상 주차할 수 있는 공간이라 단체 모임 장소로도 좋아 세미나로 찾는 사람들이 많다고 한다.    품격 있는 분위기와 어울리는 메뉴라인은 호기심을 자극한다. 흑돼지오겹살, 목살 그리고 제주백돼지오겹살 등 입맛에 따라 선택하면 된다. 어떤 메뉴를 주문해도 두툼한 두께로 풍부한 육즙과 쫄깃한 식감을 기대할 수 있다.   메뉴를 주문하면 푸짐하게 한 상이 차려진다. 쌈채소와 샐러드, 김치, 파절이, 계란찜 등이 차례대로 나오는가 하면, 제주의 특색을 살리는 옥돔 한 마리가 통 크게 제공되는 것은 제주 고깃집만의 장점이라고 할 수 있다. 흑돼지는 검수과정을 확실하게 거친 것만을 사용한다는 것은 이집의 자부심이다.   맛있는 생선구이도 덤으로 먹을 수 있어 입 안의 행복을 가득 채울 수 있다. 잘 익은 고기는 멜젓에 찍어 먹거나 파절이를 올려 먹으면 느끼하지 않게 즐길 수 있다. 다 먹은 후에는 시원한 냉열무국수 또는 제주 딱새우된장찌개 등의 식사메뉴로 마무리할 수 있다.   “천해의 환경을 보면서 특별한 요리를 맛볼 수 있어 좋아요. 요즘 같은 봄철에 방문을 하면 더욱 좋은 전망과 특별한 음식을 즐길 수 있습니다.” 제주도 중문 흑돼지 맛집 단골의 말이다. [뉴스컬처 NCTV] [뉴스컬처 360VR][뉴스컬처 연예TV][네이버 포스트] 이정형 기자 father6314@naver.com&lt;저작권자ⓒ뉴스컬처 무단전재 및 재배포 금지&gt; 저작권자 © 뉴스컬처 (NEWSCULTURE) 무단전재 및 재배포 금지 키워드 Tags #제주도중문흑돼지 이정형 기자 father6314@naver.com 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 포토뉴스 빈지노, 브루클린의 자유로운 감성(화보) 아이유, 가을의 고혹미(화보) 아이유X손석구, 겨울을 준비하는 커플(화보) 뉴진스, 생기 넘치는 소녀들(화보) 최수영, 의류 모델 발탁될만한 비율(화보) 정호연, 모델 출신의 능수능란 포즈(화보) 인기뉴스 1 '비밀남녀' 미켈 비밀 힌트 공개 "끝이 정해져 있다" 2 '아일랜드' 악에 대항하는 김남길·이다희·차은우·성준 3 '나는 SOLO' 10기 커플 탄생 목격한 3MC의 경악 4 이제훈, 남궁민 드라마에 또 등장 5 [인터뷰①]'브론테' 강지혜·이봄소리·허혜진 "내가 아니면 질투날 것 같은 극" 포토뉴스 [포토]‘인간 디올’ 블랙핑크 지수, 넘사벽 비주얼의 매력 뉴진스, 핫한 패션 아이콘(화보) NCT 쇼타로X성찬, 클래식 무드(화보) [NC포토]'브론테' 송영미, 투명함 머금고 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로 309 (삼성제일빌딩) 12F 대표전화 : 02-557-5321 팩스 : 02-557-5322 청소년보호책임자 : 신명근 법인명 : (주)케이뉴스 제호 : 뉴스컬처 (NEWSCULTURE) 등록번호 : 서울,아02083 등록일 : 2012-04-19 발행일 : 2012-04-19 발행·편집인 : 신명근 뉴스컬처 (NEWSCULTURE) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스컬처 (NEWSCULTURE). All rights reserved. mail to newsculture@knewscorp.co.kr 위로 전체메뉴 전체기사 연예 공연·전시 이슈 포토·영상 컬처Life 전체 여행문화 패션뷰티 헬스푸드 미술문화 PEOPLE 경제 알림 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"제주도의회, 오라관광단지 개발 막아달라" 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 "제주도의회, 오라관광단지 개발 막아달라" (제주=뉴스1) 고동명 기자					| 2017-03-13 16:26 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주오라관광단지 조감도. 2016.06.27/뉴스1 © News1 제주경제정의실천시민연합은 13일 "제주도의회는 도민의 진정한 바람과 미래비전을 제시하며 오라관광단지 개발을 반드시 막아야 한다"고 당부했다.경실련은 이날 "제주도 자연생태계 보전과 영세자영업자들의 생존을 위해서도 의회가 앞장서서 본연의 역할을 다 해달라"고 촉구했다.경실련은 오라관광단지가 개발되면 도내 영세한 자영업자들이 직간접적인 피해를 보게 되고 중산간 생태와 지하수 등 환경문제가 더 심각해질 것이라고 경고했다.그러면서 "도는 개발이익을 노리는 중국기업에 사로잡혀 오라관광단지 개발에 나팔수 역할을 하는 느낌마저 든다"며 거듭 사업의 부당성을 강조했다. kdm@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>유일호 "동남아 단체관광객, 제주도 72시간 무비자 입국 상반기중 허용" - 조선비즈</t>
+  </si>
+  <si>
+    <t>한산한 공항·문 닫은 호텔…中 관광금지에 제주도 '휘청' | SBS 뉴스 뉴스 뉴스 본문 바로가기전체 메뉴 바로가기기사 검색창 바로가기 배너 닫기 SBS뉴스 SBS 뉴스 - 브랜드 리스트 비디오머그 스브스뉴스 오디오 뉴스 - 보이스 인-잇 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 - 퀵메뉴 리스트 |SBS |로그인 |회원가입 SBS 뉴스 - 대메뉴 리스트 분야별 다시보기 취재파일 팟캐스트 이슈 끝까지 판다 SBS8뉴스 SDF 분야별 다시보기 취재파일 팟캐스트 이슈 멀티미디어 |비디오머그 스브스뉴스 VOICE 8뉴스| 한산한 공항·문 닫은 호텔…中 관광금지에 제주도 '휘청' 라이브 제보하기 전체 메뉴 레이어 보기 SBS 뉴스 SBS 뉴스 - 브랜드 리스트 비디오머그 스브스뉴스 오디오 뉴스 - 보이스 인-잇 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 SBS 뉴스 - 퀵메뉴 리스트 |SBS |로그인 |회원가입 SBS 뉴스 - 전체 메뉴 분야별 - 메뉴 리스트 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 이슈 다시보기 - 메뉴 리스트 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오 뉴스 취재파일 - 메뉴 리스트 취재파일 월드리포트 軍심戰심 날씨와 기후 스포츠 비하인드 영상토크 팟캐스트 - 메뉴 리스트 골라듣는 뉴스룸 VOICE 멀티미디어 - 메뉴 리스트 사실은 Pick 마부작침 끝까지 판다 더 보기 비디오머그 - 메뉴 리스트 전체보기 섹션 시리즈 About MUG 스브스뉴스 - 메뉴 리스트 스브스뉴스 스브스스토리 모닝스브스 문명특급 기타 - 기타 메뉴 리스트 공지사항 자유게시판 SBS 뉴스 - 소셜 미디어 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 - 연관 프로그램 앱 소개 SBS D포럼 인-잇 SBS 뉴스 - 기사 검색 검색하기 SBS 뉴스 - 라이브 생방송 라이브 제보하기 전체 메뉴 레이어 닫기 검색하기 SBS 뉴스 SBS 뉴스 - 섹션 카테고리 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 SBS 뉴스 - TV 프로그램 다시보기 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오뉴스 취재파일 취재파일 8뉴스 사회 한산한 공항·문 닫은 호텔…中 관광금지에 제주도 '휘청' 한산한 공항·문 닫은 호텔…中 관광금지에 제주도 '휘청' 이성훈 기자 이성훈 기자 Seoul 이메일 보내기 작성 2017.03.15 21:22 수정 2017.03.15 21:29 조회 조회수 프린트기사본문프린트하기 글자 크기 크게보기 글자크기 작게보기 PIP 닫기 &lt;앵커&gt; 오늘(15일)부터 중국의 한국 관광상품 판매 금지조치가 시행에 들어갔습니다. 제주도는 근래 한국 사람 반 중국 사람 반이란 말이 돌 정도로 중국인 단체 관광객에 대한 의존도가 높았었습니다. 그러다보니 오늘(15일) 섬 전체에 비상이 걸렸습니다. 이성훈 기자입니다. &lt;기자&gt; 오늘 낮 제주공항 국제선 입국장. 평소 같으면 중국인 단체 관광객들로 북적였을 공항이 한산하기만 합니다. [중국인 관광객 가이드 : (실제로 좀 어떠세요?) 죽음이요. 죽음이에요. 진짜 이게 아마 중국 마지막 단체일걸요.] 관광버스 주차장 역시 텅 비었습니다. [유수식/버스 기사 : 전 같으면 여기 꽉 차 있었어요. 차를 갖고 있었던 사람들도 일이 없으니까 다 회사에 (버스를) 반납하고….] 시내 관광호텔도 타격을 입긴 마찬가지. 아예 문을 닫은 호텔도 있습니다. 이곳은 중국인들이 단체로 제주도를 방문하면 꼭 들른다는 성산 일출봉입니다. 하지만 지금은 중국인 관광객을 찾아보기가 손에 꼽을 정도입니다. 중국인 관광객들로 북적이던 관광지마다 한산해져서 오히려 관광하기 좋다는 말이 나올 정도입니다. [김태난/서울 서대문구 : 관광객 입장에선 참 좋은 것 같아요. 한적하니 떠들지도 않고. 상업하시는 분들한테는 참 안 좋은 일인 것 같아서 한편으론 씁쓸하기도 하고…] 중국 자본까지 들여와 조성했다는 한 콘도 단지 주변 상인들은 개장을 앞두고 울상입니다. [송재근/개업 준비 중인 상인 : 중국에서 투자한 콘도 옆에서 레스토랑을 운영하려고 준비하고 있는데 관광객들이 안 오면 어떡하나 걱정입니다.] 제주 속의 작은 중국으로 불리는 '바오젠 거리' 밤거리도 지난달과 비교해 손님이 확연히 줄었습니다. [바오젠 거리 상인 : 좀 시끄럽고 그런 부분이 있더라도 생계에 관련된 거니까. 정부 차원에서 노력해서 장기화하지 않고 빨리 해결될 수 있게….] 중국 크루즈 입항도 대거 취소되면서 지금까지 31만 명이 제주행 발길을 끊은 것으로 집계되는 등 제주 관광업계 타격이 현실화하고 있습니다. (영상취재 : 이찬수, 영상편집 : 장현기) 페이스북으로 공유하기 트위터로 공유하기 네이버로 공유하기 SNS 공유버튼 더보기 카카오톡으로 공유하기 밴드로 공유하기 카카오스토리로 공유하기 url 주소 복사하기 URL 복사하기 X닫기 주소가 복사되었습니다.원하는 곳에 붙여넣기(Ctrl+V)해주세요. 확인 이 기사의 덧글 보기 0 이 기사 좋아요 하기 6 이성훈 기자 다른 기사 보기 &gt; 기자님 좋아요2911 관련 뉴스 추천 뉴스 이 시각 인기기사 만취 운전하다 잠든 신혜성…왜 남의 차 몰았나 보니 공효진, 뉴욕서 비공개 결혼…'10살 연하' 배우자 누구? "크러쉬가 악수 거절…뻔뻔한 인종 차별" 올라온 영상 "스트레스 받는다" 50대 남성, 비비탄 총 꺼내서 한 짓 동영상 기사 '배려석' 앉아있던 임산부, 다가온 노부부에게 들은 말 많이 본 뉴스 더 저널 리스트 더 저널 리스트더 보기 마부작침 마부작침더 보기 페이지 최상단으로 가기 닫기 SBS 뉴스 비디오머그 스브스뉴스 인잇 보러가기 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 앱 소개SBS 뉴스 모바일앱 다운받기 SBS D포럼 검색하기 SBS 뉴스 전체 메뉴 분야별 메뉴 리스트 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 이슈 다시보기 메뉴 리스트 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오 뉴스 취재파일 메뉴 리스트 취재파일 월드리포트 軍심戰심 날씨와 기후 스포츠 비하인드 영상토크 팟캐스트- 메뉴 리스트 골라듣는 뉴스룸 VOICE 멀티미디어 메뉴 리스트 사실은 Pick 마부작침 끝까지 판다 더 보기 비디오머그 메뉴 리스트 전체보기 섹션 시리즈 About MUG 스브스뉴스 메뉴 리스트 스브스뉴스 스브스스토리 모닝스브스 바로가기 시청자 참여리스트 공지사항 자유게시판 뉴스제보 고충처리인(방송피해신고) 열린TV시청자세상 윤리경영신고 시청자 참여 리스트 닫기 About SBS리스트 SBS PR SBS IR 채용정보 이용약관 SBS 방송편성규약 개인정보처리방침 시청자위원회 영상판매 웹광고 SBS 제작협찬 SBS 방송기술 SBS 문화사업 SBS Prism Tower 아트컬렉션 고객센터 사이트맵 어바웃 SBS 리스트 닫기 SBS Family리스트 TY홀딩스 SBS디지털뉴스랩 SBS 콘텐츠허브 SBSi SBS Plus SBS Sports SBS Golf SBS Biz SBS연예뉴스 SBS M KIZMOM SBS 인터내셔널 SBS A&amp;T SBS M&amp;C SBS 문화재단 서암학술장학재단 SBS 기술인협회 SBS 아나운서 스튜디오S SBS 패밀리 리스트 닫기 지역민영방송리스트 강원 민방 광주 방송 대구 방송 대전 방송 부산 방송 울산 방송 전주 방송 청주 방송 제주 방송 지역민영방송 리스트 닫기 웹광고 개인정보처리방침 SBS 정보 서울특별시 양천구 목동서로 161 대표이사 박정훈 방송관련문의 (02)2061-0006 뉴스기사제보 (02)2113-6000 찾아오시는 길 SBS 디지털뉴스랩 정보 서울특별시 양천구 목동서로 161 대표이사 박진호 고객센터 문의 (02)2113-6700 Email sbsdlab@sbs.co.kr 사업자 번호 344-87-00992 기사배열 원칙 책임자 : 정호선 기사배열 기본 원칙 ⓒ SBS &amp; SBS Digital News Lab all rights reserved.</t>
+  </si>
+  <si>
+    <t>중국인 관광객 발길 ‘뚝’…사드 직격탄 맞은 제주도 : 전국일반 : 전국 : 뉴스 : 한겨레 본문 바로가기 광고 전체메뉴보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 전체메뉴닫기 오피니언 연재 한겨레TV 포토 EN 日本 中文 한겨레21 씨네21 이코노미인사이트 로그인 회원가입 구독신청 한겨레 세상을 바꾸는 벗 후원하기 서비스 메뉴 뉴스레터 감사원 ‘위법감사’ [포토] 감사원 국감 파행…자리 뜨는 김도읍 법사위원장 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 민주 “‘문자내통’ 캐겠다…이관섭·감사위원 전원 국감 나와야” 서해 사건 감사 위법성 논란, 법조계도 “직권남용·강요죄 소지”민주, ‘대감 게이트’ 공세…“권권유착 공수처가 수사하라”‘위법 감사·대통령실 직보’ 논란 최재해·유병호, 공수처에 고발돼박홍근 “대통령실 기획, 감사원 하청 ‘대감 게이트’…공수처 수사해야” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 한겨레S “국가가 정한 말 아니면 틀렸다니” 표준어 없애는 거 어때요? 김정은의 마지막 친서에 등장한 두번의 ‘바보’ 스스로 ‘파묻은’ 윤 대통령, 제발 좀 정치 하는 걸 보고 싶다 ‘피부 안부’ 묻지 마세요…아토피안, 차별·몰이해를 말하다 아름다운 일과 먹고사는 일…감정노동·공짜노동 ‘살아내기’‘환경부=산업부 2중대’ 비아냥 왜?뒤집고 뒤집는 ‘김현숙 여가부’…다음주엔 뭘 뒤집을까울트라스텝, 그게 뭔데? ‘악의 근원’ 고물가를 잡아라 관련 이슈&amp;연재 뉴스AS북 핵실험·미사일 발사멈춰, 직장갑질 성한용의 정치 막전막후 여가부 없애는 정부 윤 대통령, 일제고사 부활 선언…“원하는 모든 학교 참여토록” [사설] 고조되는 민생·북핵 위기, 협치로 해법 찾으라 윤 대통령, ‘친일 논란’에 “핵 위협에 어떤 우려 정당화될 수 있나” ‘여가부 폐지’ 여성계 입장 들었다…‘반대 단체’는 빼고 외신들도 비판하는 여가부 폐지…“윤 대통령의 ‘여성 지우기’”윤 대통령 지지율 32%…‘매우 잘못 하고 있다’ 59.6% [리얼미터]‘윤석열차’ 애초 국힘이 시작…‘구둣발’ 부메랑까지 8개월이재명, 여가부 폐지 반대…민주 “이대남 결집, 정쟁 유발 의도” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 책과 생각 비관주의자 김연수의 ‘변심’ “누군가를 기억할 때 바뀐다” 몸은 위태롭다…그래서 변화를 이끌 힘이 있다 나랏말싸미 일본과 다른데…일본어사전 베낀 국어사전, 괜찮나 우리에게 꼭 이름이 필요한가요 허구와 비허구의 교점에서 작가는 무엇을 발견했나당신의 뇌를 읽고 싶다‘균질적 단일언어’ 향해 달려온 우리말 형성사국제정치·외교안보 너머 ‘평화 다원주의’ 관련 이슈&amp;연재 짬황진미의 TV 새로고침정혜윤의 새벽세시 책읽기정인경의 과학 읽기 국민의힘 권력투쟁 ‘성접대 의혹’ 이준석 2차 경찰 조사…증거인멸 교사 조만간 결론 안철수 잡는 김기현, 김기현 때리는 윤상현… 벌써 시작된 당권경쟁 이준석 털어낸 국힘 ‘당권경쟁’…이재명 견제·중도 확장 “내가 적임” 이준석, ‘이순신 출정사’ 언급하며 “탈당 말라”…창당 선긋기 이준석 “누구도 탈당 말라”…이순신 ‘정중여산’ 인용해 첫 입장출마길도 막힐라…이준석 간다는 ‘외롭고 고독한 제 길’은 어디인가하태경 “이준석 윤리위 징계는 정치보복…가처분은 국민 기본권”고립무원 이준석…국힘 윤리위, ‘당원권 정지 1년’ 추가 징계 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 미래&amp;과학 지구 감싼 피부는 “사람 피부보다 얇다”…경이로운 3겹의 층 누리호 기술 이전 우선협상 기업은 한화에어로스페이스 ‘지구방어’ 실험, 160m 소행성 충돌에…5만㎞ 먼지꼬리가 생겼다 야식 먹으면 낮에 더 배고프다…비만 부르는 3중 연결고리 달 남극 탐사, 미-중 경쟁…선점하면 기지 건설도 앞선다재난을 경험한 우리는 다른 사람이 된다, 강제로다음 팬데믹 주인공도 ‘변신의 귀재’ RNA 바이러스다돼지의 심장, 인쇄된 혈관이 장기 부족 해결할 수 있을까? 관련 이슈&amp;연재 곽노필의 미래창김준혁의 의학과 서사전치형 과학의 언저리박상준의 과거창 기후변화 오늘 ‘가을 추위’…모레 5도 “얼음 얼고 서리 내리는” 곳도 32만가구 전기·가스 지원 못 받는다…“윤 대통령 약속과 어긋나” 앞서기는커녕 떠넘기기 ‘환경부=산업부 2중대’ 비아냥 왜? 권성동, 4시간 만에 내놓은 해명 “‘혀 깨물고 죽지’, 내 의지 표현” ‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회”‘원전 안전’ 시정 요구에도 8년째 그대로 왜?‘생태법인’을 아시나요?…제주 남방큰돌고래, 법적 권리 논의 시동‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 광고 본문 광고 전국전국일반 중국인 관광객 발길 ‘뚝’…사드 직격탄 맞은 제주도 등록 :2017-03-17 18:21 허호준 기자 사진 허호준 기자 구독 구독중 페이스북 트위터 카카오 링크 스크랩 프린트 글씨 키우기 가 가 가 가 가 중국인 관광객 찾는 바오젠거리엔 내국인과 시민 늘어 호텔·관광농원·화장품가게 등 문닫거나 인원 줄여 크루즈 기항 전면 금지돼 강정항도 개항 늦어질 듯 제주도는 이번 기회를 관광체질 개선 기회로 삼을 계획 “예전에는 지나가던 중국인 관광객들이 별미를 먹겠다며 줄줄이 들어왔어요. 하지만 지금은 90% 이상 줄었다고 봐야해요.” 중국인 관광객들이 많이 찾는 제주시 연동 바오젠거리에서 분식집을 운영하는 김아무개(58)씨는 이렇게 얘기하며 떡볶이를 뒤집었다. 마침 20대 초반의 중국인 여성 관광객 2명이 떡볶이를 먹으러 들어왔다. 중국 정부가 한국 여행 금지령을 내린 15일 오후 7시30분 어둠이 내린 바오젠거리는 내국인 관광객과 시민들로 부산했다. 지난달만 해도 이 시간이면 중국인들이 단체로 몰려다니며 쇼핑을 하거나 식당을 이용했지만 이날은 삼삼오오 다니는 중국인 관광객들만 눈에 띨 뿐이었다. 바오젠거리는 2011년 중국 바오젠그룹 직원 1만1000명이 단체로 제주도를 찾은 이후 중국 관광객들이 많이 방문하면서 이를 기념하려고 제주도가 만들었다. 바오젠거리 430여m 양쪽으로 들어선 200여곳의 가게는 주로 음식점과 옷가게, 액세서리, 화장품 가게 등으로 구성됐다. 대부분의 가게들은 중국인을 아르바이트로 두고 있다. 이 시간 거리에 있는 12곳의 화장품 가게 가운데 중국인 관광객들이 있는 곳은 2곳뿐이었다. 나머지는 텅 비었다. 액세서리점이나 대형약국 3곳도 2~3명 정도의 손님만 있을 뿐 한산했다. 제주도는 바오젠거리 음식점의 매출액이 지난 2일 이후 전월 대비 30~70%까지 감소하고 업소들은 월세 등 임대료에 큰 부담을 느끼고 있다고 분석했다. 지난해 9월부터 화장품 가게에서 아르바이트를 하는 재중동포 송아무개(24)씨는 “지금처럼 손님이 없을 때가 없었다. 보통 저녁시간에 중국인 단체 관광객들이 많이 찾는데 지금은 아예 없다”고 말했다. 또다른 화장품 가게에서 일하는 김아무개(23)씨는 “지난주부터 단체 관광객들이 없어 직원을 한명 줄였다”고 말했다. 이날 제주항 국제여객터미널에는 마지막 크루즈선이 들어왔다. 16일부터 중국발 크루즈선의 기항이 전면 중단됐다. 쇼핑을 마친 중국인들이 버스에서 내려 번호판을 든 가이드를 따라 크루즈로 돌아가고 있었다. 터미널에서 만난 전세버스 기사 한희철(42)씨는 “크루즈가 들어오지 않으면 막노동이나 아르바이트라도 뛰어야 할 것 같다”며 “1월부터 하루에 2차례씩 실어나를 수 있다는 얘기가 있었다. 하지만 지금은 ‘멘붕’ 상태다. 지금이 세월호 참사 때보다 더 힘들다”고 고개를 내저었다. 여행사에 소속된 전세버스 기사들은 월급 70만~80만원에 1회 운행에 4만~5만원의 수당을 포함해 한달 200여만원을 받지만 중국인들이 발길을 끊으면서 큰 타격을 받게 됐다. 옆에 있던 기사 김아무개(50)씨도 마찬가지다. 김씨는 3년 전 1억7천만원에 전세버스를 사서 단체손님을 받고 있다. 김씨는 “다행히 나는 국내 학생단체도 받고 있어서 16일부터는 그쪽으로 방향을 틀었다. 순수입이 한달 400만원인데 차량 할부금으로 한달 150만원을 내면 빠듯하다. 지금은 일당도 안나온다”고 한숨을 지었다. 올해 제주항 525회, 강정항 178회 등 모두 703회에 걸쳐 150만명이 크루즈를 이용해 제주를 찾을 계획이었다. 그러나 현재 기항 취소를 밝힌 것만 192회다. 강정항 개항도 늦어질 전망이다. 도 관계자는 “이런 추세로 취소되면 강정항으로 들어와야 할 크루즈가 제주항으로 들어오게 돼 강정항 개항이 7월 계획에서 미뤄질 수도 있을 것 같다”고 말했다. 제주도청에서 걸어서 10분 이내 거리에 있는 호텔 3곳도 이미 문을 닫았다. 음식점들도 속속 문을 닫고 있다. 서귀포시 성산읍 수산리 도로가의 감귤체험농원들도 마찬가지 상황에 내몰렸다. 이곳에서 2년째 감귤농원을 운영하는 양아무개(63)씨는 “중국인 단체 관광객들이 완전 끊겼다. 건물 임대료도 나오지 않겠지만 국내 관광객을 받기 때문에 영업은 계속할 계획이다. 그러나 10여곳의 체험농원 가운데 상당수가 문을 닫고 있다”고 어두운 표정을 지었다. 제주와 중국을 잇는 항공편도 중단하고 있다. 중국 내 23개 도시 162편 가운데 15일 현재 16개 도시 96편이 중단됐다. 이날 하루 직항편으로 제주에 들어온 중국인 관광객은 790명으로, 지난해 같은 기간의 3085명에 비해 74.4%나 감소했다. 국내 경유편을 이용한 중국인도 659명으로 전년도의 1204명보다 45.3% 줄었다. 이에 따라 중국의 한 저가항공사 제주사무소도 최근 철수했다. 면세점도 타격을 받기는 마찬가지인데 상대적으로 버틸 여력은 있다. 면세점의 고객은 항공편과 크루즈편이 7대 3 정도로 지난해 말부터 중국 관광객 마케팅 대상을 단체 관광객에서 싼커(개별관광객)로 전환하고 있다. 롯데면세점 제주점 관계자는 “이달 1~15일 기준 매출액은 10~20% 빠졌고, 인원은 하루 평균 4천~5천명에서 1천~2천명으로 줄었다. 이 가운데 싼커는 500~1천명 정도다. 이들을 유치하기 위한 계획을 세우고 있다”고 말했다. 제주도는 도내 여행업체 326곳 가운데 중국계 업체 78곳, 특급·관광호텔 등 숙박업소, 전세버스 59곳 2269대, 중국인 단체 음식점 105곳 등이 직접 피해를 입을 것으로 보고 있다. 오히려 이번 중국의 조처가 중국 항공사를 비롯해 중국인들이 운영하는 여행사, 호텔, 음식점 등에 직접 타격을 주고 있다는 지적도 있다. 중국계 뉴화청국제여행사는 중국인 관광시장의 70% 이상을 점유하는 것으로 알려졌다. 애초 15일을 앞뒤로 영업을 잠정 중단할 계획이던 이 여행사는 당분간 영업을 지속하기로 했다. 반면 중국인 관광객이 빠진 자리에 내국인 관광객이 증가할 것이라는 전망도 있다. 올해 들어 15일까지 제주를 찾은 내국인 관광객은 233만8500여명으로 지난해 같은 기간에 견줘 8.8% 늘었다. 이달 들어서도 중국인은 7만1995명으로 33.3% 급감한 반면 내국인은 42만9682명으로 11.8% 늘었다. 제주도는 지난 6일 원희룡 지사를 대책본부장으로 하는 대책본부를 구성해 상황 파악에 나서는 한편 이번 기회를 제주관광의 체질 개선 기회로 삼겠다는 계획이다. 홍봉기 제주도 관광정책과장은 “정부와 조율을 거쳐 피해업체가 위기를 벗어날 수 있도록 노력하겠다”며 “중국에 편중된 항공편을 일본과 동남아 등지로 시장다변화를 꾀하고 있다. 공항에 여유가 생기면서 국내 관광객 유치에도 힘을 쏟겠다”고 말했다. 허호준 기자 hojoon@hani.co.kr 항상 시민과 함께하겠습니다. 한겨레 구독신청 하기 진실을 후원해주세요 용기를 가지고 끈질기게 기사를 쓰겠습니다. 여러분의 후원이 우리 사회에 드리운 어둠을 거둡니다. 후원하기 후원제 소개 두근거리는 미래를 후원해주세요 소외 없이 함께 행복한 세상을 위해 노력하겠습니다. 여러분의 후원이 평등하고 자유로운 사회를 만듭니다. 후원하기 후원제 소개 광고 광고 &gt;Please activate JavaScript for write a comment in LiveRe. 광고 전국 많이 보는 기사 1. ‘일가족 참사’ 화장실 기어간 큰딸만 목숨 건져…경찰, 현장 감식 2. ‘노모 생신’ 시골에 모였다가 일가족 5명 숨져…“일산화탄소 중독” 3. 은행잎만 노랗게 빛나도록 남아라, 열매는 10분 줄테니 가라 4. 무등산 정상 복원하려는데…군부대 주둔 전 사진이 없다 5. ‘신영복체 직인’ 폐기한 경기교육청…“훈민정음체가 잘 보여” 한겨레와 친구하기 매일 아침, 매주 목요일 낮 뉴스의 홍수에서 당신을 구할 친절한 뉴스레터를 만나보세요 데일리 H:730 구독 위클리 h_weekly 구독 한겨레 공식 인스타그램 Follow @hanitweet 전체기사RSSRSS페이지 목록 한겨레앱 1/ 2/ 3 서비스 전체보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 회사소개 구독신청 광고안내 채용 기사제보 투고 고충처리 고객센터 face book twitter 사이트 운영 저작권 회원약관 개인정보취급방침 지적재산보호정책 이메일주소 무단수집거부 사이트맵 한겨레 가족 하니누리 한겨레출판 한겨레경제사회연구원 한겨레교육문화센터 한겨레통일문화재단 사람과디지털연구소 한겨레신문 등록번호:서울,아01705 등록일자:2011-7-19 사업자등록번호:105-81-50594 발행인:김현대 편집인:백기철 청소년보호책임자:백기철 주소:서울특별시 마포구 효창목길 6 고객센터:1566-9595 Copyright ⓒ The Hankyoreh. All rights reserved. 뉴스레터, 올해 가장 잘한 일 구독신청 일주일 그만보기 닫기</t>
+  </si>
+  <si>
+    <t>중국 크루즈 관광객 3천여명 전원 제주도 하선 거부 &lt; 사회 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 11:37 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 중국 크루즈 관광객 3천여명 전원 제주도 하선 거부 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 중국 크루즈 관광객 3천여명 전원 제주도 하선 거부 기자명 전영신 기자 입력 2017.03.12 13:00 수정 2017.03.12 13:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 중국 정부가 방한 관광 중단을 지시한 가운데 국제크루즈선을 타고 제주에 온 중국인 단체관광객 3천여명 전원이 배에서 내리는 것을 거부한 일이 처음으로 발생했습니다.제주도에 따르면 어제 오후 1시쯤 제주에 온 국제크루즈선인 코스타 세레나호가 제주항 외항에 기항했으나 크루즈 관광객 3천400여명은 배에서 내리지 않겠다고 통보했습니다.이에따라 입국 수속 요원을 비롯해 관광객을 태우기 위해 대기했던 전세버스 80여대의 운전기사와 안내사 그리고 면세점 등 유통업체가 혼란스러운 상황을 겪었습니다.크루즈선에 탑승한 중국인 관광객들은 중국 모 기업의 인센티브 관광단인 것으로 알려졌으며 사드 배치 보복에 따른 중국 정부의 방한 관광 중단과 연관돼 하선을 거부한 것으로 추정되고 있습니다.일본 후쿠오카를 출발해 제주에 도착한 이 크루즈선은 승객 전원이 하선하지 않은 채 기항 4시간 만인 오후 5시쯤 다음 기항지인 중국 톈진으로 출항했습니다. 전영신 기자 ysjeon28@hanmail.net 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 정토사회문화회관 개관, '사회공헌·포교'의 전당 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 미륵도량 봉덕사 "희망의 노래 전통차 축전" "건강한 자연 음식을"...봉녕사 사찰음식 대향연 개막 조계종 제37대 총무원장 진우스님 5일 취임 법회...BBS 생중계 정토사회문화회관 개관, '사회공헌·포교'의 전당 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 [코로나19]신규확진 1만명대...오늘부터 개량백신 접종 시작 최신뉴스 국제 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 전국 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 지방사 인터뷰 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 사회 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 경제 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 포토뉴스 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 인기뉴스 1 조계종 제6대 군종교구장에 능원스님 단독 추천 2 관음성지 양양 낙산사, 가을 맞이 사찰음식 나눔 잔치 3 무주 일가족 사상사고...보일러 배기관 막혀 4 러시아, 우크라 전역에 미사일 보복 공습...백여명 사상 5 [뉴스파노라마 한글날 특집] 김영수 관장 "한글, 한국문화 직조하는 씨줄 날줄...귀하게 여겨 잘 썼으면" 6 '하루가 멀다 하고 또'…충북 교육계 성추문 얼룩 7 조계종 제18대 직능대표와 비구니 중앙종회의원 30명 선출 8 은해사 창건 1213주년, 해인사 창건 1220주년.....개산 기념 문화 행사 풍성 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>“중국인 없다”…해외서 인기관광지로 급부상한 제주도·서울 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 13℃ 서울 11℃ 인천 12℃ 춘천 14℃ 강릉 13℃ 수원 13℃ 청주 14℃ 대전 15℃ 전주 16℃ 광주 15℃ 대구 15℃ 부산 15℃ 제주 "중국인 없다"…해외서 인기관광지로 급부상한 제주도·서울 한국을 찾는 중국관광객 수가 줄어들자 동남아시아 여행객들 사이에서 '한국'이 때아닌 인기 관광지로 떠오르고 있다. 황규정 기자 2017-03-15 15:44:57 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 연합뉴스[인사이트] 황규정 기자 = 중국의 '금한령'으로 한국을 찾는 중국관광객 수가 줄어들자 동남아시아 여행객들 사이에서 '한국'이 때아닌 인기 관광지로 떠오르고 있다.최근 항공권 비교 사이트 스카이스캐너는 말레이시아, 싱가포르, 필리핀, 인도네시아 등 아시아태평양 지역 4개국 여행객의 항공권 검색 추이를 분석했다. 조사 결과 지난해 인도네시아 여행객의 관심을 가장 많이 받은 여행지는 우리나라 '서울'이 차지했다. 필리핀 역시 검색률이 가장 많이 늘어난 여행지 1위에 제주도, 3위에 서울이 올랐다. 중국인 단체 관광객 없어 부쩍 한산해진 경복궁의 모습 / 연합뉴스한국의 인기는 싱가포르와 말레이시아에서도 확인할 수 있었다. 2016년 싱가포르와 말레이시아 자유 여행객이 가장 많이 검색한 여행지 각각 2위와 4위에 '서울'이 당당히 이름을 올렸다. 일본 여행객들 역시 가고 싶은 여행지로 '서울'을 가장 많이 검색한 것으로 확인됐다. 한편 중국 당국은 사드배치 보복과 관련 '중국 소비자의 날'인 오늘(15일)부터 중국인들의 한국 단체관광을 전면 금지하겠다는 입장을 밝혔다. 황규정 기자 · webmaster@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>中 언론 '제주도 관광객 하선 거부 애국적…과열된 사드 반대 경계' : 서울경제 주 메뉴 바로가기 본문내용 바로가기 시그널 디센터 라이프점프 서울경제TV 미주한국일보 서울경제골프 전종목시세 e-Paper 구독안내 마이페이지 로그인 이전 다음 전체메뉴 검색 전체메뉴 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 서경 TV·방송 영화 가요 포토 검색 닫기 검색 #송현동 부지, 시민 품으로 #취득세 쇼크 #가장 쎈 독감 온다 #여가부 폐지 #벼랑 끝 이준석 #눈 먼 돈 된 태양광 대출 #실외 마스크 전면 해제 #노벨상 #김정은 딸 김주애 #어썸머니 닫기 전체서비스 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 카드뉴스 서경스타 TV·방송 영화 가요 포토 회사소개 회사소개 CEO 인사말 서울경제가 걸어온 길 행사 및 시상 약도 및 연락처 업무문의 구독안내 광고안내 이용안내 개인정보취급방침 이용약관 청소년 보호정책 고충처리인 제보 이메일 뉴스레터 텔레그램 뉴스채널 소식 공지사항 이벤트 알립니다 스페셜 컨텐츠 All Headline Awesome Money 기자채널 이슈 연재 e-Paper 뉴스아카이브 전체기사 스타즈 클럽 백상경제연구원 아웃링크 서경골프 이달의과학기술인상 서울포럼 존경받는 기업·기업인 대상 구독 l Subscription 구독신청 이용약관과 개인정보취급방침을 읽었으며, 이에 동의합니다. (필수) 이메일을 통한 서울경제의 서비스 및 이벤트 정보 수신에 동의합니다. (선택) 팝업창 닫기 공유하기 facebook twitter kakao email 복사 이메일보내기 정치·사회 urlhttps://www.sedaily.com/NewsView/1ODCT9929O 보내는 사람 받는 사람 ※ 여러명에게 보낼 경우 콤마(,)로 구분하세요. 확인 취소 홈 국제 정치·사회 中 언론 "제주도 관광객 하선 거부 애국적…과열된 사드 반대 경계" 입력2017-03-13 15:43:03 수정 2017.03.13 15:43:03 윤상언 기자 facebook 공유 twitter kakao email 복사 뉴스듣기 가 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 기사저장 저장된기사목록 기사프린트 환구시보 "제주도 유람선 하선 거부 애국적이며 문명적" 한편 과격화된 시위 비판 등 수위조절 나서 viewer 지난 6일 고고도미사일방어체계(사드)의 첫 부품이 한국에 도착했다./연합뉴스중국 공산당 기관지 인민일보(人民日報)의 자매지인 환구시보(環球時報)가 최근 자국의 제주도 관광객들이 한국의 사드(고고도 미사일 방어체계·THAAD) 배치에 대한 항의표시로 유람선에서 하선하지 않은 것을 극찬했다.13일(현지시간) 환구시보는 ‘3,000여 명의 중국인 관광객이 제주에서 하선을 거부한 것에 대해’라는 제목의 사평을 통해 “이런 행위는 애국적 행동이며 방식 또한 문명적”이라고 평가했다.신문은 그러면서도 사드 반대 행위는 평화적으로 이루어져야 한다고 지적했다.사평은 이어 “사드 반대를 위해 중국 사회 내부에서 때리고 부수고 약탈하고 불을 지르는 행위가 발생하면 정부는 사회안정을 위해 조처를 할 수밖에 없다”고 경고했다.또 “중국의 제재가 한국의 국격과 한국인의 인격을 모욕하는 방향으로 가면 결과는 중국이 바라는 것과 정반대가 될 수 있다”고 하며 사드 반대 시위들이 과열되는 것을 경계했다. 환구시보는 지난달 28일 롯데가 사드 배치 부지를 제공한 이후 중국의 핵 역량 강화, 성주 사드 기지에 대한 군사적 타격 준비 등을 거론하며 비판적인 목소리를 높였다. 다소 비난의 수위가 낮아진 이날 사평에 대해 일각에서는 중국 당국이 지난 10일 한국 헌법재판소의 박근혜 전 대통령의 파면 선고 이후 중국 당국이 차기 한국 정부와의 관계 개선을 위해 대응 수위조절에 나선 것 아니냐는 해석이 나온다.한편, 인민일보의 영문 자매지인 글로벌 타임스도 지난 10일 사드 반대 시위가 과열되는 것을 비판하는 보도를 한 바 있다.신문은 과격한 시위로 인해 한국 교민들이 불안에 떨고 있다고 보도하며 한국인들을 겨냥해서는 안 된다는 점을 강조했다. 또 사드 문제로 한국과 중국 간에 유언비어와 오해로 인해 갈등이 커지고 있다고 지적하면서 이는 바람직하지 못한 행태라고 비판했다./윤상언 인턴기자 sangun.youn@sedaily.com &lt; 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지 &gt; # 관련태그 #환구시보, #사드시위, #사드반대, #사드보복, #크루즈, #제주도 ※ 본 사이트에 게재되는 정보는 오류 및 지연이 있을 수 있으며, 그 이용에 따르는 책임은 이용자 본인에게 있습니다. 오늘의 핫토픽 # 송현동 부지, 시민 품으로 # 취득세 쇼크 # 가장 쎈 독감 온다 # 여가부 폐지 # 벼랑 끝 이준석 오늘의 이슈 #이준석 추가 징계 나경원 "국민의힘 지지층 7주 연속 1등은 나" #국감 초점 박홍근 “감사원, 前정부인사 민간인 시절기록 사찰…공수처 고발할 것” #감사원 '文 서면조사' 논란 박홍근 “감사원, 前정부인사 민간인 시절기록 사찰…공수처 고발할 것” #마약민국 묻지마 폭행하고 "마약 했다"는 남성…경찰이 돌려보냈다 #尹, 비속어 논란 홍준표, 또 유승민 직격…"배신 경력 있는 사람은 가라" 이시간 주요 뉴스 영상 뉴스 '컴백홈' 지금의 날 만들어 준 고향, 구수하고 정겹다 도로 위 '모세의 기적'…경찰·택시기사, 환자 생명 구했다 한미, 北 대응 사격중 미사일 오발…강릉서 '폭발 화재' 넷상 초밀착 웹드라마 '밈의 생활화', 손우민♥김도림 커플 싸움 직관…결말은? "인도네시아 축구장 난동으로 최소 129명 사망"…무슨일 인기 포토 뉴진스 목격! 든든하軍 심장에 한 발! 양조위의 화양연화 샤넬♥제니 저항하라 부산 찾은 스타들 프로스트! 오늘의 연재 한입뉴스 CU×미래에셋페이 ‘편털’ 이벤트 진짜 ‘편털’에 조기종료[한입뉴스] 주식 초고수는 지금 저가 매수 나선 개미들…삼성전자·NAVER 줍줍 뒷북비즈 4C 덫에 걸린 K반도체…“국가대항전서 낙오될 수도” [뒷북비즈] 인더뷰 대리·과장부터 임원까지 '3조' 채용 시장 노리는 리멤버[인더뷰] 서경 디지털 38개의 포토 든든하軍 23개의 포토 양조위의 화양연화 18개의 포토 저항하라 76개의 포토 샤넬♥제니 EBITDA 마진율 회계기준에 따른 차이를 제거한 현금기준 실질 수익성 판단 지표로, 매출을 통해 어느정도의 현금이익을 창출 했는가를 의미한다. 즉, EBITDA마진율은 매출액 대비 현금창출능력으로 볼 수 있으며, 일반적으로 마진율이 높을수록 기업의 수익성이 좋다고 판단할 수 있다. EBITDA마진율 = (EBITDA ÷ 매출액)*100% 1. 코주부 코인, 주식, 부동산 투자 정보만 쏙쏙! 코주부와 성투해요. 2. 지구 나랑 상관 있는 친환경 뉴스. 매주 화·목요일에 만나요. 3. Daily Brief 매일 아침, 데일리브리프가 핵심 경제 뉴스를 전해드립니다. 4. 연재기사 서울경제의 모든 연재기사를 메일함에서 받아보실 수 있습니다. 5. 스타기자 서울경제의 스타기자를 구독하세요. 기사가 출고되면 이메일로 알려드려요. 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 오피니언 사설 사내칼럼 사외칼럼 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 사회 사회일반 전국 사회이슈 피플 영상 · 포토 영상 포토 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 서경스타 TV·방송 영화 가요 포토 공지 [알립니다] 서울경제 개인정보취급방침 변경 공지 회사소개 광고안내 개인정보취급방침 이용약관 청소년보호정책 제보 고충처리인 초판보기 전체기사 뉴스아카이브 관련사이트 미주한국일보 서울경제TV 시그널 레이디스클래식 디센터 라이프점프 더폴리틱스 서울경제골프 백상경제연구원 이달의 과학기술인상 서울포럼 주소 : 서울특별시 종로구 율곡로 6 트윈트리타워 B동 14~16층 대표전화 : 02) 724-8600 상호 : 서울경제신문사업자번호 : 208-81-10310대표자 : 이종환등록번호 : 서울 가 00224등록일자 : 1988.05.13발행 ·편집인 : 이종환 인터넷신문 등록번호 : 서울 아04065 등록일자 : 2016.04.26발행일자 : 2016.04.01 서울경제의 모든 콘텐트는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright ⓒ Sedaily, All right reserved 서울경제를 팔로우하세요! 서울경제신문 텔레그램 뉴스채널 서울경제 어썸머니 모바일 버전 보기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 기념품 홍보전 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 기념품 홍보전 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, 기념품 홍보전 기자명 최병근 기자 입력 2017.03.17 11:31 수정 2017.03.17 11:33 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 19일까지 SETEC 메가쇼 2017 시즌1 참가 제주도관광협회는 16일부터 19일까지 서울에 위치한 SETEC에서 진행되는 ‘세텍 메가쇼 2017 시즌 1’에 참가해 2016년도 제주특별자치도 관광기념품 수상작 6개 업체들의 판매 및 홍보&lt;사진&gt;를 진행하고 있다고 17일 밝혔다.이번 행사는 제주관광기념품 홍보를 위해 4일간 홍보부스를 운영하며 참여업체들의 실질적인 판매 지원을 통해 수익 창출을 지원하고 있다.또한 대형 유통사와 이번 행사에 참여한 업체와의 비즈니스 상담지원을 통해 B2B상품판매 상담을 지원하고 있다.제주도관광협회 관계자는 “제주관광기념품공모전 수상작에 대해 홍보 및 판매지원을 통해 제주관광기념품을 대내외적으로 알리도록 적극 앞장서 나갈 계획”이라고 밝혔다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 관광상품개발 촉진 현장체험 진행 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 등반동호회, 관광상품개발 촉진 현장체험 진행 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도관광협회 등반동호회, 관광상품개발 촉진 현장체험 진행 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.03.18 15:51 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 등반동호회(회장 고철원 곡천화원 대표)는 18일 제주도내 관광사업체 대표, 임원 및 종사자 등으로 구성된 회원 80여명과 함께 다랑쉬오름 등반 및 레저스포츠 체험장인 동부레져에서 승마를 체험하는 등반동호회 행사를 진행했다.이번 행사는 제주도 오름의 여왕이라고 불리우는 다랑쉬오름 등반과 승마,카트 등 다양한 레저체험을 즐길수있는 동부레저에서 준비한 승마 프로그램을 통해 제주관광상품을 개발하기 위해 마련됐다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>'사드 직격탄' 정부-제주도 협력 총력대응 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 '사드 직격탄' 정부-제주도 협력 총력대응 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 '사드 직격탄' 정부-제주도 협력 총력대응 기자명 김하나 기자 입력 2017.03.13 20:22 수정 2017.03.14 08:41 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 원희룡 지사·신관홍 의장 13일 세종시 방문 지원 요청경제부총리 "적극 검토"…해수부장관 "총괄대책 마련"더민주 원내대표·제주출신 국회의원 등도 긴급 간담회정부의 사드(고고도미사일방어체계) 배치에 맞서 중국이 보복 조치에 나서면서 제주 관광업계가 타격을 입고 있는 가운데 정부와 제주도가 협력해 총력 대응에 나서기로 해 귀추가 주목된다. 원희룡 제주도지사는 13일 세종시를 긴급 방문, 유일호 경제부총리 겸 기획재정부 장관과의 면담을 갖고 "최근 사드로 인해 제주관광이 전반적으로 큰 어려움에 직면해 있다"며 국가 차원의 지원과 협조를 요청했다. 이에 유 경제부총리는 "어떤 방안이 효과적인지 정부 차원에서 검토하고 최선의 노력을 다하겠다"고 밝혔고, 전기차와 스마트그리드 조성 등에 대한 지원도 약속했다. 원 지사는 이날 신관홍 제주도의회 의장과 함께 김영석 해양수산부 장관과도 면담을 가졌다. 원 지사는 크루즈 관광 중단에 따른 정부 차원의 특별지원 대책과 제주신항 조기 건설을 건의했고, 신관홍 의장은 한일 어업협정 결렬에 따른 제주 어선어업인 지원대책 마련 촉구 결의문을 전달했다. 김영석 장관은 "크루즈를 포함한 관광 중단 사태에 대해 산자부에서 총괄대책을 마련할 것"이라며 "제주신항도 부처 협의를 거쳐 적극 추진해나가겠다"고 말했다. 이날 국회 더불어민주당 원내대표 회의실에서도 중국 사드 보복 관련 제주관광 해결을 위한 긴급 간담회도 열렸다. 간담회 자리에는 더민주 우상호 원내대표와 강창일(제주시갑)·오영훈(제주시을)·위성곤(서귀포시) 의원, 문화체육관광부와 제주도, 제주관광공사, 제주관광협회 관계자 등이 참석해 대응방안을 모색했다. 우 원내대표는 "현재 중국의 사드보복 조치는 전체 7단계 가운데 2∼3단계로 넘어가는 상황으로, 사드배치 속도에 맞춰 준비를 하고 있다"며 "정부가 피해업계에 2000억여원 규모의 대출자금 금융지원 방안을 추진하지만 역부족"이라고 진단했다. 이에 따라 시장 다변화 등 중장기 대책과 함께 제주방문 주간 운영, 관광진흥개발기금 제주 지원, 제주공항 슬롯 관리권한 이양 등 단기대책을 마련키로 했다. 김하나 기자 hana4557@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 1 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. 김삿갓 2017-03-14 13:22:28 더보기 삭제하기 이번기회에 제주및중국이우리나라에투자한사업들을 집중 적으로 조사 체계화된 대책과 규제를 강화할 절호에 기회다 답글쓰기 0 0 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>브리핑하고 있는 이승찬 제주도 관광국장 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 정치 정치최신 대통령실 국회/정당 국방/외교 북한 행정 지방정가 국정감사 브리핑하고 있는 이승찬 제주도 관광국장 등록 2017.03.09 11:12:11 작게 크게 【제주=뉴시스】강정만 기자 = 이승찬 제주특별자치도 관광국장이 9일 오전 제주도청 기자실에서 중국의 한국관광 금지에 따른 동향을 발표하고 있다. 2017.03.09 photo@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감, 시작 9분 만에 '여야 충돌'로 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3코스피, 1.78% 하락한 2193.02 출발 4신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 러-일 외교관 추방 신경전 언제까지 계속 되나 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 노인 보행자 교통사고 다발지역 60곳 특별점검 국내 최대 안전산업박람회, 3년 만에 대면 개막 중앙부처 22곳 '생애주기별 안전교육 주관부처'로 지정 경찰, 이준석 2차 소환조사…성접대 여부 조만간 판단할 듯 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 법무부 '난민 이의신청 지침' 제정·공개…"공정성·전문성 제고" IMF·WP, 구제금융 확대…금리인상에 빈국 지원 대책 논의 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 플라즈맵, 공모가 7000원 확정…12~13일 청약 현대삼호중공업, 3468억 규모 LNGC 1척 수주 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "평생사원증이 뭐길래"…기아 노조 총파업 '초읽기' "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 복지부, 12개 시·도 장애인식개선교육기관 지정 공모 소방안전관리자 겸직 금지…12월부터 선임 제도 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" 2022 대한민국 안전산업박람회 12일 엑스코서 개막 광주 가뭄 물부족-지하시설물 중복관리 "대책마련 시급" 하윤수 교육감 "임기 중 부산 공교육 바로세우기 프로젝트 추진" 통영시, 민선8기 9대 분야 69개 공약 실천계획 확정 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3[속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4[속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 6尹, 이재명 '친일'공세에 "北핵 위협 앞에 어떤 우려가 정당화될 수 있나" 7[단독]엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>머리 맞대는 원희룡-제주도관광협회 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 최신포토인기포토해외포토분야별포토연예스포츠슬라이드펫카드그래픽뉴스 홈 &gt; 포토 &gt; 지방 &gt; 제주 최근 슬라이드 선택 이전 다음 머리 맞대는 원희룡-제주도관광협회 2017/03/09 18:35 송고 이전 다음 정지 자동넘김 시작 자동넘김 멈춤 (제주=뉴스1) 안서연 기자 = 원희룡 제주도지사가 9일 오후 제주웰컴센터 3층 대회의실에서 제주도관광협회 분과위원장들과 중국인 한국관광 금지 관련 정책 간담회를 갖고 있다. (제주도 제공) 2017.03.09/뉴스1 asy0104@news1.kr 기사원문보기 댓글보기 인기 화보 갤러리 [연예가화제] 3년 만에 관객 품으로 돌아온 BIFF [국회ㆍ정당] 윤석열 정부 첫 국감 시작..여야 전방위 격돌 [국방ㆍ외교] '바다 위 군사기지' 美 핵항모 로널드 레이건호, 부산 입항 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>[약사공론] 관광객 늘었던 '제주도'...최근 5년동안 약국도 21% 증가 약사공론 시작페이지로 2022.10.11(화) 서울 17.0℃ 습도 50% 로그인 회원가입 약사공론 SNS 검색 지면신문 E-BOOK 보기 ▶ 1한약사 2대체조제 3구인구직 4대한약사저널 5팍스로비드 6공공심야약국 검색 알림 경북 경산분회 배성진(펜타약국) 회원 부친상 한상회 전 서울시의약품유통협회장 딸(10/30) 식품의약품안전처 고위공무원단 인사발령(10/11) 김용관 JW신약 경영기획실장(전무) 빙모상 경북 포항분회 정태민(드림약국) 약사 부친상 2022년 제8회 대한민국 약사 학술제 및 제28회 팜엑스포(Pharm EXPO) 대행업체 선정 건 광주지부 유재신 자문위원 모친 정호순 휴온스 로컬사업본부 전무이사 모친 제9회 이가탄 한국약사문학상 수상자안내 휴젤 PR팀 김성원 대리 결혼 (10/8) 뉴스 약공TV 구인구직·부동산 대한약사저널 복약상담 북스토어 KPA교육강좌 약국전문대학원 이벤트 로그인 회원가입 아이디·비밀번호 찾기 기사제보 뉴스 기사전체 기획·분석 약사회 약국·경영 정책·보험 제약·유통 해외·약학 단체·동문 약공TV 포토뉴스 지면PDF 대한약사저널 핵심 복약지도 한약제제 약문약답 드럭머거 임상영양 길라잡이 OTC vs OTC 동물용의약품 약대약 디지털헬스케어 스포츠 영양약학 기고 이슈 트랜드 비밀노트 약국 한방 비급을 배운다 의약품정책연구소 리포트 의약품 이상사례 일본OTC 파헤치기 학술만화 사회약학 허가 리뷰 고위험약물 안전관리 일반의약품 의약품 식별표시 의약품 월간 허가 리뷰 칼럼 및 연재 인터뷰 약공시론/기고 데스크 칼럼 기자의 창 Pharm in Art 인포서비스 청년기자뉴스 장우성의 공감약학 KPA교육강좌 전체 강의보기 MYPAGE 테스트 강좌혜택 문의 약공 in People 알림 약국수기공모전 마더스공모전 제7회 한국약사문학상 제8회 한국약사문학상 약공플러스 3분 언박싱 &amp; 신제품 코너 59초 복약상담 복약상담의 정석 약공쇼츠 원포인트레슨 웹툰 복약상담 팜그래픽 의약품 변경사항 신간 도서신청 구인구직&amp;부동산 구인구직&amp;부동산 채용정보 인재정보 매매&amp;임대정보 커뮤니티 대한약사회지 E-BOOK 의약품 정보 검색 이벤트 112캠페인 전산봉투이벤트자하생력 이벤트김남주바이오 원포인트레슨2코로나19 재유행 대비는 약국과 함께!아이미루 복약상담 Tip! QUIZ 이벤트 HOME 뉴스 정책·보험 관광객 늘었던 '제주도'...최근 5년동안 약국도 21% 증가 서귀포시 26%, 제주시 19% 이상 증감률 보여 2017-03-20 06:00:20 엄태선 기자 tseom@kpanews.co.kr 플친추가 링크 좋아요 인쇄 축소 확대 최근 국내 사드배치로 중국관광객이 크게 감소하고 있는 관광지 제주도의 약국 변화는 어떻게 될까?심평원에 신고된 약국 개폐업 신고 현황에 따르면 제주도 소재 약국은 최근 5년동안 20%이상 크게 증가한 것으로 집계됐다. 지난 1월 262곳의 약국이 제주에 자리를 잡고 있었으며 이는 5년전인 2012년 동월 217곳에 비해 무려 45곳이 늘어난 수치다. 구체적인 증감률은 20.7%였다. 세부적으로 보면 남과 북으로 행정구역이 나누어져 있는 제주는 남쪽의 서귀포시가 증가세가 더 컸다. 서귀포시는 지난 1월 64곳이 약국이 소재해 5년전 동월 51곳에 비해 13곳이 늘었다. 25.5%의 증감률을 그렸다. 반면 제주시는 서귀포시에 비해 3배이상 많은 약국이 위치해 운영중이었다. 지난 1월 198곳이 약국이 신고돼 20곳에 육박했다.5년전 166곳에 비해 32곳이 새롭게 자리를 잡았다. 증감률은 19.3%를 찍어 서귀포시에 비해 6.2%p 낮았다. 한편 제주지역의 경우 2010과 2011년에 215곳을 유지했고 2012년 2곳이 늘어 217곳으로, 2013년 224곳, 2014년 227곳, 2015년 241곳으로 급증세를 보였다.  이어 2016년 254곳, 2017년 262곳으로 매년 10곳 안팎으로 약국이 신설됐다. ※‘당신의 제보가 뉴스가 됩니다’ 약사공론은 여러분의 소중한 제보를 기다립니다. [카카오톡] 약사공론을 검색해 채널 추가 [전화] 02-581-1301 [온라인제보] https://www.kpanews.co.kr/about/newsreport.asp 김남주바이오 원포인트레슨2 숨김 관련 기사 보기 음성·청주·영동지역 약국 '팽창'...진천·괴산·옥천 '위축' 2017.03.13 06:00 광주지역 약국, 최근 3년간 46곳 증가...서구 '눈에 띄네' 2016.12.23 06:00 경남지역 약국, 3년만에 145곳 추가...창원시·양산시 급성장 2016.12.01 06:00 경기지역 약국 유입 '쑥'...수원·용인 주도했다 2016.11.28 06:00 기사의견 달기 ※ 다른 사람의 권리를 침해하거나 명예를 훼손하는 댓글은 관련 법률에 의해 제제를 받을 수 있습니다. ※ 타인에게 불쾌감을 주는 욕설 등 비하하는 단어들은 표시가 제한됨을 알려드립니다. 이름 비밀번호 0/200 등록 기획분석 자료실 많이 본 기사 없어서 못판다는 파스…주가 요동치던 대화제약 날개달까 화마 피해는 지금부터? 제약업계 슬슬 공급 차질 빚나 처방전 불법 조제 '한약사' 줄줄이 적발…검찰 '기소유예' 처분 환절기 감기환자 급증 조짐, 감기약 대란 우려 뺏고 뺏기는 바이오 인력 쟁탈전…영업비밀 유출에 떠는 기업들 국민은 심야약국 원하는데…정부 예산 지원 확대 나서야 한다 불용재고약 '반품' 제약사 협조 관건…법제화 추진 '박차' 10년째 운영중인 약사 체험 프로그램 "많은 도움됩니다" 후지필름, 한국 바이오시장 진출…세포배양배지 사업 개시 현대약품, 제147회 아트엠콘서트 개최 1 없어서 못판다는 파스…주가 요동치던 대화제약 날개달까 2 화마 피해는 지금부터? 제약업계 슬슬 공급 차질 빚나 3 처방전 불법 조제 '한약사' 줄줄이 적발…검찰 '기소유예' 처분 4 환절기 감기환자 급증 조짐, 감기약 대란 우려 5 뺏고 뺏기는 바이오 인력 쟁탈전…영업비밀 유출에 떠는 기업들 6 국민은 심야약국 원하는데…정부 예산 지원 확대 나서야 한다 7 불용재고약 '반품' 제약사 협조 관건…법제화 추진 '박차' 8 10년째 운영중인 약사 체험 프로그램 "많은 도움됩니다" 9 후지필름, 한국 바이오시장 진출…세포배양배지 사업 개시 10 현대약품, 제147회 아트엠콘서트 개최 이벤트 알림 112캠페인 전산봉투이벤트자하생력 이벤트김남주바이오 원포인트레슨2코로나19 재유행 대비는 약국과 함께!아이미루 복약상담 Tip! QUIZ 이벤트 약공TV 베스트 만성 췌장염의 급성증상 완화 '호이판정' "감기약 부족 이슈, 생산증가·약가인상 등 지속 논의할 것" 국민은 약국 원하는데...정부 예산 지원 확대 나서야 인터뷰 10년째 운영중인 약사 체험 프로그램 "많은 도움됩니다" "약사직능의 위기를 해결하려면 정치훈련도 필요합니다" "소소한 일상이 누군가에 도움을 줄 때 가장 행복하죠" "경기약사학술제…학술적 욕구 충족과 재능 발휘 어울러졌다" "불량의약품 신고, 약사·제약사 모두 '윈윈'하는 길" "아이들 위한 디딤돌 놓은 일, 계속할 것입니다" "동물에게 사용하는 약 총정리해 보겠습니다" 오가논을 단단하게 한 이별, 재도약 계기됐다 "환자가 안전하게 치료받고 나가는 병원이 소망" "타세놀이 약국가에서 칭찬받을 때 가장 뿌듯하죠" 청년기자뉴스 우리동네 폐의약품 수거함, 직접 사용해 봤습니다 수술실 CCTV 설치 의무화와 약국 조제실 투명화 알츠하이머 치료제의 미래 건강보험재정 '빨간불', 문제 해결 방안은? 모더나 백신이 우리나라에서 생산된다고? 포토뉴스 이형철 약사공론 사장 11일 취임식 갖고 공식 업무 시작 약사법 위반 혐의 닥터나우 "처벌해 주세요" "전국 약사, 축구로 하나 되다" 제9회 지오영 전국 약사 축구 대회 수해약국 직접 방문해 위로금 전달한 최광훈 대한약사회장 3년만의 만남, 서울약대 '제39회 동창의날' 행사 열어 '굿~샷~!' 제1회 대한약사회장배 전국약사자선 스크린 골프대회 제 17회 경기약사학술대회&amp; 27회 팜엑스포 "전세계 바이오의약품 전문가 모여라" 숙명약대 총동문회, 최종이사회 열고 세입·세출 결산보고 한자리에 모인 식약처·제약업계 '규제개선' 한 목소리 약사공론 소개 오시는길 광고안내 기사제보 구독신청 개인정보처리방침 청소년보호정책 서울 서초구 효령로 194 대한약사회관 3층 Tel:02-581-1301 Fax:0504-084-3330 webmaster@kpanews.co.kr 등록번호 : 서울다07119 등록일자 : 2015.05.25 발행·편집인 : 최광훈 발행일 : 1968.7.17 제호 : 약사공론 청소년보호책임자 : 감성균 약사공론에 게재된 콘텐츠의 무단 전재/복사/배포 행위는 저작권법에 저촉되며 위반 시 법적 제재를 받을 수 있습니다. Copyright kpanews Corp. All rights reserved. FAMILY SITE 대한약사회 약학정보원 의약품정책연구소</t>
+  </si>
+  <si>
+    <t>제주도, '싼커' 적극 유치하기... 중국인 관광객 중 34.4% 차지 - 한강타임즈 × 전체기사 정치 전체 청와대 국회 정당 행정/지자체 외교/국방 북한 정치일반 선거 경제 전체 주식 부동산 생활경제 금융 기업/산업 취업/직장인 국제경제 자동차 경제일반 증권 IT/모바일 전체 과학 인터넷 휴대폰/통신 게임 IT일반 사회 전체 사건/사고 노동 환경 복지 여성 교육 미디어 인물 사회일반 지역일반 국제 전체 일본 중국 아시아 미국 아메리카 유럽 중동 아프리카 영어뉴스 해외화제 국제일반 문화 전체 생활정보 연극/뮤지컬 영화 공연/전시 콘서트 여행/레져 종교 문화일반 연예 전체 연예가화제 TV/드라마 가요/음악 해외연예 연예일반 실시간 핫이슈 스포츠 전체 축구 해외축구 야구 해외야구 농구 배구 복싱 골프/레져 격투기 일반스포츠 지방 전체 지방의회 경기도 광주광역시 대구광역시 대전광역시 인천광역시 부산광역시 울산광역시 강원도 경상남도 경상북도 전라남도 전라북도 충청남도 충청북도 제주특별자치도 지방일반 서울자치구 전체 서울시 강남구 강동구 강북구 강서구 관악구 광진구 구로구 금천구 노원구 도봉구 동대문구 동작구 마포구 서대문구 서초구 성동구 성북구 송파구 양천구 용산구 영등포구 은평구 종로구 중구 중랑구 라이프 전체 생활정보 뷰티/패션 건강 도서/출판 음식/맛집 이벤트 성인정보 동영상 여론조사 전체 이슈 정치 경제 사회 문화/연예 스포츠/레져 교육/취업 여론시사 포토 전체 정치 사회 경제 국제 문화/생활 연예 IT/과학 알림 전체 본사알림 인사 동정 행사 부음 오피니언 전체 데스크칼럼 사설 시론 한줄뉴스 말말말 인터뷰 전체 정치 경제 사회 문화 연예 인물 시민기자 전체 정치 경제 사회 문화/연예 IT/과학 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도어 베트남어 카카오스토리 트위터 페이스북 전체기사 모바일웹 rss LOG IN JOIN 전체 정치 청와대 국회 정당 행정/지자체 외교/국방 북한 정치일반 선거 경제 주식 부동산 생활경제 금융 기업/산업 취업/직장인 국제경제 자동차 경제일반 증권 사회 사건/사고 노동 환경 복지 여성 교육 미디어 인물 사회일반 지역일반 국제 일본 중국 아시아 미국 아메리카 유럽 중동 아프리카 영어뉴스 해외화제 국제일반 문화 생활정보 연극/뮤지컬 영화 공연/전시 콘서트 여행/레져 종교 문화일반 연예 연예가화제 TV/드라마 가요/음악 해외연예 연예일반 실시간 핫이슈 스포츠 축구 해외축구 야구 해외야구 농구 배구 복싱 골프/레져 격투기 일반스포츠 기사검색 검색 실시간뉴스 ‘성범죄자 김근식 10월 출소’... 문정복 의원, “학교전담경찰관 늘려야” 3년 만에 돌아온다…마포구, 14~16일 ‘새우젓축제’ 성동구 마장세림아파트 재건축 속도... 공공지원 용역 착수 영등포구, 신길뉴타운 6713번 버스노선 신설... 17일부터 운행 공효진·케빈오, 오늘(11일) 미국 뉴욕에서 비공개 결혼 bhc치킨, 대학생 봉사단체 ‘해바라기 봉사단’ 유기묘 돌봄 활동 전개 배준경 노원구의원 “월 100만원 수준 노인돌봄 처우 개선돼야” 고병준 마포구의원, "'자살률 1위' 마포대교 오명 이제는 벗자" 올 가을 가장 추운 아침…내일은 더 춥다 ‘통산 15승’ 박민지, 세계랭킹 16위 껑충..고진영 1위 수성 기사쓰기 기사쓰기안내 작성기사보기 내정보수정 이전 다음 제주도, '싼커' 적극 유치하기... 중국인 관광객 중 34.4% 차지 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지방 제주특별자치도 제주도, '싼커' 적극 유치하기... 중국인 관광객 중 34.4% 차지 조영남 기자 승인 2017.03.16 14:30 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [한강타임즈]제주특별자치도가 중국의 ‘사드(THAAD:고고도미사일방어체계) 보복’으로 중국인 단체관광객의 한국관광을 15일부터 전면 금지함에 따라 싼커(散客:주로 20∼30대의 개별관광객) 유치로 방향을 틀고 있다. 싼커가 현재의 난국을 돌파할 수 있는 유력한 대안의 하나로 보고 있는 것이다. 중국 관광객 중 34.4% 차지하는 싼커 제주 롯데면세점의 경우 지난해 11월 중국 정부가 한국 단체관광객을 10% 줄일 것을 발표한 이후 단체 관광객은 줄어든 대신 싼커는 증가했다. 당시 개별관광객은 100∼200명에서 최근에는 하루 500명에서 1000명으로 늘었다. 크루즈 등 북적이는 단체관광객 때문에 면세점으로 발길을 옮기지 못하던 개별관광객들이 찾기 시작한 것이다. 이들에 의한 매출도 전에 비해 90%까지 육박했다. 도는 제주도를 찾은 중국 관광객 중 34.4%를 싼커로 추정한다. 제주도와 제주도관광공사가 지난 한해 제주도를 방문한 중국인 관광객 4000명을 대상으로 표본 조사한 결과에 따르면 34.4%가 개별여행객, 63.3%가 패키지 여행객, 2.3%가 일부 패키지 여행객으로 조사됐다. 16일 현재 중국 관광객 11만7828명이 제주 관광 예약을 취소하는가 하면 6월30일까지 예약됐던 크루즈 191회 기항 예약이 줄줄이 취소됐다. 크루즈로 제주를 방문할 예정이던 관광객은 1회당 2000∼2500명으로 잡으면 약 40만명으로 추산된다. 단체관광 금지로 무비자 지역 제주 선택 가능성 높아 이런 상황에서 도는 제주도가 무비자 지역이라는 강점을 들어 싼커 유치를 타깃으로 삼은 것은 중국 시장을 겨낭한 불가피한 선택으로 받아들여진다. 34.4%로 추정되는 싼커를 통해 중국 관광 시장과의 명맥 유지는 물론 사드 문제가 잘 풀렸을 때를 대비하자는 포석이 깔려 있다. 도는 중국 정부가 여행사를 통한 비자 발급 업무를 중단시켰기 때문 무비자 입국 지역인 제주도로 개별여행이 더 쉬워졌다고 본다. 중국인들이 한국을 여행하려면 여행사를 통해 한국 대사관이나 영사관에서 비자를 발급받아서 왔기 때문이다. 중국인 관광객들이 제주도가 아닌 다른 지역을 관광하기 위해서는 비자를 발급받기 위해 중국에 있는 10곳의 대사관이나 영사관을 방문해야 한다. 하지만 지리적 여건 등으로 중국인들이 이곳을 직접 찾아는 것이 쉽지 않아 무비자 지역인 제주도를 선택할 수 있다는 분석이 나온다. 도는 이에 따라 제주-중국 노선의 항공사를 대상으로 무사증 제도를 활용한 틈새시장을 공략하고 있다. 중국 여행사와의 직접 접촉을 통해 개별 관광객을 유치하기 위한 대책도 추진 중이다. SNS를 통한 적극적인 홍보도 필수 요소로 들어갔다. 김남진 제주도 관광마케팅담당은 “중국의 중국인 한국 관광 금지 정책의 대안으로 동남아 시장 다변화 정책과 함께 중국인 개별관광객을 유치하는 방안을 적극 추진하고 있다”며 “제주도가 무비자 지역이어서 한국을 선호하는 관광객들을 유인할 수 있을 것으로 본다”고 밝혔다. 16일 오후 제주시 연동 '제주 속의 작은 중국'이라 불리며 늘 중국인들로 북적이던 바오젠 거리가 단체 관광객(유커) 대신 개별 관광객(싼커)이 찾아와 자리를 채우고 있다. 중국은 지난 15일 자국 내 '소비자의 날'을 기점으로 비공식적인 한국 관광 금지령을 내려 단체 여행객(유커)의 여행 취소가 잇따라 당분간 제주에서 유커의 모습을 보기는 힘들 전망이다. 도내 한 중국계 여행사 대표는 “지금은 특히 스마트 여행시대가 아니냐”며 “중국인들도 우리와 마찬가지로 온라인에서 자신이 원하는 정보를 검색해 얻어가기 때문 업계는 제주 여행 정보를 더 알차게 신뢰를 줄 수 있도록 만들어 싼커 유치에 나서야 한다”고 제언했다. 중국 관광객 1인 개별 132만7000원, 단체 100만5000원 소비 하지만 싼커 유치가 앞으로 닥칠 ‘유커의 빈 수치’를 전부 채울 수 없을 것이라는 지적도 나온다. 도내 중국인 관광객은 지난 한해 300만명이 다녀갔다. 도는 이 중 60∼70%를 단체관광객, 유커로 분류한다. 허성수 대명해외관광대표는 “제주도는 무비자 지역이기 때문 중국의 한국 관광 금지 정책에도 불구하고 제주에 오는 개별관광객은 지금처럼 현상 유지는 될 것으로 본다”면서도 “하지만 개별관광으로 지난해처럼 300만명이 오는 관광시대는 사드 문제가 해결될 때까지는 어려울 것”이라고 전망했다. 싼커 유치는 어쨌든 중국인 무비자 지역인 제주에서 중국인 관광시장을 살릴 수 있는 하나의 ‘불씨’다. 과제는 이를 어떻게 살려 제주 중국인을 비롯한 전체 관광시장의 활성화로 이어지게 하느냐다. 비씨카드가 최근 발표한 빅데이터 분석자료에 따르면 제주에 온 중국인 개별관광객은 일인 132만7000원, 단체관광객은 일인 100만5000원을 쓰는 것으로 조사됐다. 개별관광객은 쇼핑 42%, 소매 22%, 숙박 22%에 돈을 쓰고, 단체 관광객은 쇼핑 57%, 소매 36%, 식음료 1%에 돈을 쓰는 것으로 나타났다. 중국인 관광객 중 34.4%를 차지하는 싼커. 이 싼커가 꺼져가는 중국인 관광시장의 대안으로 떠오르면서 도민의 관심들도 이곳으로 쏠린다. 유커가 뚝 끊겨 텅 비었다고 모두 다 말했던, 중국인을 위해 조성된 제주시 바오젠거리에도 싼커들의 발걸음은 이어진다. 한강타임즈는 언제나 여러분의 제보를 기다립니다. ▶ 전화 02-777-0003 ▶ 이메일 news@hg-times.com ▶ 카카오톡 @한강타임즈 &lt;저작권자 © 내 손안의 뉴스 '한강타임즈' 무단 전재 및 재배포 금지&gt; 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 정기후원인이 되어주세요. 매체명 : 한강타임즈 연락처 : 02-777-0003 은행계좌 : 우리은행 1005-702-873401 예금주명 : 주식회사 한강미디어 이 기사에 대해 어떻게 생각하시나요? 조영남 기자 news@hg-times.com 기사더보기 &gt; 부산 동래구, 자원순환행정 종합평가 '우수' 부산 금정문화재단, 금정버스킹 시즌2 참여 단체 모집 충북 증평군, 위기가구 집중 발굴 페이스북 트위터 카카오스토리 네이버밴드 구글 주요뉴스 '전대 모드' 돌입 與, 당권 전초전 돌입...'유승민 돌풍' 견제 가시화 bhc치킨, 대학생 봉사단체 ‘해바라기 봉사단’ 유기묘 돌봄 활동 전개 올 가을 가장 추운 아침…내일은 더 춥다 공효진·케빈오, 오늘(11일) 미국 뉴욕에서 비공개 결혼 ‘통산 15승’ 박민지, 세계랭킹 16위 껑충..고진영 1위 수성 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 한강포토(만평) 한강인터뷰 이태인 동대문구의회 의장 마포구의회 채우진 복지도시위원장 김길성 중구청장 용산구의회 오천진 의장 김형대 강남구의회 의장 김영미 마포구의회 의장 더불어민주당 유동균 마포구청장 후보 44년 만에 구민 숙원 '삼표레미콘' 공장 철거 가능성 '제로' GTX-C 왕십리역 신설 확정 성과 중학교 신설ㆍ장터길 확장 등 공약 모두 해결 양준욱 강동구청장 예비후보 한강타임즈(공식) 인기기사 섹션인기 최근기사 1'전대 모드' 돌입 與, 당권 전초전 돌입...'유승민 돌풍' 견제 가시화 2여야 '사법전쟁' 속 국회의원 면책특권 폐지 담론 재부상 3감사원 국정감사, 여야 최대 격전지 부상...'밀정감사' 논란 쟁점화 4올 가을 가장 추운 아침…내일은 더 춥다 5‘통산 15승’ 박민지, 세계랭킹 16위 껑충..고진영 1위 수성 6고병준 마포구의원, "'자살률 1위' 마포대교 오명 이제는 벗자" 7bhc치킨, 대학생 봉사단체 ‘해바라기 봉사단’ 유기묘 돌봄 활동 전개 8영등포구, 신길뉴타운 6713번 버스노선 신설... 17일부터 운행 9코스피·코스닥, 내림세로 장 출발 10배준경 노원구의원 “월 100만원 수준 노인돌봄 처우 개선돼야” 정치 이재명 경기도지사 적합도 ‘타의 추종 불허’} 경제 삼성전자, 전남대와 ‘스마트캠퍼스 구현’ 맞손} IT/모바일 SKT, 증강현실 영상통화 ‘콜라’ 출시} 사회 '제주 4.3 사건', 증언담 보니..."온몸이 뜯어져 사람 꼴이 안돼, 그냥 죽이는 거였다"?} 문화 ‘Hi, POP - 거리로 나온 미술, 팝아트展’ ‘하이팝-아트페어’ 개최} 연예 '레드벨벳' 조이, 데뷔전 과거 사진 눈길...'통통한 볼살'} 스포츠 토트넘 손흥민, 여심 사로잡은 미소…‘시선 강탈’} 지방 제1회 빛고을 패밀리랜드 벚꽃 축제, 6일 개최} 서울자치구 성동구, 마을 탐험 4개 테마 코스 개발... ‘공정여행’ 눈길} 라이프 [오늘의 운세] 2018년 4월 4일 수요일} 1‘성범죄자 김근식 10월 출소’... 문정복 의원, “학교전담경찰관 늘려야” 23년 만에 돌아온다…마포구, 14~16일 ‘새우젓축제’ 3성동구 마장세림아파트 재건축 속도... 공공지원 용역 착수 4영등포구, 신길뉴타운 6713번 버스노선 신설... 17일부터 운행 5공효진·케빈오, 오늘(11일) 미국 뉴욕에서 비공개 결혼 6bhc치킨, 대학생 봉사단체 ‘해바라기 봉사단’ 유기묘 돌봄 활동 전개 7배준경 노원구의원 “월 100만원 수준 노인돌봄 처우 개선돼야” 8고병준 마포구의원, "'자살률 1위' 마포대교 오명 이제는 벗자" 9올 가을 가장 추운 아침…내일은 더 춥다 10‘통산 15승’ 박민지, 세계랭킹 16위 껑충..고진영 1위 수성 +?php include INCLUDE_PWD."news/autobox/autobox_new_40.htm"; ?+/&gt; 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 제호 : 한강타임즈 대표이사·발행·편집인 : 안병욱 기사·사진 저작권 관리자 : 김재태 편집·개인정보관리 책임자 : 황인순 청소년보호책임자 : 김광호 서울특별시 성동구 고산자로 202 (행당동.무학빌딩) 5층 (주)한강미디어(한강타임즈) 대표전화 : 02-777-0003 편집국 : 02-2299-7770 팩스 : 02-2299-2753 명칭 : (주)한강미디어 인터넷일간신문(한강타임즈) 등록번호 : 서울 아 00321 발행일·등록일 : 2007-02-09 통신판매업신고번호 : 서울성동-0244호 한강타임즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 한강타임즈. All rights reserved. &amp;nbsp&amp;lt자매지&amp;gt : 성동저널 기사제보·보도자료 : (한강타임즈 통합이메일) news@hg-times.com 위로</t>
+  </si>
+  <si>
+    <t>사드 조치로 중국관광객 싹 빠져나간 제주도 현재 상황 (사진) &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 사드 조치로 중국관광객 싹 빠져나간 제주도 현재 상황 (사진) 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 사드 조치로 중국관광객 싹 빠져나간 제주도 현재 상황 (사진) 기자명 문화뉴스 MHN 이나경 기자 입력 2017.03.15 17:38 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 이나경 기자] 중국 관광객이 싹 빠져나간 제주도는 의외로 썰렁하지 않았다. 오히려 국내 관광객로 북적이고 있다.중국이 한반도 사드배치에 따른 보복 조치를 계속 하면서 중국 소비자의 날인 오늘 15일부터 중국인들의 한국 단체관광이 전면금지된다. 중국 국가여유국의 구두 지침에 따라 크고 작은 중국 여행사들은 한국 관광상품 취급을 일제히 중단했다.  이제 중국인들은 한국 여행을 하려면 주중 한국대사관 등에 개별 비자를 신청하고 항공권과 숙박 등을 자체적으로 예약해야한다. 그러나 제주도에는 오히려 관광객이 늘어나고 있다. 국내 여행객들이 늘어난 것이다. ▲인스타그램에는 하루에도 수천장씩 제주도 내국인 방문객들이 찍은 여행 기념 사진이 실시간으로 올라오고 있다. ﻿ⓒ 인스타그램 #제주도여행 지난 14일 제주도 관광협회에 따르면 사드 배치 용지 확보 직후인 지난 3월 1일부터 13일까지 제주를 찾은 관광객은 43만 2746명으로 지난해 같은 기간인 42만 2092명과 비교했을 때 2.5% 증가했다. 특히 내국인 방문객은 37만 2317명으로 지난해 같은 기간과 비교하면 12.1%나 늘었다. 제주노선 국내 항공좌석 탑승률도 성수기 수준으로 올랐다. 진에어나 제주항공, 티웨이 등 국내 항공사 제주~김포 노선 탑승률은 평균 90% 이상으로 지난해보다 15% 많다. 그 원인으로는 중국인 관광객이 줄면서 관광 환경이 훨씬 쾌적해졌기 때문이라는 분석이 나오고 있다. 이 쾌적함은 사드 여파인가? j. #제주공항일면식(@ilmyunchic_jeju)님의 공유 게시물님, 2017 3월 13 오후 8:35 PDT 봄날씨가 2주 정도 빨리 찾아오면서 제주도에 유채꽃이 만개한 것도 한몫했다. 벌써 그리워T T유(@romin.yu92)님의 공유 게시물님, 2017 3월 14 오후 8:51 PDT 하지만 이 현상이 장기화될 경우 타격이 심각할 것이라는 우려의 목소리도 나오고 있다. 한국관광공사에 따르면 지난해 한국을 방문한 외국인 관광객 1724만명 중 중국인이 46.8%(806만명)를 차지할 정도로 막대한 비율을 차지했다. 이 중 단체관광 상품을 통해 여행을 온 경우가 전체 중국인 관광객의 40% 정도여서 국내 여행업계는 중국 정부 보복 조치에 따른 적자 규모가 늘어날 것이라고 지적하고 있다. 이나경 기자 press@mhns.co.kr 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 '비정상회담' 기욤이 캐나다 음식 그리울 때마다 먹는 '한국 치킨 프랜차이즈'"나는 루저" 집안-외모-학벌-인성까지 완벽한 엠마왓슨이 고백한 '해리포터' 속 흑역사 (영상)아빠 매튜가 한창 자고 있는 전소미 깨워 '새벽 5시 45분'에 생일 축하해준 이유 (영상)인증샷 찍으려다 '9억짜리' 작품 박살낸 관람객에 일본 미술 거장 쿠사마 야요이가 보인 반응태국서 등껍질 갈라진 거북이 배 갈라보니 동전 915개 나와.. 행운 바란 미신이 부른 동물학대 (영상) '사람이 좋다' "발병 원인을 몰라" 비정상회담 나왔던 '알베르토'가 인슐린 주사를 평생 맞아야 하는 이유 "쓰레기 급식 먹여" 평창 자원봉사자 '2천명' 기권하자 올림픽 조직위가 내놓은 '변명' '인기 아이돌'만 찍는 안무 영상서 '칼군무' 선보이며 흥 '폭발'한 셀럽파이브 (영상) 유튜브 구독자 늘리기 위해 '염산 테러' 인척 물 뿌리며 사람들 조롱한 유튜버 2월 3일 이번주 토요일 결혼하는 태양♥민효린의 커플 화보 공개 (영상) '음악대장의 귀환' 600억 쏟아부은 평창올림픽 '개막식' 공연을 맡게 된 가수 '쇼미더머니' "전 국민 래퍼 만들 기세" 올해 8월 또 편성된 Mnet '쇼미더머니' 시즌7 "점검만 하다가 망하는 것 아니냐?" 6년을 준비한 넥슨 '듀랑고'의 현재 상황 '돈다발 들고 퇴근' 열심히 일한 직원들에게 보너스로 현금 '842억' 쏜 사장님 "사망날도 훈련해" 평창올림픽 수송 지원나갔다가 숙소 샤워장에서 숨진 육군 병장 Tag #오펀 문화뉴스 MHN 이나경 기자의 다른 기사 보기 문화뉴스 MHN 이나경 기자 press@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 곶자왈 생태관광 특화사업 발굴 &lt; 종합 &lt; 지역뉴스 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 지역뉴스 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 종합 제주시 서귀포시 읍면동 농사정보 본문영역 이전 기사보기 다음 기사보기 제주도, 곶자왈 생태관광 특화사업 발굴 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 지역뉴스 종합 제주도, 곶자왈 생태관광 특화사업 발굴 기자명 윤주형 기자 입력 2017.03.13 17:29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 올해 곶자왈 생태관광 특화사업을 발굴한다. 이에 따라 도는 오는 20일까지 사업별 1000만원 규모의 사업 제안서를 받고 있다. 신청사업은 청정 곶자왈의 특색을 활용한 생태프로그램, 곶자왈 마을의 역사문화를 소재로 한 다양한 문화프로그램, 곶자왈 보전하기 위한 각종 홍보활동 프로그램 등 곶자왈을 소재로 한 생태관광 활성화를 위한 사업 등이다. 신청자격은 도내에 등록됐거나, 국내에 등록되고 도내에 지부를 둔 환경 또는 문화예술 관련 비영리법인·단체 등으로, 최근 3년 이내 제주에서 환경 또는 문화예술 분야 활동 경험이 있어야 한다. 문의=제주도 환경자산물관리과(064-710-6041). 윤주형 기자 21jemin@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 대만 관광설명회 개최...시장 다변화 마케팅 시동 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 대만 관광설명회 개최...시장 다변화 마케팅 시동 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 대만 관광설명회 개최...시장 다변화 마케팅 시동 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.03.13 16:45 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주관광공사(사장 최갑열)는 8일부터 11일까지 4일간 대만 타이베이에서 현지 항공업체 및 주요업계, 현지 매체 대상 제주관광설명회 및 현지 세일즈콜을 진행했다.10일 저녁에는 한국관광공사 타이베이 지사와 공동으로 타이베이 정화호텔 연회장에서 대만지역 주요 항공업계․여행업계·매체 및 유관기관 관계자 등 100여명을 대상으로 제주관광설명회를 개최했다.중국정부가 우리나라의 사드배치에 대한 보복조치로 한국관광을 금지한데 따라 제주관광의 시장다변화 필요성이 제기된데 따른 구체적 행보다.이번에 대만 타이베이 지역 최대 제주 송객 여행사인 강복여행사와 간담회를 갖고, 오는 28일 대만-제주 직항노선 운항 재개 논의가 이뤄졌다.또 이번에 운항을 재개하는 타이완타이거항공 현지주요 업계들을 대상으로 직항노선 연계 및 특수테마, 개별관광객 상품 개발 확대 등을 위한 현지 방문 세일즈를 진행하고 10일에는 대만지역 제주 이미지 확대를 위해 삼립TV(애완객)과 제주관광 현지 홍보방안에 대해서도 논의했다.제주관광공사 관계자는 “대만 현지 항공사와 여행업계 및 매체를 대상으로 한 제주관광설명회 개최 및 대대적인 현지 세일즈 활동을 통해 대만 관광객 수요 증가를 통한 제주관광 영토 확장을 기대하고 있다"며 "이를 통해 중국인 감소로 제주관광이 어려운 현재 대만지역 관광객 유치 활성화를 위해 총력을 기울일 것이다"고 말했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 성심요양원서 사랑나눔 봉사활동 &lt; 훈훈뉴스 &lt; 사람들 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 성심요양원서 사랑나눔 봉사활동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사람들 훈훈뉴스 제주도관광협회, 성심요양원서 사랑나눔 봉사활동 기자명 제주의소리					(news@jejusori.net) 입력 2017.03.19 13:53 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도관광협회 사랑나눔봉사단(단장 강인철)은 지난 18일 성심요양원을 방문해 주변 환경 정화 및 어르신들께 필요한 의료용 침대 2대를 기증하는 나눔 활동을 전개했다. 제주의소리 news@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도· 관광공사 일본 관광시장 회복 나선다 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도· 관광공사 일본 관광시장 회복 나선다 (제주=뉴스1) 안서연 기자					| 2017-03-01 17:22 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 © News1 제주특별자치도와 제주관광공사는 일본 관광시장 회복을 위해 현지 거점지역 여행업계를 대상으로 제주관광 설명회를 진행한다고 1일 밝혔다.  2일과 3일 양일간 일본의 오사카와 히로시마 지역 내 여행업계 관계자를 대상으로 제주관광 세일즈를 펼친다.주 4회 직항노선이 운영되고 있는 오사카 지역에서는 2일 한국 및 제주관광업계 주재원 20여명을 대상으로 한 간담회와 함께 현지 여행업계·항공사·언론 관계자들을 대상으로 한 관광 설명회가 진행된다.관광공사는 오사카 지역 설명회를 통해 제주-일본 직항노선이 활성화되고 신규 직항노선 발굴 등에 도움이 될 것이라고 기대하고 있다.최근 일본 내 한국 여행수요가 다시 살아나면서 히로시마-인천-제주 경유상품 개발 등이 기대됨에 따라 3일 히로시마 지역에서도 관광 설명회가 열린다.13일부터 14일까지는 도쿄지역에서 설명회를 개최한다.이를 통해 강정항 등 새로운 제주관광 인프라 및 콘텐츠를 소개하고 리마인드웨딩, 계절별레저상품, 수학여행 등 일본 관광객 대상 전략상품을 개발한다는 방침이다.제주도와 관광공사는 이번 설명회를 시작으로 제주특집방송 제작, 지상파 TV 광고, 유명사이트 연계 홍보 등 일본인관광시장 활성화를 위한 마케팅을 적극 펼쳐나갈 예정이라고 밝혔다. asy0104@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>관광명소 많은 제주도, 성산일출봉 절경에 맛집 별미 즐기는 여행코스 ‘굿’ &lt; 공연·전시 &lt; 기사본문 - 뉴스컬처 (NEWSCULTURE) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-11 11:04 (화) 제보 이슈모아보기 로그인 전체메뉴 버튼 연예 공연·전시 이슈 포토·영상 컬처Life 여행문화 패션뷰티 헬스푸드 미술문화 PEOPLE 경제 검색버튼 기사검색 검색 인기뉴스 '스트릿 맨 파이터' 심사 논란 보아, 끝없는 악플에 지친 심경 토로[뉴스컬처★] [인터뷰]'환승연애2' PD "욕먹는 출연자 이해될 날 있을 것" 제니 '열애설' 뷔, 데이트 때 이 정도는 입어야 못 알아봐[뉴스컬처★] '해피니스' 한효주X박형식, 샤넬 행사에서 재회한 선남선녀[뉴스컬처★] 제주도 떠난 '환승연애2'…뒤늦게 진심 깨닫고 혼란 박민영 열애설 입장 유보 "촬영으로 확인 늦어져" '아이유 콘서트'에서 포착된 방탄소년단 정국···찐팬심 드러나는 올콘 목격담[뉴스컬처★] '백패커' 안보현, 백종원 공항에서 우연히 마주치는 사이[뉴스컬처★] 이달소 츄, 개인 인스타그램 개설...납득 가는 이유[뉴스컬처★] '아이돌의 재발견' 드라마·영화에서 연기력 인정받으며 배우로 승승장구[뉴스컬처★] naver post kakao twitter youtube instagram 본문영역 이전 기사보기 다음 기사보기 관광명소 많은 제주도, 성산일출봉 절경에 맛집 별미 즐기는 여행코스 ‘굿’ SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 공연·전시 관광명소 많은 제주도, 성산일출봉 절경에 맛집 별미 즐기는 여행코스 ‘굿’ 기자명 이정형 기자 입력 2017.03.17 09:01 수정 2018.09.22 20:03 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 국내 여행객은 물론 중국 관광객 등 찾는 여행객들의 수가 해마다 증가하는 제주도는 국내 대표 휴양지로 자리잡은 여행지다.   한라산을 비롯한 섭지코지, 성산일출봉 등 수려한 경관을 지닌 명소가 많아 지친 일상에서 벗어나 아름다운 곳에서 휴식을 취하고 싶어하는 여행객들이 찾는 힐링여행지로 선호되고 있다.  관광명소들 중 천연기념물 제420호로 오름이 많은 제주도에서 해뜨는 오름으로 불리기도 하는 성산일출봉.   이곳은 아름다운 절경과 함께 먹거리가 다채로와 맛집 탐방도 관광객들의 필수 코스로 여겨지고 있다.   제주 성산일출봉 인근 ‘해녀식당 갯마을’도 맛집으로 꼽히는 곳 중 하나다.   당일에 바로 잡은 해산물로 요리를 해 신선한 재료로 맛을 낸 음식을 맛볼 수 있다. 특히 제주산 갈치를 통으로 구워 제공하는 갈치구이와 고등어, 전복 등은 관광객들의 발길을 사로잡는 메뉴다.   “해녀식당 갯마을은 제주 해녀들이 직접 운영하는 식당입니다. 특히 제주산 통갈치 구이와 천연과일즙으로 맛을 낸 물회가 호응을 얻고 있습니다.” 제주도 현지 주민의 귀띔이다.   제주도 성산일출봉 맛집은 탁 트인 제주 바다와 인접해 식사와 동시에 절경 감상까지 가능하다. 눈과 입 모두 충족시킬 수 있는 것. [뉴스컬처 NCTV] [뉴스컬처 360VR][뉴스컬처 연예TV][네이버 포스트] 이정형 기자 father6314@naver.com&lt;저작권자ⓒ뉴스컬처 무단전재 및 재배포 금지&gt; 저작권자 © 뉴스컬처 (NEWSCULTURE) 무단전재 및 재배포 금지 키워드 Tags #제주도성산일출봉맛집 이정형 기자 father6314@naver.com 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 포토뉴스 빈지노, 브루클린의 자유로운 감성(화보) 아이유, 가을의 고혹미(화보) 아이유X손석구, 겨울을 준비하는 커플(화보) 뉴진스, 생기 넘치는 소녀들(화보) 최수영, 의류 모델 발탁될만한 비율(화보) 정호연, 모델 출신의 능수능란 포즈(화보) 인기뉴스 1 '비밀남녀' 미켈 비밀 힌트 공개 "끝이 정해져 있다" 2 '아일랜드' 악에 대항하는 김남길·이다희·차은우·성준 3 '나는 SOLO' 10기 커플 탄생 목격한 3MC의 경악 4 이제훈, 남궁민 드라마에 또 등장 5 [인터뷰①]'브론테' 강지혜·이봄소리·허혜진 "내가 아니면 질투날 것 같은 극" 포토뉴스 [포토]‘인간 디올’ 블랙핑크 지수, 넘사벽 비주얼의 매력 뉴진스, 핫한 패션 아이콘(화보) NCT 쇼타로X성찬, 클래식 무드(화보) [NC포토]'브론테' 송영미, 투명함 머금고 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로 309 (삼성제일빌딩) 12F 대표전화 : 02-557-5321 팩스 : 02-557-5322 청소년보호책임자 : 신명근 법인명 : (주)케이뉴스 제호 : 뉴스컬처 (NEWSCULTURE) 등록번호 : 서울,아02083 등록일 : 2012-04-19 발행일 : 2012-04-19 발행·편집인 : 신명근 뉴스컬처 (NEWSCULTURE) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스컬처 (NEWSCULTURE). All rights reserved. mail to newsculture@knewscorp.co.kr 위로 전체메뉴 전체기사 연예 공연·전시 이슈 포토·영상 컬처Life 전체 여행문화 패션뷰티 헬스푸드 미술문화 PEOPLE 경제 알림 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 하선 거부한 채 ‘쓰레기만 2톤’ 버리고간 중국인 관광객들 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 13℃ 서울 11℃ 인천 12℃ 춘천 14℃ 강릉 13℃ 수원 13℃ 청주 14℃ 대전 15℃ 전주 16℃ 광주 15℃ 대구 15℃ 부산 15℃ 제주 제주도 하선 거부한 채 '쓰레기만 2톤' 버리고간 중국인 관광객들 대형 크루즈를 통해 제주도에 도착한 중국 여행객들이 하선을 거부한 가운데 이들이 제주도에 버린 쓰레기면 2t가량 되는 것으로 뒤늦게 알려졌다. 정희정 기자 2017-03-14 07:33:00 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 기사와 관련 없는 자료 사진 / Facebook[인사이트] 정희정 기자 = 대형 크루즈를 통해 제주도에 도착한 중국 여행객들이 하선을 거부한 가운데 이들이 제주도에 버린 쓰레기면 2t가량 되는 것으로 뒤늦게 알려졌다. 지난 13일 제주세관에 따르면 약 3천 400명의 중국인 관광객들은 지난 11일 코스타 세레나호(11만4천t급)를 통해 제주항에 도착했다. 당시 이들은 단 한명도 배에서 내리지 않겠다고 통보하면서 입국 수속 요원과 해운조합 등은 적잖게 당황했었다. 또한 이들을 태우고 관광지로 가기 위해 오랜시간 기다린 전세버스 80여대의 운전기사와 관광안내사 수십 명 역시 허탕을 치고 돌아가야했다. 중국인 관광객들은 전원 하선을 거부했지만 폐지나 캔, 페트병 등 이들이 배에서 생활하며 발생한 쓰레기는 제주도에 버리고 갔다. 하선 거부하는 중국인 크루즈 관광객들이렇게 버려진 쓰레기만 무려 2t에 달하는 것으로 알려졌다. 해당 쓰레기는 제주세관에 신고된 뒤 모 폐기물업체를 통해 처리됐다. 배에 타고 있던 승객 3천 459명 중 99.1%가 중국인이었고 나머지는 이탈리아와 독일, 우크라이나 승객이었다. 이들 유커는 한국에 도착하면서 회사 측으로부터 하선하지 말라는 통보를 받고 입국을 거부했다. 하선 취소 배경에는 사드(THAAD·고고도 미사일방어체계) 배치 추진으로 중국 정부의 방한 관광 중단 지시가 있는 것으로 관광업계는 추정하고 있다. 정희정 기자 · webmaster@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>사드 배치에 국내 유커 급감, 제주도 관광 '초비상' MBC NEWS 본문 바로가기 메뉴 바로가기 뉴스데스크 이소현 사드 배치에 국내 유커 급감, 제주도 관광 '초비상' 사드 배치에 국내 유커 급감, 제주도 관광 '초비상' 입력 2017-03-06 20:33 | 수정 2017-03-06 22:26 가 가 가 해당 기사를 북마크했습니다. 확인 내 북마크 보기 페이스북 트위터 카카오 스토리 카카오톡 밴드 링크 복사 본문 복사 레이어 닫기 Previous Next 전체재생 상세 기사보기 재생목록 연속재생 닫기 ◀ 앵커 ▶ 롯데가 사드 부지를 내준 뒤 중국에서 반롯데, 반한 시위가 갈수록 격화되고 있습니다. 롯데 제품을 쌓아놓고 중장비로 짓뭉개는가 하면 한국산 화장품 가게 앞에선 난데없는 소동도 벌어졌습니다. "한국 나가라" 소방법을 어겼다, 시설법을 위반했다, 이런 이유로 중국 내 롯데마트는 20여 곳, 4곳 중 1곳꼴로 영업 정지 처분을 받았습니다. 국내도 걱정입니다. 중국인 관광객, 유커들이 많이 왔던 제주도는 피해가 본격화되고 있습니다. 이소현 기자입니다. ◀ 리포트 ▶ 중국인 단체 관광객을 받아온 음식점. 성수기엔 하루 800명까지 손님을 받았지만 요즘은 100명 채우기도 버겁습니다. [서형규/중국 관광객 전문 식당] "이거를 어떻게 운영해야 할지 고민이 많습니다. 업종을 한번 바꿔 볼 생각으로…." 단체 관광객을 실어나르는 전세버스 업체도 사정은 마찬가지입니다. 이맘때면 70%를 넘었던 전세버스 가동률은 5%까지 떨어졌습니다. 중국 의존도가 98%에 달하는 크루즈 여객선도 잇따라 취소될 것으로 보여 사실상 개점휴업 상태에 들어갔습니다. [고수은/전세버스 업체] "중국에서 사드 발표 이후로 저희 전세버스가 한마디로 폭탄 맞은 기분입니다." 전세버스뿐만 아니라 관광면세점과 숙박시설의 피해도 본격화되고 있습니다. 급기야 제주도는 도지사를 본부장으로 하는 대책본부까지 꾸렸습니다. [원희룡/제주도지사] "(중국에) 일방적인 의존으로는 언제든지 위기로 돌변할 수 있다는 교훈을 깊이 새기고…." 부산과 인천 등 크루즈선을 이용한 중국인 단체 관광객을 유치해온 지자체들도 지역 경제가 타격을 받고 있습니다. 수학여행 등 내국인 관광객 유치와 함께 일본과 동남아시아 국가로 시장 다변화에 나설 계획이지만 중국 정부의 한국 관광 중단 조치는 상당 기간 지역 경제에 악영향이 불가피해 보입니다. MBC뉴스 이소현입니다. #제주 #사드 #롯데 #중국 #한국 관광 #롯데마트 #유커 #전세버스 #면세점 #숙박시설 #원희룡 가 가 가 해당 기사를 북마크했습니다. 확인 내 북마크 보기 페이스북 트위터 카카오 스토리 카카오톡 밴드 링크 복사 본문 복사 레이어 닫기 이 기사 어땠나요? 좋아요 훌륭해요 슬퍼요 화나요 후속요청 당신의 의견을 남겨주세요 0/300 등록 최신순 공감순 반대순 더보기 이시각 주요뉴스 많이 본 뉴스 MBC 포털 SNS 유튜브 분야별 추천 뉴스 관련 뉴스 인기 키워드 취재플러스 14F 엠빅뉴스</t>
+  </si>
+  <si>
+    <t>[전국맛탐방] 제주도 여행 2일차, 중문관광단지와 분위기 좋은 맛집 통해 추억 만들어 &lt; 비즈 &lt; 기사 &lt; Food &lt; 기사본문 - 소믈리에타임즈 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 2022-10-11 12:20 (화) 로그인 로그인 회원가입 전체메뉴 버튼 Wine Food Drink Life People TV 칼럼 미수입 와인 행사/Event 전시/박람회 기사검색 검색 실시간 랭킹 1 [금주의 주류 신상] 10월 첫째주 2 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 3 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 4 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 5 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 6 전통주갤러리, 문화와 역사가 함께하는 '10월의 시음주' 소개 7 “포도밭 글램핑부터 액티비티 명소까지” 호주관광청, 온전한 자연을 즐길 수 있는 오프그리드 여행지 소개 8 미쉐린 가이드 서울 2023, 57개 빕 구르망(Bib Gourmand) 리스트 발표 9 제9회 한국와인대상 품평회 성료, “한국와인, 이제는 세계로 나아갈 때” 10 프리미엄 캔와인 '웨스트와일더', 안정환 &amp; 이혜원 부부와 콜라보한 스페셜 에디션 선보여 더보기 본문영역 이전 기사보기 다음 기사보기 [전국맛탐방] 제주도 여행 2일차, 중문관광단지와 분위기 좋은 맛집 통해 추억 만들어 본문 글씨 줄이기 본문 글씨 키우기 바로가기 다른 공유 찾기 스크롤 이동 상태바 현재위치 홈 Food 기사 기자명 이지선 기자 입력 2017.03.20 18:09 [전국맛탐방] 제주도 여행 2일차, 중문관광단지와 분위기 좋은 맛집 통해 추억 만들어 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 기사스크랩하기 메일보내기 닫기 제주도 여행이 보편화되면서 가족단위 연인, 친구와 함께 방문하는 여행객들이 증가하고 있다.최근에는 좀 더 값이 저렴한 저녁비행기를 타고 도착하는 이들이 많은데, 만일 제주도에 늦게 도착했다면 제주공항에서 내린 뒤 여독을 풀고 이튿날에는 본격적인 제주도 투어를 떠나보도록 하자. ▲ 제주도에서도 가장 제주도다운 모습을 갖춘 곳이라는 중문관광단지다 &lt;사진=korean.visitkorea.or.kr&gt;제주도 2일째 여행지로 꼽히는 곳은 제주도에서도 가장 제주도다운 모습을 갖춘 곳이라는 중문관광단지다. 여미지식물원과 테디베어뮤지엄, 카멜리아힐 등을 돌아보는 것을 추천하는데 남쪽 해안을 가면 파도가 부서지는 대포주상절리를 구경할 수 있다.볼거리를 즐겼다면 제주도에서 근사한 레스토랑 음식을 맛볼 차례다. 제주도 중문 맛집 ‘도담레스토랑’은 합리적인 가격의 파스타, 샐러드, 스테이크, 스파게티, 피자 등을 제공하는 이탈리아 음식전문점이다.'도담레스토랑'은 해리안 호텔 1층에 위치한 식당으로 1층 전체가 레스토랑이기 때문에 넓고 쾌적하다. 또한 창가 쪽에 앉아 여유롭게 대화를 나누기 좋은 제주도 레스토랑이다. ▲ 이곳의 빠에야는 스페인에서 수입해온 1등급 샤프란을 사용한다 &lt;사진=이지선기자&gt;관계자는 "호텔 숙박객 외에도 직장동료와 커피를 하거나 식사를 하러 온 관광객, 회사미팅이 이뤄지고 있어 항상 많은 손님들로 붐빈다"면서 "재료는 모두 엄선한 것으로, 고급스런 음식과 맛, 분위기를 느끼길 원해서 방문하신다면 절대 실패하지 않을 것이다"고 자신감을 전했다.실제로 스테이크고기는 곡물비료를 먹여 키운 최고 등급 쇠고기를 쓰고 있으며, 목살은 구아바잎을 이용해 연육한 것으로 부드러운 맛을 선사한다. 빠에야 또한 스페인에서 수입해온 1등급 샤프란을 사용했다.이런 고급스런 식재료를 사용함에도 불구하고, 생산지에서 직접 공급해오는 방법으로 가격을 합리적으로 맞춤으로써, 도민들과 관광객들에게 중문 맛집으로 어필하고 있다.한편, 제주도 중문에 위치한 맛집 '도담레스토랑'의 영업시간은 11시반부터 새벽2시까지며, 매주 수요일은 정기휴무다. 야외테이블에서 식사도 가능하고 가족들이 왔을 때는 아이들이 놀 수 있는 놀이방을 마련해두고 있다. [전국맛탐방]은 이번에 소개한 중문관광단지를 포함해 지금까지 전국각지 82곳을 소개했다.다음은 어디로 가볼까?소믈리에타임즈 이지선기자 jslee@sommeliertimes.com 이지선 기자 jslee@sommeliertimes.com 다른 기사 보기 기사공유 저작권자 © 소믈리에타임즈 무단전재 및 재배포 금지 관련기사 [전국맛탐방] 가성비 좋은 부산 명지 국제 신도시 맛집, 명품 오리 백숙 맛집 [전국맛탐방] 3월,4월 가족여행 하기 좋은 충주여행 충주맛집과 함께 [전국맛탐방] 남해 멸치쌈밥 맛집편, 전국 4대 쌈밥집 [전국맛탐방] 전주 전북대 맛집, 가성비 좋은 전국 4대 짜글이집 [전국맛탐방] 통영 가볼만한 곳, 통영루지로 핫해진 경남 3대 횟집 [전국맛탐방] 대게 즐기는 강릉 주문진 맛집, 각종 이벤트도 풍성 최신뉴스 제1회 보틀샤크 그랜드 테이스팅 (장소:와인소셜) [기고-최염규발행인] 달라진 소믈리에들의 위상...세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" [오늘의 추천] 션 태커리 오리온 1997 현업에서 활동중인 소믈리에들 모습 포토뉴스 제1회 보틀샤크 그랜드 테이스팅 (장소:와인소셜) [기고-최염규발행인] 달라진 소믈리에들의 위상...세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" [오늘의 추천] 션 태커리 오리온 1997 인기뉴스 1 [금주의 주류 신상] 10월 첫째주 2 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 3 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 4 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 5 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 6 전통주갤러리, 문화와 역사가 함께하는 '10월의 시음주' 소개 7 “포도밭 글램핑부터 액티비티 명소까지” 호주관광청, 온전한 자연을 즐길 수 있는 오프그리드 여행지 소개 8 미쉐린 가이드 서울 2023, 57개 빕 구르망(Bib Gourmand) 리스트 발표 오늘의 추천 [오늘의 추천] 션 태커리 오리온 1997 "와인메이커로서 나의 유일한 목적은 즐거움을 만드는 것" [오늘의 추천] 라포스톨, 르 쁘띠 끌로 아팔타 2018 칠레에서 21세기의 가장 위대한 콜드 빈티지 중 하나로 기억될 것 [오늘의 추천] 알람브레 모스카텔 드 세투발 2017 대한민국 주류대상 주정강화 와인부문 대상 3회 수상 인기 키워드 샴페인 미수입 와인 전통주 시음회 프랑스 양재혁 소믈리에 허브노트 미수입 와인 DOMAINE RICARDELLE DE LAUTREC, SAUVIGNON MARIN CUVEE RICARDELLE White Wine 와인리뷰 [알면 더 맛있는] 벨 꼴레(Bel Colle) 와인, 바롤로에 뿌리를 둔 떠오르는 신성 벨 꼴레 랑게 DOC 파보리타 2020, 벨 꼴레 바르바레스코 DOCG 빠요레 2018 [알면 더 맛있는] 라 크레마, "와인의 명성은 만들어지는 것이 아닌 얻어지는 것이다" 라 크레마 소노마 코스트 샤도네이, 피노 누아 2종 [알면 더 맛있는] 나파밸리의 이탈리안 해리티지 와인, '카모미' 4종 '카모미(Ca’Momi)' 4종 Photo [기고-최염규발행인] 달라진 소믈리에들의 위상...세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" 오스트리아 와인 업계, 2022 빈티지 “수확량은 적지만 훌륭한 품질의 포도 예상” 2022 월드 베스트 바, '바르셀로나 파라디소(Paradiso)' 1위 차지 행사/EVENT 시음회 이탈리안 이노베이션 Italian Innovation 10월 27일 PM 7시 ~ 9시, 에프터 나인 앤 와인 품평회 2022년 제9회 한국와인대상 9월 30일, 영동와인터널, 10월 6일 시상식 축제 및 페스티벌 JW 메리어트 동대문 2022 와인 앤 버스커 10월 1일~3일, JW 메리어트 동대문 축제 및 페스티벌 2022 광명동굴 대한민국 와인페스티벌 9월 30일~10월 3일, 광명동굴에서 개최 축제 및 페스티벌 청라 뮤직 &amp; 와인 페스티벌 9월 24일~25일, 청라호수공원 야외음악당 일대 전시 및 박람회 주류 베를린 바 컨벤트 2022(Bar Convent Berlin 2022, BCB) 2022년 10월 10일(월)~12일(수), Exhibition Centre Berlin 와인 프로바인(Prowein) 2023 2023년 3월 19일~23일, 독일 메쎄 뒤셀도르프(Messe Dusseldorf) 주류 2022 남도 전통주 품평회 수상작 특별전 8월 25일~28일, 전통주갤러리 주류 2022 서울바앤스피릿쇼 9월 15일~17일, 코엑스 3층 D홀 와인 2022 '대전국제와인페스티벌' 대전컨벤션센터(DCC), 8월 26일~28일 인기기사 [금주의 주류 신상] 10월 첫째주 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 론칭 및 프로모션 기사 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 호주 와인 윈즈(Wynns), 페어링을 위한 미디움 바디 와인 4종 국내 론칭 [김대리가 소개한다] 붉은 단풍의 계절, 가을에 즐기는 대표 '샤또뇌프 뒤 빠프 와인' 추천 230년 역사의 프랑스 샴페인 명가, '슈를랭(Champagne Cheurlin)' 캘리포니아 와인 업계 혁신의 대명사 '션 태커리'의 숨겨진 보석 5종, 국내 최초 공개 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울시 성동구 성수이로 24길 50 희은빌딩 별관4층 대표전화 : 02-499-0110 팩스 : 02-461-0110 청소년보호책임자 : 최염규 법인명 : 씨앤제이글로벌 제호 : 소믈리에타임즈 등록번호 : 서울 아 03477 등록일 : 2014년 12월 10일 발행일 : 2015년 3월 13일 발행인 : 최염규 편집인 : 김동열 소믈리에타임즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 소믈리에타임즈. All rights reserved. mail to stpress@sommeliertimes.com 위로 전체메뉴 전체기사 Wine Food Drink Life People 오늘의 추천 미수입와인 행사/EVENT 전시 및 박람회 와인리뷰 포토갤러리 로그인 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"일본·동남아 관광객 모셔라"…제주도 '中 사드 보복' 대책회의 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 "일본·동남아 관광객 모셔라"…제주도 '中 사드 보복' 대책회의 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 "일본·동남아 관광객 모셔라"…제주도 '中 사드 보복' 대책회의 송고시간2017-03-03 15:19 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 도 관광협회, 비상 상황실 가동 사드 보복 중국인 관광객 한국 관광 금지령 (PG) [제작 최자윤] 일러스트 (제주=연합뉴스) 고성식 기자 = 중국 관광시장 의존도가 높은 제주도에서 중국의 방한 관광 중단에 따른 민관합동 긴급 대책회의가 3일 열렸다. 제주도는 이날 오후 도관광협회와 제주관광공사 등 유관기관 대책회의를 열어 일본과 동남아시아로 관광시장을 다변화하기 위한 전세기 운항 지원과 '싼커'(散客)로 불리는 중국인 개별관광객 유치에 힘을 쏟기로 했다. 김남진 도관광협회 부본부장은 "2015년 여름·가을 중동호흡기증후군 감염 확산으로 중국인 관광객이 대폭 줄어들었지만, 위기를 잘 극복한 사례가 있다"며 "이번은 중국 정부의 의지에 따라 발생한 위기이지만 오히려 위기관리 매뉴얼을 만들어 차분하게 대응할 필요가 있다"고 말했다. 광고 김 부본부장은 "민간 영역에서는 계속해서 중국과 교류를 강화해 싼커 유치를 위해 나서고 동남아시아의 이슬람권 국가로 관광시장 저변을 전략적으로 확대해 나가자"고 말했다. 제주 관광 긴급 대책 회의 (제주=연합뉴스) 고성식 기자 = 3일 제주도에서 '중, 한국관광 전면중단'에 따른 긴급 대책회의가 열려 도 관계자와 관광협회 관계자 등이 업계 피해를 최소화하고 시장 다변화를 위한 방안을 논의하고 있다. 2017.3. koss@yna.co.kr 양필수 제주관광공사 해외마케팅처장은 "대만과 홍콩도 중화권 시장이므로 이들 국가에 대해 집중적으로 마케팅을 강화하고 현재 침체한 일본인 관광시장을 육성하기 위해 프로모션과 설명회를 개최하는 등 마케팅을 강화할 필요가 있다"고 말했다. 이 자리에서는 시장 다변화를 위해 전세기를 띄우는 항공사에 적극적으로 지원하고 마케팅 인력도 충원해야 한다는 의견이 나왔다. 싼커 유치를 위한 사회관계망서비스(SNS)와 미디어 활용, 시티투어 버스 등 대중교통 개선 등의 방안도 제시됐다. 이번 위기를 그간 중국인 저가 단체 관광으로 인한 폐해를 개선하는 전략 수립 계기로 삼자는 의견도 나왔다. 양성우 도관광협회 회원지원실장은 "중국인 단체 관광객이 끊기면 당장 전세버스 업계와 단체 관광객을 대상으로 하는 음식점과 숙박업소가 경영 위기를 겪을 수 있다"며 이들을 먼저 지원하기 위한 방안도 주문했다. 도관광협회는 중국 정부의 방한관광 중단 사태가 어느 정도 마무리될 때까지 상황실을 운영해 업계의 애로사항을 듣고 지원 방안을 마련키로 했다. 고고도 미사일 방어체계(THAAD·사드) 배치 추진에 대한 보복으로 중국 정부는 자국 여행사를 통한 한국 관광을 금지한 것으로 알려졌다. koss@yna.co.kr 관련기사 "왜 왔냐" 中여행사, 제주관광 홍보팀 박대… 예약취소 줄줄이(종합) 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2017/03/03 15:19 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 선우은숙, 4살 연하 아나운서 유영재와 재혼 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 32 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 16 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>중국 관광 전면 금지에 제주도 전전긍긍 : 전국일반 : 전국 : 뉴스 : 한겨레 본문 바로가기 광고 전체메뉴보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 전체메뉴닫기 오피니언 연재 한겨레TV 포토 EN 日本 中文 한겨레21 씨네21 이코노미인사이트 로그인 회원가입 구독신청 한겨레 세상을 바꾸는 벗 후원하기 서비스 메뉴 뉴스레터 감사원 ‘위법감사’ [포토] 감사원 국감 파행…자리 뜨는 김도읍 법사위원장 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 민주 “‘문자내통’ 캐겠다…이관섭·감사위원 전원 국감 나와야” 서해 사건 감사 위법성 논란, 법조계도 “직권남용·강요죄 소지”민주, ‘대감 게이트’ 공세…“권권유착 공수처가 수사하라”‘위법 감사·대통령실 직보’ 논란 최재해·유병호, 공수처에 고발돼박홍근 “대통령실 기획, 감사원 하청 ‘대감 게이트’…공수처 수사해야” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 한겨레S “국가가 정한 말 아니면 틀렸다니” 표준어 없애는 거 어때요? 김정은의 마지막 친서에 등장한 두번의 ‘바보’ 스스로 ‘파묻은’ 윤 대통령, 제발 좀 정치 하는 걸 보고 싶다 ‘피부 안부’ 묻지 마세요…아토피안, 차별·몰이해를 말하다 아름다운 일과 먹고사는 일…감정노동·공짜노동 ‘살아내기’‘환경부=산업부 2중대’ 비아냥 왜?뒤집고 뒤집는 ‘김현숙 여가부’…다음주엔 뭘 뒤집을까울트라스텝, 그게 뭔데? ‘악의 근원’ 고물가를 잡아라 관련 이슈&amp;연재 뉴스AS북 핵실험·미사일 발사멈춰, 직장갑질 성한용의 정치 막전막후 여가부 없애는 정부 윤 대통령, 일제고사 부활 선언…“원하는 모든 학교 참여토록” [사설] 고조되는 민생·북핵 위기, 협치로 해법 찾으라 윤 대통령, ‘친일 논란’에 “핵 위협에 어떤 우려 정당화될 수 있나” ‘여가부 폐지’ 여성계 입장 들었다…‘반대 단체’는 빼고 외신들도 비판하는 여가부 폐지…“윤 대통령의 ‘여성 지우기’”윤 대통령 지지율 32%…‘매우 잘못 하고 있다’ 59.6% [리얼미터]‘윤석열차’ 애초 국힘이 시작…‘구둣발’ 부메랑까지 8개월이재명, 여가부 폐지 반대…민주 “이대남 결집, 정쟁 유발 의도” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 책과 생각 비관주의자 김연수의 ‘변심’ “누군가를 기억할 때 바뀐다” 몸은 위태롭다…그래서 변화를 이끌 힘이 있다 나랏말싸미 일본과 다른데…일본어사전 베낀 국어사전, 괜찮나 우리에게 꼭 이름이 필요한가요 허구와 비허구의 교점에서 작가는 무엇을 발견했나당신의 뇌를 읽고 싶다‘균질적 단일언어’ 향해 달려온 우리말 형성사국제정치·외교안보 너머 ‘평화 다원주의’ 관련 이슈&amp;연재 짬황진미의 TV 새로고침정혜윤의 새벽세시 책읽기정인경의 과학 읽기 국민의힘 권력투쟁 ‘성접대 의혹’ 이준석 2차 경찰 조사…증거인멸 교사 조만간 결론 안철수 잡는 김기현, 김기현 때리는 윤상현… 벌써 시작된 당권경쟁 이준석 털어낸 국힘 ‘당권경쟁’…이재명 견제·중도 확장 “내가 적임” 이준석, ‘이순신 출정사’ 언급하며 “탈당 말라”…창당 선긋기 이준석 “누구도 탈당 말라”…이순신 ‘정중여산’ 인용해 첫 입장출마길도 막힐라…이준석 간다는 ‘외롭고 고독한 제 길’은 어디인가하태경 “이준석 윤리위 징계는 정치보복…가처분은 국민 기본권”고립무원 이준석…국힘 윤리위, ‘당원권 정지 1년’ 추가 징계 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 미래&amp;과학 지구 감싼 피부는 “사람 피부보다 얇다”…경이로운 3겹의 층 누리호 기술 이전 우선협상 기업은 한화에어로스페이스 ‘지구방어’ 실험, 160m 소행성 충돌에…5만㎞ 먼지꼬리가 생겼다 야식 먹으면 낮에 더 배고프다…비만 부르는 3중 연결고리 달 남극 탐사, 미-중 경쟁…선점하면 기지 건설도 앞선다재난을 경험한 우리는 다른 사람이 된다, 강제로다음 팬데믹 주인공도 ‘변신의 귀재’ RNA 바이러스다돼지의 심장, 인쇄된 혈관이 장기 부족 해결할 수 있을까? 관련 이슈&amp;연재 곽노필의 미래창김준혁의 의학과 서사전치형 과학의 언저리박상준의 과거창 기후변화 오늘 ‘가을 추위’…모레 5도 “얼음 얼고 서리 내리는” 곳도 32만가구 전기·가스 지원 못 받는다…“윤 대통령 약속과 어긋나” 앞서기는커녕 떠넘기기 ‘환경부=산업부 2중대’ 비아냥 왜? 권성동, 4시간 만에 내놓은 해명 “‘혀 깨물고 죽지’, 내 의지 표현” ‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회”‘원전 안전’ 시정 요구에도 8년째 그대로 왜?‘생태법인’을 아시나요?…제주 남방큰돌고래, 법적 권리 논의 시동‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 광고 본문 광고 전국전국일반 중국 관광 전면 금지에 제주도 전전긍긍 등록 :2017-03-03 17:47수정 :2017-03-03 22:24 허호준 기자 사진 허호준 기자 구독 구독중 페이스북 트위터 카카오 링크 스크랩 프린트 글씨 키우기 가 가 가 가 가 관광 관련 업계 3일 제주도청서 긴급대책회의 제주 외국인 관광시장의 85%가 중국인 중국인 관광 금지 현실화하면 직격탄 우려 중국 정부가 한국관광 금지 조처를 내린 가운데 3일 오후 중국인들이 많이 찾는 제주시 연동 바오젠거리 모습. 이 곳 상가들은 이번 조처가 영업에 어떤 타격을 줄지 긴장하고 있다. 사드(고고도 미사일 방어체계) 배치 추진에 따른 보복으로 중국 정부가 한국관광상품 판매를 전면 금지하기로 해 제주 관광업계에 비상이 걸렸다. 지난해 제주를 찾은 외국인 관광객 360만여명 가운데 중국인 관광객이 306만여명(85%)으로, 절대적인 비중을 차지한다. 3일 오후 제주도청에선 ‘중국의 한국관광 중단에 따른 긴급 관계기관 대책회의’가 열렸다 이 자리에 참석한 양성우 제주관광협회 회원지원실장은 “이번 사태가 장기간 지속할 것을 우려한다. 제주도 입장에서는 선택지가 많지 않은 실정이다”며 침통한 표정을 지었다. 양 실장은 “이번 기회에 시장 다변화와 개별관광객 유치를 위한 지속적인 노력을 기울여야겠지만, (관광협회) 회원업체 입장에서는 이번 사태가 지속한다면 중국인 단체관광객만을 받는 호텔과 식당 등은 직접적인 피해를 볼 것”이라고 우려했다. 일부 중국인 관광객이 제주 관광을 취소하는 등 중국 정부의 보복 조처는 현실화하고 있다. 제주 방문 외국인 관광객은 지난달 25일 9665명에서 27일 7097명, 28일 6605명으로 줄어든 데 이어 1일 3717명, 2일 4776명으로 급감했다. 80~90%가 중국인 관광객인 점을 고려하면, 감소폭은 더 커질 전망이다. 제주관광협회는 중국인 관광객만 받는 외국인기념품점과 대형식당 50여곳, 최근 도시 외곽에 건축된 호텔과 대부분의 1급 호텔 등이 직접 타격을 받을 것으로 보고 있다. 하지만 뾰족한 방안은 없어 보인다. 이날 긴급대책회의에서도 “대형 온라인 여행상품을 집중 홍보해야 한다”(오창현 제주관광공사 관광산업처장)거나 “(동남아 등) 시장 다변화 노력을 해야 한다”(양승필 제주관광협회 해외마케팅실장)는 등 의견만 나왔을 뿐이다. 3일 오후 제주도청에서 ‘중국의 한국관광 중단에 따른 긴급 관계기관 대책회의’가 열리고 있다. 제주관광업계는 관광 금지가 현실화되면 중국과 제주를 잇는 정기항공편이 감축되거나 중단되고, 크루즈선의 제주기항도 줄어들어 면세점과 숙박업소, 식당, 기념품점 등 관광 관련 산업이 전반적인 타격을 받을 것으로 보고, 오는 18일 열리는 유채꽃 걷기대회를 주목하고 있다. 중국인 크루즈 관광객이 찾는 인천도 비상이 걸렸다. 3일 인천항만공사에 따르면, 지난해 12월 말까지 선사가 올해 인천항 크루즈 부두를 사용하겠다는 신청건수는 81항차(관광객 17만여명)였으나 이날 현재 44항차(8만9천명)로 줄었다. 2달 사이 반토막이 난 셈이다. 인천관광공사 박정준 팀장은 “오는 20일부터 본격적인 관광시즌인데, 15일부터 중국 여행사의 여행객모집 금지령을 내린 것으로 확인돼 여행업계에 비상이 걸렸다”며 “특히 단체 여행객모집이 중심인 크루즈 관광은 타격이 심할 것으로 보인다”고 우려했다. 제주/허호준, 인천/김영환 기자 hojoon@hani.co.kr 이슈사드 배치 성주 사드기지 미군에 공여 절차 완료…73만㎡ 땅 양도 국방부도 “사드 필요없다”는데…때아닌 ‘3불 논쟁’ 왜? “‘윤 정부, 사드기지 정상화’ 예상한 일, 우리는 싸울 것이다” 항상 시민과 함께하겠습니다. 한겨레 구독신청 하기 진실을 후원해주세요 용기를 가지고 끈질기게 기사를 쓰겠습니다. 여러분의 후원이 우리 사회에 드리운 어둠을 거둡니다. 후원하기 후원제 소개 두근거리는 미래를 후원해주세요 소외 없이 함께 행복한 세상을 위해 노력하겠습니다. 여러분의 후원이 평등하고 자유로운 사회를 만듭니다. 후원하기 후원제 소개 광고 광고 &gt;Please activate JavaScript for write a comment in LiveRe. 광고 전국 많이 보는 기사 1. ‘일가족 참사’ 화장실 기어간 큰딸만 목숨 건져…경찰, 현장 감식 2. ‘노모 생신’ 시골에 모였다가 일가족 5명 숨져…“일산화탄소 중독” 3. 은행잎만 노랗게 빛나도록 남아라, 열매는 10분 줄테니 가라 4. 무등산 정상 복원하려는데…군부대 주둔 전 사진이 없다 5. ‘신영복체 직인’ 폐기한 경기교육청…“훈민정음체가 잘 보여” 한겨레와 친구하기 매일 아침, 매주 목요일 낮 뉴스의 홍수에서 당신을 구할 친절한 뉴스레터를 만나보세요 데일리 H:730 구독 위클리 h_weekly 구독 한겨레 공식 인스타그램 Follow @hanitweet 전체기사RSSRSS페이지 목록 한겨레앱 1/ 2/ 3 서비스 전체보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 회사소개 구독신청 광고안내 채용 기사제보 투고 고충처리 고객센터 face book twitter 사이트 운영 저작권 회원약관 개인정보취급방침 지적재산보호정책 이메일주소 무단수집거부 사이트맵 한겨레 가족 하니누리 한겨레출판 한겨레경제사회연구원 한겨레교육문화센터 한겨레통일문화재단 사람과디지털연구소 한겨레신문 등록번호:서울,아01705 등록일자:2011-7-19 사업자등록번호:105-81-50594 발행인:김현대 편집인:백기철 청소년보호책임자:백기철 주소:서울특별시 마포구 효창목길 6 고객센터:1566-9595 Copyright ⓒ The Hankyoreh. All rights reserved. 뉴스레터, 올해 가장 잘한 일 구독신청 일주일 그만보기 닫기</t>
+  </si>
+  <si>
+    <t>제주도, 중국의 한국 관광중단에 따른 유관기관 대책 회의 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 산업 산업최신 산업/기업 유통/생활경제 패션/뷰티 음식/맛집 창업/취업 자동차 항공 중기/벤처 해양수산 제주도, 중국의 한국 관광중단에 따른 유관기관 대책 회의 등록 2017.03.03 16:03:06 작게 크게 【제주=뉴시스】장재혁 기자 = 제주도는 3일 오후 도청 2층 백록홀에서 전성태 행정부지사 주재로 제주관광공사, 제주도관광협회 관계자들과 함께 '중국의 한국 관광중단에 따른 대책 회의'를 가졌다.2017.03.03. jjhyej@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감, 시작 9분 만에 '여야 충돌'로 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3코스피, 1.78% 하락한 2193.02 출발 4신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 러-일 외교관 추방 신경전 언제까지 계속 되나 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 노인 보행자 교통사고 다발지역 60곳 특별점검 국내 최대 안전산업박람회, 3년 만에 대면 개막 중앙부처 22곳 '생애주기별 안전교육 주관부처'로 지정 경찰, 이준석 2차 소환조사…성접대 여부 조만간 판단할 듯 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 법무부 '난민 이의신청 지침' 제정·공개…"공정성·전문성 제고" IMF·WP, 구제금융 확대…금리인상에 빈국 지원 대책 논의 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 플라즈맵, 공모가 7000원 확정…12~13일 청약 현대삼호중공업, 3468억 규모 LNGC 1척 수주 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "평생사원증이 뭐길래"…기아 노조 총파업 '초읽기' "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 복지부, 12개 시·도 장애인식개선교육기관 지정 공모 소방안전관리자 겸직 금지…12월부터 선임 제도 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" 2022 대한민국 안전산업박람회 12일 엑스코서 개막 광주 가뭄 물부족-지하시설물 중복관리 "대책마련 시급" 하윤수 교육감 "임기 중 부산 공교육 바로세우기 프로젝트 추진" 통영시, 민선8기 9대 분야 69개 공약 실천계획 확정 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 6내년부터 일시적 2주택자 취득 가산세 부담 완화 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 크루즈관광 중단 직격탄 맞아 Powered by HOSTWAY 뉴스레터 구독신청 베타경제 베타뉴스TV 로그인 회원가입 Last Update : 전체기사 하드웨어 소프트웨어 엔터프라이즈 윈도우 모바일 소셜/인터넷 모빌리티 과학 가전 교육 종합 전체기사 리뷰 가전리뷰 기획기사 벤치마크 구입가이드 탐방 인터뷰 칼럼/사설 팁테크 이벤트 동영상 전체기사 뉴스 탐방/인터뷰 이벤트 리뷰 기획기사 기자수첩/칼럼 종합 전체기사 종합 블록체인 정책 산업 중소기업 건설/부동산 국제경제 증권 금융 경제일반 생활경제 재계 제약/의료 전체기사 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 전체기사 문화 연예 스포츠 정치 제주소식 제주도, 크루즈관광 중단 직격탄 맞아 심미숙 seekmisook@betanews.net 기사 입력 : 2017-03-07 16:33:26 중국의 사드보복이 본격화되면서 발등에 불이 떨어진 제주도가 발빠르게 움직이고 있다. 중국 당국이 한국단체관광객과 크루즈 기항을 중단하면서 제주도가 직격탄을 입게 된것. 제주특별자치도는 중국정부가 오는 3월 15일 이후 한국관광을 전면 중단시킴에 따라 크루즈선 제주기항 취소가 예상되자 대책마련을 위해 6일 도 해양수산국장실에서 대책회의를 개최했다. 회의에서는 제주관광공사, (사)제주크루즈산업협회, 크루즈선사제주대리점, 여행사 및 제주도 관계자들이 모여 향후 크루즈 제주기항 일정 취소관련 크루즈 선사와 중국 모객여행사들의 동향과 대응방안에 대하여 논의하였다. 관계자들은 무엇보다 현 상황을 차분하게 받아들이고, 이번 상황을 계기로 중국관광객  위주의 크루즈산업을 일본, 대만, 동남아국가, 월드와이드 등 시장의 다변화 기회로 삼아야 한다는 의견을 제시하였다. 크루즈 관계기관 네트워크인 아시아크루즈터미널협회(ACTA), 아시아크루즈리더스네트워크(ACLN) 등을 활용한 동향 등 정보 공유로 공동 협력해 나가기로 하였다. 또 제주기항 크루즈선이 입항 취소될 경우 관련산업 피해사례 등을 모니터링하여 향후 크루즈산업 육성정책에 반영하는 것도 적극 검토하기로 했다. 중국발 크루즈 동향에 대해 관계기관간 정보 교환은 물론 협력체계를 유지하고, 수시로 관계기관 회의를 개최해 긴장을 늦추지 않겠다는 분위기다. 도 해양수산국은 단기적으로 중국 크루즈관광객 위주에서 일본, 싱가포르, 월드와이드 크루즈 유치 다변화를 위해 마케팅을 강화하고, 이번 사태를 계기로 일본, 대만 사례 등을 벤치마킹해 제주도 크루즈산업 발전의 전화위복의 계기가 될 수 있도록 아이디어를 구체화 시킬 계획이다. 베타뉴스 심미숙 (seekmisook@betanews.net) Copyrights ⓒ BetaNews.net Google 뉴스피드에 Betanews를 추가하세요. 독점 비디오를 보려면 Youtube에서 베타뉴스TV를 구독하세요 목록 위로 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 제주소식 &gt;&gt; 카드뉴스 제주뉴스 개인정보취급방침 회사소개 연혁 찾아오는길 기사제보 광고문의 기사문의 RSS 구독하기 ㆍ(주)베타뉴스 ㆍ제호 : 베타뉴스 ㆍ발행일 : 2001년 9월 29일 ㆍ등록번호 : 서울아00247 ㆍ등록일 : 2006년 9월 8일 ㆍ발행인 겸 편집인 : 이직 ㆍ주소 : 04316 서울시 용산구 원효로 237 화전빌딩 3층 (주)베타뉴스 ㆍ광고문의 : 마케팅국장 김진호 ㆍ청소년보호책임자 : 박미선 ㆍ사업자번호 : 106-86-07377 ㆍ통신판매업 신고 : 용산 제00314호 ㆍ전화 : 02-3211-3040 ~1 ㆍFAX : 02-714-3042 ㆍ문의메일 : leejik@betanews.net Copyright(C) 1999-2017. BetaNews co. ltd. All rights reserved</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 이달 Best 관광인에 전종민 씨 선정 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 이달 Best 관광인에 전종민 씨 선정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 이달 Best 관광인에 전종민 씨 선정 기자명 고병수 기자 입력 2017.03.11 14:04 수정 2017.03.11 14:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 김영진 제주특별자치도관광협회 회장이 이달의 베스트 관광인으로 선정된 제주레포츠랜드(주) 전종민 과장에게 선정패를 전달하고 기념촬영하는 모습. (제주=국제뉴스) 고병수 기자 = 제주특별자치도관광협회는 9일 제주웰컴센터 3층 대회의실에서 "칭찬합시다" 이달의 베스트 관광인으로 제주레포츠랜드(주) 전종민 과장을 선정하고 선정패와 함께 친절 키움 꽃 화분을 전달했다.전종민 과장은 다양한 고객맞춤 이벤트를 진행해 제주 레저관광 발전의 기여하고 있다.특히 레저활동 사고예방을 위해 고객들에게 철저한 안전교육 실시와 정기적인 시설물 관리에 최선을 해 주변 동종업계 종사자들로부터 모범이 돼 이번 best관광인으로 선정됐다. 도 관광협회 관계자는 "앞으로도 제주관광 친절 서비스에 모범이 되는 베스트 관광인을 매월 선정해 수범 사례를 공유하고 이를 계기로 제주관광 종사자들의 친절 및 서비스 마인드를 한단계 높혀나가 '관광으로 만들어 가는 희망찬 제주' 만들기에 앞장서 나갈 것"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>사드 '中, 한국관광 전면중단'…제주도 긴급 대책회의 개최 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 사드 '中, 한국관광 전면중단'…제주도 긴급 대책회의 개최 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 사드 '中, 한국관광 전면중단'…제주도 긴급 대책회의 개최 기자정보, 기사등록일 입력 2017-03-03 11:57 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 업계 충격 최소화 방안 및 대응방향 등 논의 ▲사드여파로 제주의 차이나타운으로 불리는 제주시 연동 바오젠거리에 중국인관광객의 발길이 뚝 끊겼다. 아주경제 진순현 기자= 제주관광산업에 초비상이 걸렸다. 지난 2일 중국 정부가 롯데 사드(THAAD, 고고도미시일방어체계)부지 제공에 따라 한국 관광 전면 중단 조치를 취한 것으로 알려져 충격을 주고 있다. 제주도는 3일 오후 1시 도청본관 2층 백록홀에서 중국정부의 한국관광 전면중단에 따른 관광 유관기관 합동 긴급 대책회의를 개최한다. 이날 대책회의에서는 업계 피해 최소화방안과 향후 대응방향이 논의될 예정이다.관련기사제주공항 국제선 수속 빨라진다제주 최고층 38층 드림타워 ‘원스톱 관광시대’ 연다 도는 회의 결과에 따라 사드 대응 및 시장다변화 상황실을 가동하고, 현 사드 대응 및 시장다변화 TF를 확대 개편한다. 또한 현 상황에서 동원 가능한 모든 방안을 찾아 강력히 추진해 나갈 예정이다. 특히 △업계 피해 최소화 방안 △현 상황에서 가능한 대중국 마케팅 방안 △중국 영향 최소화를 위한 시장다변화 조기 확대강화 방안 등이 강구될 계획이다. #관광 #사드 #한한령 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 69월 CPI·FOMC 의사록·어닝시즌에 "불안감 증폭" 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 2'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 6김두관 의원 "코레일 근무태만 천태만상 심각" 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 5강원도관광재단, 전국 최초 워케이션 상담회 개최 6前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 7수원시, 3년 만에 대면으로 열린 '제59회 수원화성문화제' 성료 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 6숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 7창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>제주도, 중국 관광객 급감 속 오피스텔 '활기' 로그인 회원가입 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 정치 사회 IT.과학 국제 문화 연예 스포츠 경제 산업 금융 증권 건설.부동산 유통 경제일반 오피니언 기자수첩 칼럼 인사 동정 부음 플러스 한줄뉴스 영상 포토 운세/사주 지면PDF 포럼&amp;컨퍼런스 메트로소개 공지사항 네이버 뉴스스탠드 구독설정 구독신청 글로벌 메트로신문 로그인 회원가입 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 정치 사회 IT.과학 국제 문화 연예 스포츠 경제 산업 금융 증권 건설/부동산 유통 경제일반 오피니언 기자수첩 칼럼 인사 동정 부음 플러스 한줄뉴스 포토 영상 운세/사주 독자서비스 지면PDF RSS 공지사항 포럼&amp;컨퍼런스 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 경제 오피니언 포럼&amp;컨퍼런스 지면PDF 정치 사회 IT.과학 국제 문화 연예 스포츠 산업 금융 증권 건설/부동산 유통 경제일반 기자수첩 칼럼 인사 동정 부음 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 경제 오피니언 포럼&amp;컨퍼런스 지면PDF 경제&gt;경제정책 제주도, 중국 관광객 급감 속 오피스텔 '활기' 메트로신문 이규성 기자 ㅣ2017-03-13 09:38:47 뉴스듣기 가 가 가 가 가 건설사들이 제주도 내오피스텔 사업을 강화하고 있어 귀추가 주목된다. 최근 제주도는 사드 배치문제로 중국 관광객이 급감해 부동산시장이 난기류에 빠진 상태다. 이런 판국에 건설사의 상품 차별화 투자자들도 고민에 빠졌다. 제주도는 오피스텔 임대수익률이 전국 최고 수준이고 가격 상승률도 높은 편이다.그만큼 자연 환경이 뛰어나 비즈니스 공간이나 세컨하우스로 각광 받고 있어서다.부동산114에 따르면 지난해 제주도 오피스텔 연 평균 임대수익률은 8.87%를 기록해 전국에서 두 번째로 높았다. 서울(5.01%), 경기도(5.35%)를 상회한다. 3.3㎡당 가격이 2015년 432만원에서 지난해 462만원으로 6.9% 오를 정도로 전국 평균 상승률인 2.4%의 세배에 육박할 정도로 가파른 상승세다. 작년 8월 분양한 제주 연동의 오피스텔 '앳홈' 전용면적 84㎡는 최고 4억7000만원로 가격도 높은 편이다. 작년 9월 노형동에 나온 '노형휴캐슬'도 전용면적 84㎡는 4억3000만원이다. 이에 건설사들은 최상층에 복층형 다락방을 갖추거나 비즈니스 공간, 주거 환경을 강화하는 등 특화설계를 내세워 차별화전략에 나섰다. . (주)아세아 건영은 제주 연동에 '세인트스톤 더 부티크',전용면적 51~285㎡ 38실을 공급 중이다. 복층형, 최상층 펜트하우스, 컨시어지 서비스와 발레파킹 시스템 등으로 차별화하고 있다. 세인트 스톤 더 부티크 대림산업은 노형동에 'e편한세상 시티 노형', 전용면적 32~127㎡ 418실을 분양중이다. 타입별로 대형 드레스룸, 피트니스센터, 미팅룸 등 커뮤니티 시설을 적용한다. 한국토지신탁은 이달 조천읍에 '조천 코아루 더 테라스' 전용면적 84㎡ 72실을 분양한다. 모든 호실에 테라스가 설계된다. 효성종합건설은 연동에 '레지던스 이타스III' 전용면적 25~44㎡ 264실, (주)도경은 서귀포에 수익형 오피스텔인 'DK빌' 전용면적 24~50㎡ 121실을 분양 중이다. 메트로신문 이규성 기자 peace@metroseoul.co.kr 다른기사 보기 Copyright ⓒ 메트로신문 &amp; metroseoul.co.kr 회사소개 배포문의 기사제보 제휴문의 고충처리 이메일무단수집거부 청소년보호정책 구독신청 Copyright ⓒ Metro. All rights reserved. (주)메트로미디어의 모든 기사 또는 컨텐츠에 대한 무단 전재ㆍ복사ㆍ배포를 금합니다. 주식회사 메트로미디어 · 서울특별시 종로구 자하문로17길 18   ㅣ   Tel : 02. 721. 9800 / Fax : 02. 730. 2882 문의메일 : webmaster@metroseoul.co.kr    ㅣ   대표이사 · 발행인 · 편집인 : 이장규   ㅣ   신문사업 등록번호 : 서울, 가00206 인터넷신문 등록번호 : 서울, 아02546   ㅣ   등록일 : 2013년 3월 20일   ㅣ   제호 : 메트로신문 사업자등록번호 : 242-88-00131 ISSN : 2635-9219   ㅣ   청소년 보호책임자 및 고충처리인 : 안대성 지면PDF 한줄뉴스 오늘의 운세 오피니언 메트로 소개 Copyright ⓒ Metro. All rights reserved 맨위로</t>
+  </si>
+  <si>
+    <t>중국 사천성에서 '제주도 관광배 낚시대전' 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 중국 사천성에서 '제주도 관광배 낚시대전' 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 중국 사천성에서 '제주도 관광배 낚시대전' 개최 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.03.07 12:25 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주관광공사(사장 최갑열)는5일 중국 사천성 신진현에서 중국 내륙지역 낚시 동호인 및 사천성낚시협회 회원 등 내륙지역 낚시 애호가 400여명이 참가한 가운데 ‘제주특별자치도 관광배 낚시대전’ 행사를 개최했다.한국관광공사 청뚜지사와 공동으로 마련한 이번 행사는 바다가 없는 내륙지역인 중국 사천지역 낚시 애호가들을 타깃으로 제주관광과 제주낚시상품 홍보를 위해 기획됐다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 골프동호회 3월 친선골프대회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 골프동호회 3월 친선골프대회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 골프동호회 3월 친선골프대회 개최 편집팀 iheadline@hanmail.net 승인 2017.03.15 17:38 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 골프동호회(회장 고규완 제주씨월드 대표)는 14일 오라컨트리클럽에서 회원사 임직원 및 가족 등 동호회 회원 70여명이 참가한 가운데 3월 친선 골프대회를 개최했다.대회 결과 이강은 다이아나호텔 대표가 우승을 차지했다. 제주조랑말타운 송문혁 대표는 메달리스트에 선정됐다.제주도 관광협회는 앞으로도 지속적인 친선골프대회 개최를 통해 도내 골프장업계가 활성화될 수 있도록 적극적인 활동을 펼쳐나갈 계획이다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도정의 관광 경쟁력 강화, 이번엔 믿어도 되나 &lt; 사내 칼럼 &lt; 오피니언 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 오피니언 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 본문영역 이전 기사보기 다음 기사보기 제주도정의 관광 경쟁력 강화, 이번엔 믿어도 되나 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 오피니언 사내 칼럼 제주도정의 관광 경쟁력 강화, 이번엔 믿어도 되나 기자명 박훈석 기자 입력 2017.03.07 20:30 수정 2017.03.08 09:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 박훈석 논설위원 우리 정부의 한반도 '사드'(THAAD:고고도 미사일방어체계) 배치 결정에 따른 중국 정부의 경제 보복이 유감스럽다. 중국정부는 지난 3일 자국 여행업계에 대해 오는 15일 이후 한국관광 금지령을 내리는 한편 위반 업체에 엄벌을 경고하는 등 양국간 정치·군사적 갈등을 순수 민간 교류 분야인 관광산업 영역까지 확대, 지자체마다 대응책 마련에 골머리를 앓고 있다.중국 정부의 경제보복으로 제주도 역시 대응책 마련에 부심하고 있다. 제주는 전체 외국인관광객의 85%를 중국인 단체·개별 관광객이 차지하는 관광산업 특성상 다른 지자체보다 경제 보복 충격파가 크기 때문이다. 특히 한국관광 금지령이 내려지마자 뉴화청·금우극제 등 5개 여행사와 계약을 맺은 중국인 420명을 포함해 6일 현재 11만1000여명이 예약을 취소한 가운데 중국에 97%를 의존하는 제주크루즈 상품 역시지난 4일부터 중국 최대 온라인여행사 인터넷에서 삭제, 충격파가 현실화되고 있다. 중국 정부의 치졸한 경제보복으로 제주를 찾는 중국관광객이 감소, 여행·숙박·음식·교통 등 관광 관련 서비스업종의 피해가 우려되자 제주도정도 대응책을 발표했다. 도는 6일 긴급 회의를 열고 원희룡 지사를 본부장으로 하는 대책본부를 가동하면서 단기 및 중장기 대책을 시행하겠다고 발표했다. 단기대책으로는 △육지부·해외 수학여행 확대 유치 △피해 업체 관광진흥기금 지원 검토 △중국 개별관광객 직접 모객 마케팅 △신규 취항 노선 개설 추진 △관광객 확대 대형 이벤트 개최 등을, 중·장기로는 △내수 관광 활성화 상품 개발 △일본 등 아시아시장 항공 노선 확대 △일본 관광시장 회복 추진 등을 각각 추진키로 했다.도가 발표한 단기 및 중장기 대책이 중국 의존도를 낮추는 제주관광 체질 개선 및 경쟁력 강화에 초점을 맞췄지만 미덥지 않다. 중국 관광객 감소의 외부 충격 요인이 발생할때마다 내놓은 체질개선·경쟁력 강화의 대책을 이번에도 제시, 재탕·삼탕이라는 비판을 면키 어렵다. 마치 컴퓨터에 저장했다가 문제가 터지면 발표하는 도의 우려먹기식 대책은 2년전 경험한 '메르스'(MERS·중동호흡기증후군) 사태에서도 확인할 수 있다. 2015년 5~12월 메르스 사태로 중국 관광객이 감소할때도 제주도는 이번의 사드와 대동소이한 양적 성장 탈피의 '전화위복' 대책을 발표했지만 '인해전술'식으로 밀려드는 중국 관광객 양적 증가에 취해 실천이 더디었음을 부인할 수 없다. 중국 관광객 감소의 관광시장 공백을 채우겠다는 내국인 유치 마케팅도 우리 정부의 홀대로 걱정이 앞선다. 가계부채 증가에 따른 소비심리 위축으로 내국인 관광객 감소가 우려되는 가운데 정부 마저 제주와 서울에 집중된 내·외국인 관광객을 전국으로 분산하는 지방관광 활성화 정책으로 제주관광시장에 빨간불이 켜진지 오래다. 실례로 문화체육관광부는 지난해 국내 대표 테마 관광지를 10개 권역으로 묶어 5년간 집중 육성할 '대한민국 테마관광 10선'에 39개 지자체를 선정하면서도 제주를 제외했다. '유커'로 불리는 중국 저가 단체관광객보다 더 많은 여행비용을 부담해 제주를 찾을 개별관광객 '싼커' 유인책도 수용태세 미흡으로 실현 가능성에 의문이 제기된다. 싼커를 포함해 내·외국인 개별관광객의 만족도를 높이면서 소비 증대와 숙박 등 지역상권 활성화와 연계시킬 야간 관광프로그램이 무엇보다 부족한 탓이다. 오죽했으면 지난해 한국 방문 중국인 가운데 개별관광객이 56.7%로 절반을 넘지만 제주는 38.3%에 그칠 만큼 성적표가 초라하다.제주관광이 메르스나 사드처럼 문제가 터진후 대책을 마련하면 체질개선·경쟁력 강화가 요원할 뿐만 아니라 경쟁 도시들에게 밀릴수밖에 없다. 이순신 장군이 무패의 신화를 거둘수 있었던 비결도 전쟁이 없을때 위기상황을 미리 감지, 대비책을 찾아 실천했다는 교훈을 제주공직사회가 새겨 들어야 한다. 박훈석 기자 hss9718@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>中 '한국 관광 금지령' 이후 유커 11만 명, 제주도 여행 취소 &lt; 사회 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 11:37 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 中 '한국 관광 금지령' 이후 유커 11만 명, 제주도 여행 취소 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 中 '한국 관광 금지령' 이후 유커 11만 명, 제주도 여행 취소 기자명 박준상 기자 입력 2017.03.07 15:19 수정 2017.03.07 15:33 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 텅 빈 제주도 바오첸 거리중국 정부가 우리나라 관광 금지 조치를 내린 이후 10만 명이 넘는 중국인 관광객이 제주도 여행을 취소한 것으로 나타났습니다.제주도는 중국 여행사와 계약해 중국인 관광객을 받는 도내 여행사를 조사한 결과 21개 여행사에 예약됐던 중국인 관광객 11만 천여 명이 예약을 취소했다고 밝혔습니다.지난해 제주를 찾은 중국인 관광객은 모두 300만 명에 달하지만, 올해는 이 가운데 약 70%인 200만 명이 줄어들 것으로 제주도는 예측했습니다.제주도는 앞으로 예약 취소 사례가 늘어날 것으로 예상하고 중국 현지와 도내 여행업계 실태 파악을 계속하면서, 대책본부를 통해 관광업계에 대한 지원 대책을 마련할 방침입니다.원희룡 제주도지사는 “중국이 정치적 목적과 반한다는 이유로 경제제재를 시행했던 것이 어제오늘의 일이 아니었다”면서 “메르스 사태처럼 우리의 지혜와 힘을 모아서 극복해낸다는 의지로 임해야 한다”고 강조했습니다. 박준상 기자 tree@bbsi.co.kr 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 정토사회문화회관 개관, '사회공헌·포교'의 전당 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 미륵도량 봉덕사 "희망의 노래 전통차 축전" "건강한 자연 음식을"...봉녕사 사찰음식 대향연 개막 조계종 제37대 총무원장 진우스님 5일 취임 법회...BBS 생중계 정토사회문화회관 개관, '사회공헌·포교'의 전당 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 1 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. 마리온 2017-03-09 17:21:17 더보기 삭제하기 미국의 이익이 우선인가? 한국의 경제가 우선인가? 박그네의 모든 정책은 최순실로 부터 만들어진것이니 국회에서는 사드배치, 한미일군사정보 협정, 국정교과서, 노동악법(성과연봉제) 재논의 하길 바랍니다. 박그네가 꼬아버린 중국과의 관계만 풀어져도 경제 풀립니다. 미국과 중국 양손잡고 같이 가야지 왜 한손을 잘라라고 하는가? 중국,러시아 감시사찰용 레이더가 사드다. 사드배치. 실제 북핵하고 아무런 관련이 없다 답글쓰기 0 0 주요기사 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 [코로나19]신규확진 1만명대...오늘부터 개량백신 접종 시작 최신뉴스 국제 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 전국 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 지방사 인터뷰 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 사회 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 경제 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 포토뉴스 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 인기뉴스 1 조계종 제6대 군종교구장에 능원스님 단독 추천 2 관음성지 양양 낙산사, 가을 맞이 사찰음식 나눔 잔치 3 무주 일가족 사상사고...보일러 배기관 막혀 4 러시아, 우크라 전역에 미사일 보복 공습...백여명 사상 5 [뉴스파노라마 한글날 특집] 김영수 관장 "한글, 한국문화 직조하는 씨줄 날줄...귀하게 여겨 잘 썼으면" 6 '하루가 멀다 하고 또'…충북 교육계 성추문 얼룩 7 조계종 제18대 직능대표와 비구니 중앙종회의원 30명 선출 8 은해사 창건 1213주년, 해인사 창건 1220주년.....개산 기념 문화 행사 풍성 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광객 평균 체류일수 '4.1일'...내.외국인 만족도는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광객 평균 체류일수 '4.1일'...내.외국인 만족도는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 관광객 평균 체류일수 '4.1일'...내.외국인 만족도는? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2017.03.07 12:19 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사, 방문관광객 실태조사 결과 제주를 방문하는 내.외국인관광객들의 평균 체류일수는 4.1일 정도이고, 내국인의 70%는 렌터카를 이용했던 것으로 나타났다.제주관광공사(사장 최갑열)는 지난해 제주를 방문한 내.외국인 및 크루즈 관광객 1만2000여명을 대상으로 실시한 국가승인통계 '2016 제주특별자치도 방문관광객 실태조사' 결과를 7일 발표했다.이번 조사는 제주국제공항, 제주여객터미널, 제주외항 크루즈 전용부두 등 주요 관문지역에서 개별면접조사 및 자기기입 방식으로 관광객 성향, 제주관광실태, 제주여행평가 및 만족도 등을 관광객 유형별로 진행됐다. 조사 결과 내국인 방문관광객의 평균 체류일수는 4.12일이며 1인 지출 경비는 59만2461원으로 나타났다.제주 여행에 대한 전반적 만족도는 보통수준을 약간 웃도는 3.94점(5점 만점 기준)으로 조사됐다. 제주여행 중 호텔(35.8%)에서 주로 숙박했고, 69.4%는 렌트카(69.4%)로 이동한 것으로 나타났다.외국인 방문관광객의 경우 평균 체류일수는 4.13일이며 1인 지출 경비는 미화 1466.5달러로 나타났다.제주 여행에 대한 전반적 만족도는 내국인보다는 약간 높은 4.06점(5점 만점 기준)으로 조사됐다. 제주여행 중 호텔(70.9%)에서 주로 잠을 자며, 전세버스(30.8%)로 이동하는 것으로 나타났다.제주특별자치도 방문관광객 실태조사는 2014년에 국가승인통계로 지정되어 제주관광에 대한 기초현황 자료로서 관광정책 및 제주관광 발전의 기초자료로 활용되고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 중국 한국관광 금지조치 긴급 대책회의 소집 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 중국 한국관광 금지조치 긴급 대책회의 소집 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 중국 한국관광 금지조치 긴급 대책회의 소집 윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2017.03.03 11:26 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 중국 정부가 고고도 미사일 방어체계(THAAD, 사드) 배치에 대한 보복으로 한국관광 금지조치를 내리면서 제주관광이 직격탄을 맞을 것으로 우려되는 가운데, 제주특별자치도 3일 이의 대책마련에 들어갔다.제주자치도는 이날 오후 1시30분 제주도청 회의실에서 이승찬 관광국장 주재로 제주관광공사, 제주도관광협회 등 유관기관장들이 참여하는 긴급 대책회의를 개최하고 대응책을 논의한다.앞으로 사드 대응 및 시장다변화 상황실을 가동하는 한편, 현 상황에서 가능한 모든 방안을 강구해 업계 피해 최소화 방안 등을 논의할 계획이다.앞서 중국 국가여유국은 2일 베이징 일대 여행사를 소집해 한국행 여행상품에 대해 온.오프라인을 망라한 전면적인 판매중단을 구두로 지시한 것으로 전해졌다. 한국관광상품 판매금지 조치는 베이징을 시작으로, 앞으로 지역별 회의를 통해 전국으로 확대 시달될 것으로 알려졌다.이같은 조치로 인해 단체 패키지관광은 물론 여행사를 통한 자유여행도 불가능하게 됐다.이 조치가 바로 실행될 경우 외래관광시장에서 중국인관광객 의존도가 85%에 달하는 제주도는 직접적 타격이 우려되고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 중국 한국관광 전면금지 조치...직격탄 맞는 제주도 '초비상' 중국, 개별여행객도 차단..."한국관광 신중히 결정하라" 경고 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>사드타격 제주도 관광업, 요우커 의존 탈피한다 - 화이트페이퍼 × 전체기사 종합 전체 국제 정치 교육 빅데이터 WP포토 경제 전체 경제일반 IT 생활경제 산업 부동산 아이엠리치 Money 전체 금융 증권 보험 부동산 소비•재테크 정책 이슈 사회/문화 전체 문화∙일반 라이프 책도시락 전체 책속의 지식·명문장 성공·아이디어 책속에 이런일이? 책속의 포스트잇 책속의 퀴즈 출판계 소식 삶의 향기 북데일리 전체 문학 인문·과학 경제경영 청소년 육아 여행 취미 레저 에세이 자기계발 추천! 이 책 북밴 글쓰기훈련소 출판계 소식 인터뷰 명사추천 이달의 책 올해의 책 베스트셀러랭킹 여론광장 전체 논쟁 더 칼럼 블로그 스토리 북콘서트 글쓰기훈련소 전체 글쓰기정보 연예 기타 전체 북토마토 CEO 직장인 여성/학부모 대학생 기업PR 라이프 전체 방송/연예 사회/일반 정치/경제 스포츠 UPDATED. 2022-10-11 12:27 (화) 로그인 회원가입 모바일웹 전체 종합 국제 정치 교육 빅데이터 WP포토 경제 경제일반 IT 생활경제 산업 부동산 아이엠리치 Money 금융 증권 보험 부동산 소비•재테크 정책 이슈 사회/문화 문화∙일반 책도시락 책속의 지식·명문장 성공·아이디어 책속에 이런일이? 책속의 포스트잇 책속의 퀴즈 출판계 소식 삶의 향기 북데일리 문학 인문·과학 경제경영 청소년 육아 여행 취미 레저 에세이 자기계발 추천! 이 책 북밴 글쓰기훈련소 출판계 소식 인터뷰 명사추천 이달의 책 여론광장 논쟁 더 칼럼 블로그 스토리 자유게시판 공지사항 기업PR 라이프 방송/연예 사회/일반 정치/경제 스포츠 검색버튼 기사검색 검색 이전 다음 사드타격 제주도 관광업, 요우커 의존 탈피한다 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 산업 사드타격 제주도 관광업, 요우커 의존 탈피한다 오예인 인턴기자 승인 2017.03.09 17:36 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 러시아, 중앙아시아, 국내 관광객 유치 노력 ▲ 3일 제주도청에서 중국의 사드 보복에 따른 대응책 마련을 위해 긴급대책회의가 열렸다.(사진=제주도청 제공) [화이트페이퍼=오예인 인턴기자] 사드보복 유탄을 맞은 제주도가 관광업 체질개선에 돌입한다. 10일 제주특별자치도에 따르면 지난 7일까지 24개 여행사에 예약했던 중국인 관광객 11만3130명이 제주 관광 일정을 전면 취소했다. 단체 한국여행 금지령 때문이다. 지난해 3월부터 12월까지 10개월간 제주를 찾은 중국인 관광객은 전체 외국인 관광객의 약 85%를 차지했다. 중국인 관광객은 전년도 대비 70%정도 줄어들 전망이다. ■ 관광체질 개선... 중국 의존도 줄이고 루트 다변화 제주도는 사드사태 이전부터 신흥시장 개척 노력을 이어왔다. 지난해 10월 제주도관광협회는 러시아에서 시베리아 바이칼 관광협회와 ‘협력 비즈니스 파트너십 구축과 공동 마케팅 추진을 위한 우호교류협약’을 체결한 바 있다. 이를 통해 극동 및 중앙아시아 시장을 겨냥한다는 계획이다. 지난해 말 러시아-제주도 전세기를 취항했다. 아울러 제주관광공사 관계자는 "접근성 개선을 위해 동남아시아, 몽골, 러시아 등 인접 국가에서 직항전세기 유치를 확대하고, 제주관광 신 시장으로 주목받는 말레이시아, 인도네시아 등의 수도권 외 도시 마케팅을 강화할 계획"이라고 밝혔다. 실제로 지난해 중국, 일본, 대만, 홍콩을 제외한 국가에서 41만 699명을 유치해 역대 최고치를 기록했다. 아시아 외에도 인도, 호주, 캐나다, 독일, 영국 등 한해 방한 관광객 규모가 10만 명이 넘는 주요 국가 관광객 유치를 위해 지난달 주요 여행사를 대상으로 설명회를 개최했다. 이어 오는 4월에는 이들 여행사 상품개발자를 제주로 초청해 제주관광 신규 상품 개발에 도움을 주기로 했다. ■ VIP는 역시 '국내관광객'과 '싼커' 한 관광업계 관계자는 "2011년 중국과 일본이 영토 분쟁 때에도 일본을 방문한 개별 중국인 관광객 감소 비율이 50%를 넘지는 않았다"며 "개별 여행객은 영향을 받지 않을 것으로 보고 있다"고 전망했다. 도 관광공사 역시 "구체적 피해상황을 계속 주시하겠지만 다양한 방법을 강구하고 있다"고 밝혔다. 3일 제주도에서 열린 중국의 한국관광 전면중단에 따른 긴급 대책회의에서 참석자들은 기존의 요우커가 아닌 개별 관광객 '싼커' 유치방안을 제시했다. 각종 미디어 활용, 시티투어 버스 등 대중교통 개선 등을 내놨다. 저가 단체 관광을 이 기회에 뿌리 뽑자는 얘기도 나왔다. 이에 제주도는 비짓제주(Visit Jeju)와 탐나오, SNS 등 온라인 마케팅을 확대해 개별 수요를 노릴 계획이다. 내국인 관광객 유치의 중요성도 대두됐다. 2016년 제주방문 내국인 관광객은 1,224만 명으로 전체 관광시장에서 77.3%를 점유하고 있다. 2004년 전년대비 -1.9% 감소한 것을 제외하고는 2000년대 이후 매년 전년 대비 지속적인 성장세를 기록하고 있다. 이에 업계 전문가는 “내국인 관광시장의 중요성을 인식하고 관련 마케팅에 집중해야 한다”고 강조했다. 저작권자 © 화이트페이퍼 무단전재 및 재배포 금지 화이트페이퍼, WHITEPAPER 오예인 인턴기자 y3in5@whitepaper.co.kr 다른기사 보기 관련기사 사이버전으로 번진 중국의 '사드보복'...취약점 점검해 대비 '사드 보복' 몸살 앓는 롯데 리스크, 금융권 번질라…금감원 실태 파악 무역협회, 특별상황반 운영... '중국 무역애로 신고센터' 설치 중국 디도스 공격까지 '막무가내'... 기업 보안 점검 필요 "中 사드보복, 韓 GDP성장률 0.5%p 떨어진다" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1온라인에서 오프라인으로…영토 넓히는 게임사들 2같은 음식 주문해도 배달비 달라... '최고 배달비' 많은 앱은 배민1 3SPC그룹, 무연고 아동 돕기 ‘SPC해피쉐어 캠페인’ 진행 4라인게임즈, 내달 '언디셈버' 글로벌 서비스 돌입…"운영 방식 차별 없어" 5농심켈로그 ‘켈로그 오트로드 by 연희’ 개최 6우리은행, 무주택 청년 위한 '우리 청년약속 통장' 출시 7신한은행, 청각장애인 일자리 지원 '카페스윗' 명동점 개점 8카카오뱅크, 디지털 정보 격차 해소 위한 IT기기 기부 참여 9내부통제 점검 나선 권준학 NH농협은행장 10태양광 대출·펀드 22.7조…금감원 "면밀 점검·조치 예정" 최신기사 롯데홈쇼핑 5000억원 규모 쇼핑축제 ‘대한민국 광클절’ 개최 롯데홈쇼핑 5000억원 규모 쇼핑축제 ‘대한민국 광클절’ 개최 이복현 금감원장 "금융사고·불법 공매도 강력 대응" 이복현 금감원장 "금융사고·불법 공매도 강력 대응" 뉴 쏠 출범 앞둔 신한은행 어텐션…새 광고모델에 '뉴진스' 발탁 뉴 쏠 출범 앞둔 신한은행 어텐션…새 광고모델에 '뉴진스' 발탁 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울시 영등포구 국제금융로 6길 33, 1212호 (여의도동, 맨하탄빌딩) 대표전화 : 02-323-1905 팩스 : 02-6007-1812 청소년보호책임자 : 박경화 법인명 : 주식회사 화이트페이퍼 제호 : 화이트페이퍼 등록번호 : 서울 아 03165 등록일 : 2014-05-22 발행일 : 2014-05-22 발행인 : 임정섭 편집인 : 임정섭 화이트페이퍼 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 화이트페이퍼. All rights reserved. mail to white@whitepaper.co.kr 위로</t>
+  </si>
+  <si>
+    <t>중국 사드보복 한국관광 금지조치, 제주도 예상 피해정도는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 중국 사드보복 한국관광 금지조치, 제주도 예상 피해정도는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 중국 사드보복 한국관광 금지조치, 제주도 예상 피해정도는? 윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2017.03.06 14:52 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도 연간 300만 중국인시장 '붕괴' 우려 현실화 숙박.여행사.음식점 '직격탄'...제주도 경제전반 '타격' 중국 정부가 우리나라의 고고도 미사일 방어체계(THAAD, 사드) 배치에 대한 보복으로 강력한 한국관광 금지조치를 내리면서, 제주도는 관광산업은 물론 연계산업까지 직.간접적인 피해가 예상되면서 경제적 피해정도는 매우 클 것으로 분석되고 있다.중국 정부는 이달 2일부터 아웃바운드 여행사의 한국 단체관광업무를 중지토록 하는 한편, 모든 온.오프 여행사는 한국행 여행상품 판매를 전면 중단하도록 조치했다.이 지침 시달은 베이징 소재 여행사를 시작으로, 강소, 절강, 상해, 사천으로 이어지고 있고, 조만간 중국 전역에서 적용될 전망이다.사실상 여행사를 통한 한국행 패키지 단체관광이나 에어텔, 개별관광은 전면 금지되는 것이다. 여행사를 통한 한국행 항공권 구매나 비자발급도 전면 금지됐다.여행사를 통한 관광은 이달 15일 이전 여행일정에 비자 및 여행비용 지불이 완료된 경우에 한해 가능하도록 하고, 15일 이후 일정에 대해서는 취소하도록 했다.또 크루즈의 경우 한국에서 기항하는 것을 금지했다.그나마 개인이 직접 비자 및 항공권을 처리하는 완전 자유여행은 가능한 상황인데, 중국 정부는 이에 대해서도 '경고' 발령을 통해 통제에 들어갔다.중국 국가여유국이 지난 3일 공식사이트에 게재한 성명을 통해 여행사를 통하지 않고 개별적으로 한국을 자유여행하는 자국민들을 겨냥해, "한국관광을 신중히 결정하라"는 강력 권고를 하고 나선 것이다.이에따라 외래관광시장에서 중국인의 점유율이 85%에 달하는 제주도의 경우 직접적 타격을 입게 됐다.제주도 관광에서는 4일 기준으로 뉴화청, 금우국제, 킹스라인 등 5개 여행사에서 420여명 모객 관광계획을 전면 취소한 것으로 확인됐다.상해를 출발해 제주외항에 기항할 예정이던 국제크루즈 운항계획도 취소됐다. 취소된 크루즈선사는 코스타, 로얄, 천해크루즈 등인 것으로 알려졌다.중국의 이러한 조치로 제주와 중국을 잇는 항공노선의 잇따른 운항중단도 이어질 전망이다.제주특별자치도는 이의 대응책으로 단체관광객 대신 개별여행객, 즉 '싼커' 유치에 나선다고 했지만, 중국 정부의 강력 경고발령으로 이마저도 확신할 수 없는 상황이다.문제는 중국당국이 한국관광 전면 통제에 들어가는 이달 15일 이후.연간 300만명에 이르던 중국인관광객들의 발길이 끊길 경우 제주도 관광산업은 물론, 1차산업 및 유통.판매업 등 연계산업으로까지 연쇄적으로 영향을 미쳐 경제적 피해규모는 매우 클 것으로 전망되고 있다.단기간 내 영향을 미쳤던 2015년 중동호흡기증후군 메르스 사태 때보다도 몇배 더 심각한 피해가 우려되고 있다.우선 그동안 외래관광시장에서 중국에 크게 쏠렸던 일반여행업이 직격탄을 맞게 됐다.국내.국외 여행업을 제외한 일반여행업의 경우 제주도에 326곳이 있는데, 이중 23.9%인 78곳이 중국계이다. 이들 중국계 여행사를 비롯해 중국인 전담 지정여행사인 5곳은 타격이 매우 클 전망이다.우후죽순 들어서며 과포화 논란을 빚었던 호텔.콘도.펜션 등 관광숙박시설의 경우 최대 위기에 몰릴 것으로 예상된다.제주도내 관광숙박시설은 관광호텔 118곳, 전통호텔 1곳, 가족호텔 58곳, 호스텔 149곳, 소형호텔 3곳, 휴양콘도 57곳 등 총 386개소에 2만7836개 객실을 보유하고 있는데, 이중 20곳(5.2%)인 중국계 직영 숙박업이다.제주특별자치도는 단체.개별 관광객이 감소할 경우 특급호텔을 비롯해 전반적 침체가 예상되고, 특히 공항 인근에 위치한 제주시 연동.노형동 소재 숙박시설의 타격이 가장 클 것으로 보인다고 밝혔다.크루즈 제주기항이 중단될 경우 전세버스 업계도 큰 타격을 받게 됐다. 현재 제주도내에는 59개 업체에서 대형 1520대, 중형 749대 등 총 2269대의 관광버스를 운행하고 있다.중국인관광객들을 대상으로 해 운영해 온 외식업체 105곳도 피해정도가 클 것으로 분석됐다.제주기점 중국 노선을 운항해온 국적 항공사(대한항공, 진에어, 이스타항공)를 비롯해 제주도내 8개 카지노업체, 사설관광지, 유람선업, 유원시설업 등에서도 피해가 예상된다.관광업계 뿐만 아니라, 감귤을 비롯한 농.축.수산품 등을 생산하는 1차산업이나 2차 가공산업, 유통.판매업 등에서도 연쇄적인 피해가 우려된다. 특히 원도심 등 지역상권의 피해도 적지 않을 전망이다.제주도 경제가 그동안 관광산업을 중심으로 성장해 온 점을 감안할 때, 이번 중국의 한국관광금지 조치는 제주경제 전반에 심각한 영향을 미칠 것으로 분석이 지배적이다.지난해 제주를 찾은 외국인관광객은 총 360만3021명으로, 이중 중국인은 85%인 306만1522명에 달한다. 2015년과 비교해 36.8% 증가율을 보이는 등 매해 꾸준한 성장을 보여왔다.교통수단 유형별로는 직항 항공편이 38.8%, 국내경유 항공편 22.9%, 크루즈 38.1% 등으로 나타났다. 그러나 이달부터는 최소 '반토막' 이상의 급감 현상이 빚어질 것으로 전망되고 있다. 최악의 경우 6년전인 2010년 수준(40만명) 이하로 떨어질 가능성도 배제할 수 없다. 크루즈 기항만 못하게 된다 하더라도 40%에 가까운 관광객이 줄어들게 되기 때문이다.그동안 중국인관광객들이 너무 많이 오는데서 비롯된 수용환경 문제에 집중하던 제주도 관광당국이 이제는 '너무 안 오는' 상황에 대한 대책 마련에 부심하고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 중국 한국관광 전면금지 조치...직격탄 맞는 제주도 '초비상' 中사드보복, 제주경제 '전방위 압박'...도지사 대책본부 가동 중국 사드보복 예고 9개월, 관광당국 그동안 뭘 했나 中사드보복 '직격탄'...유커 11만명 제주관광 취소 中사드보복 크루즈 피해, 국제 네트워크 공동협력 모색 사드사태에 중소기업 피해 우려...'중국 수출피해 신고센터' 운영 사드보복 '직격탄' 제주도 피해 속출...유커 11만명 예약취소 사드보복 여파 中여행사, 한국 대신 북한 관광상품 판매 中사드보복에 '발 묶인 하늘길'...제주직항 노선 대거 취소 중국관광객 예약취소 속출...항공기.크루즈 줄줄이 '중단' 제주 기항 中크루즈 관광객 3400명 단체 '하선 거부' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 곶자왈 생태관광 특화사업 공모 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:25 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도, 곶자왈 생태관광 특화사업 공모 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 곶자왈 생태관광 특화사업 공모 김동일 기자 승인 2017.03.08 15:25 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 오는 20일까지 1차 신청 접수 진행 [제주일보=김동일 기자] 제주특별자치도는 오는 20일까지 곶자왈 생태관광 특화사업 공모를 실시한다고 8일 밝혔다.이번 사업은 생태문화 프로그램 개발을 통해 곶자왈 보전가치를 알리는 것은 물론 지역경제 활성화, 생태관광 토대를 마련하기 위해 추진되는 것으로, 제주도는 오는 5월부터 12월까지 사업을 중점 시행할 계획이다.사업신청은 도내에 등록되거나 도내에 지부를 둔 환경 및 문화예술 관련 비영리 법인 또는 단체 등으로, 최근 3년 이내 도내에서 활동 경험이 있어야 한다.공모 대상 사업은 ▲청정 곶자왈 특색을 활용한 생태프로그램 ▲곶자왈 마을의 역사문화를 소재로 한 문화프로그램 ▲곶자왈 보전을 위한 홍보활동 프로그램 등으로, 단체 홍보성 사업 또는 기념행사, 사업비가 과다 책정된 사업 등은 제외된다.제주도는 1차 신청기간인 오는 20일까지 접수를 진행해 신청자가 없을 경우 21일부터 31일까지 2차 신청을 접수할 계획이다.신청은 공모신청서와 사업계획서 등을 작성한 후 증빙서류와 함께 방문 또는 우편 등을 통해 제출하면 된다.제주도는 1차 내부 심의와 2차 환경보전기금운용위원회 심의 등을 거쳐 사업자를 선정할 예정이다. 김동일 기자  flash@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김동일 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>[SN여행] 노란물결이 가득한 제주도의 대표 관광지 '산방산' - 시선뉴스 × 전체기사 시사 전체 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 타임즈(개편중) 지식‧교양 전체 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 TV스캔들(개편중) 지식·정보 전체 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 전체 사회·문화 엔터테인먼트 날씨 다큐멘터리 전체 시선 인터뷰 역사 기억 [memory, 記憶] 스토리오브코리아 뉴스 전체 이슈돋보기 대중문화 HOT키워드 상상마당 라이프 전체 건강·음식 인테리어 패션·뷰티 육아 자동차 여행·관광 360VR e-biz 애니멀 전체 신비한 동물사전 반려동물농장 애니멀TV 산업 전체 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 아임반 x 네이버 쇼핑 페스타 행사 진행 메이튼, 쌍용 토레스 실내 편의 용품 콘솔 트레이 990원 이벤트 진행 (사)동물보호단체 헬프애니멀, 제3회 길고양이 중성화사업 TNR시 치료지원 사업 진행 PGA TOUR &amp; LPGA 골프웨어, 2022 F/W 런칭 행사 ‘PRIVATE SOCIAL PARTY’ 마무리 이포넷, 번역 서비스 분야 국제 표준 ISO 재인증 심사 통과 코바(KOVA), 범죄 없는 따뜻한 세상 위한 ‘2022 KOVA 범국민 캠페인’ 개최 [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 2022년 10월 둘째 주 육아 관련 정책 [육아 정책브리핑] 다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 비타공방, 아토 비타민D 드롭 4,000IU 국내출시 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 킥고잉, 자전거 출시 효과 톡톡... 신규 가입자 30% 증가 서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] 구전녹용, 녹용과 석류가 달여진 ‘구전녹용 정경부인’ 11일 재출시 쌍용C&amp;B, ‘코디 아트앤 포켓몬’ 휴대용 물티슈 출시 네이버TV 카카오TV 유튜브 네이버 포스트 facebook twitter kakao story 로그인 회원가입 모바일웹 시사 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 지식‧교양 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 지식·정보 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 사회·문화 엔터테인먼트 날씨 애니멀 신비한 동물사전 반려동물농장 애니멀TV 다큐멘터리 시선 인터뷰 키워드 한국사 기억 [memory, 記憶] 스토리오브코리아 뉴스 이슈돋보기 대중문화 산업 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 기사검색 검색 이전 다음 [SN여행] 노란물결이 가득한 제주도의 대표 관광지 '산방산' 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 다큐멘터리 스토리오브코리아 [SN여행] 노란물결이 가득한 제주도의 대표 관광지 '산방산' 보도본부 | 이연선 pro 승인 2017.03.22 14:59 댓글 0 글씨키우기 글씨줄이기 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 블로그 기사공유하기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [시선뉴스(제주 서귀포)] 제주도는 사계절 내내 꽃이 지지 않기로 유명한 곳이면서 우리나라 남쪽에 위치하고 있어 봄이 가장 먼저 찾아오는 곳이다. 특히 제주도 어디서든 볼 수 있는 유채꽃은 노란 물결을 뽐내며 제주도를 노랗게 물들이고 있다.최근 중국인들의 발길이 끊어지며 제주도를 찾는 국내 관광객들도 많아지고 있다. 특히 날씨가 따뜻해지며 조금이라도 더 빨리 봄을 만나기 위해 제주도를 방문하는 사람도 많다. ⓒ지식교양 전문채널-시선뉴스 (사진제공-김수진) 제주도는 오름이나 박물관, 역사를 볼 수 있는 다양한 관광지 등 다양한 여행지가 있는데 제주도의 대표적인 봄꽃 유채꽃과 탄산 온천 등을 즐길 수 있는 곳, 바로 산방산이 있다.산방산은 천연기념물 제376호로 지정되어 있는 곳으로 불상이 안치되어 있는 자연 석굴 '산방굴'과 다양한 해안 식물, 해안절경까지 감상할 수 있는 제주도의 대표관광지이다.최근 중국 관광객들이 발길을 끊으며 우리나라 사람들이 방문하기 더없이 좋다는 제주도. 유채꽃은 5월까지 여유롭게 즐길 수 있다고 하니 봄을 하루빨리 만끽하고 싶다면 제주도를 방문해 보는 것은 어떨까?아름다운 사진 '김수진'님께서 제공해주셨습니다.*시선뉴스에서는 여러분의 아름다운 사진을 제공받고 있습니다.* 저작권자 © 시선뉴스 무단전재 및 재배포 금지 보도자료 발송 및 기사제휴 ▶ sisunnews@sisunnews.co.kr 문의 ▶ 02-838-5150 연예·스포츠 인기뉴스 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” 비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] [카드뉴스] 10월부터 전기요금 인상, 물가 비상에도 요금을 왜 인상해야 할까? 시사상식 노트7 [2022년 10월 둘째 주_시선뉴스] 오늘의 주요뉴스 기사더보기 &gt; 이연선 pro 0850031@sisunnews.co.kr 2020년 1월 21일, 오늘의 띠별 운세 [인포그래픽] 2020년 1월 5일, KBL 프로농구 경기일정 [인포그래픽] 2020년 1월 5일, 오늘의 띠별 운세 [인포그래픽] 오늘 이 영화 어때요? 1 [뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' [뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 2 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 1 [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ 2 [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ 많이 본 뉴스 종합 다큐멘터리 1[정책브리핑] 2022년 10월 10일 월요일 주요 정책 2[오늘의 사자성어] 피갈회옥[被褐懷玉] 3[10년 전 오늘] 검찰, 프로포폴 판매-투약자 무더기 체포...전면 수사에 나서 4車 주요뉴스, 휘발유 30.7원·경유 18.6원↓ - 무면허 렌터카 사고 - '타다' 대법서 최종 판단 [모터그램] 5이번 주 별자리운세 '10월 10일~10월 16일' [인포그래픽] 6[뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 7앱 개발자들의 수익과 직결되는 ‘인앱 결제’, 애플 가격 인상 내걸어 [지식용어] 82022년 10월 10일, 오늘의 띠별 운세 [인포그래픽] 910월 10일 월요일, 오늘의 날씨와 미세먼지 농도 [인포그래픽] 10[시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 1[10년 전 오늘] 자동차 경주 동호회원들, 차량 튜닝비 충당 위해 보험 사기... 무더기 적발 2[시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 3[10년 전 오늘] 검찰, 프로포폴 판매-투약자 무더기 체포...전면 수사에 나서 4[10년 전 오늘] 566돌 한글날 경축행사 거행...도심 곳곳 각종 행사 펼쳐져 5[10년 전 오늘] 안양 환전소 여직원 살해 용의자, 필리핀서 검거되자 자살 6[10년 전 오늘] 골키퍼 김병지, K리그 최초 600경기 출전 대기록 7[10년 전 오늘] 제주공항 입구서 10중 추돌 사고 발생... 9명 부상 8[어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 9[10년 전 오늘] 화엄사 각황전 방화 시도... 문 절반 그을려 10[10년 전 오늘] 17회 부산국제영화제(BIFF) 개막...안성기-탕웨이 사회로 개막식 진행 스타 인터뷰 [시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 [시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 [어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 [어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' 신문방송사소개 인사말 연혁 등록인증 윤리강령 저작권규약 광고·제휴 제공제휴사 개인정보취급방침 이메일무단수집거부 찾아오시는길 청소년보호정책 서울특별시 구로구 디지털로31길 20 (구로동) 에이스테크노타워 5차 1008호 편집인 : 박진아 발행인 : 김정우 청소년보호책임자 : 박진아 등록일 : 2012.08.01 인터넷신문 등록번호 : 서울 아03964 이메일 : sisunnews@sisunnews.co.kr 사업자번호 : 130-86-88882 대표전화 : 02-838-5150 팩스 : 02-851-2908 Copyright © 2022 시선뉴스. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
   </si>
 </sst>
 </file>
@@ -437,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,9 +746,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -469,9 +754,6 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -481,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +785,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +807,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +818,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +829,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +840,551 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
